--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33697\ICF\Analysis - Shared Resources\Code\DHS-Indicators-Stata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="6_{62BF7E7C-45DE-4506-B34F-5C16B6014826}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{3EB8B577-1C2B-4819-B62C-BDF606B693DF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10224" windowHeight="3504"/>
+    <workbookView xWindow="-25252" yWindow="-118" windowWidth="25370" windowHeight="13759" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CH2PH" sheetId="17" r:id="rId1"/>
@@ -34,18 +35,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="1322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="1324">
   <si>
     <t>Chapter</t>
   </si>
@@ -4012,12 +4007,18 @@
   </si>
   <si>
     <t xml:space="preserve">Master file for the women's empowerment chapter. The master file will call the do files listed below and the WE_tables.do file not listed here. The tables do file will produce excel tables of the indicators. Some of the do files will also produce tables as indicated in the notes below. Please check for country specific variations. </t>
+  </si>
+  <si>
+    <t>CH_STOOL.do</t>
+  </si>
+  <si>
+    <t>Do file will drop observations. Please see notes in do file.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4183,6 +4184,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4205,16 +4215,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4495,28 +4496,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
@@ -4527,7 +4528,7 @@
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4547,21 +4548,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>835</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>836</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>837</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="17"/>
       <c r="C3" s="19"/>
@@ -4569,7 +4570,7 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>838</v>
@@ -4585,7 +4586,7 @@
       </c>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17" t="s">
@@ -4599,7 +4600,7 @@
       </c>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
@@ -4613,7 +4614,7 @@
       </c>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17" t="s">
@@ -4627,7 +4628,7 @@
       </c>
       <c r="F7" s="17"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -4637,7 +4638,7 @@
       </c>
       <c r="F8" s="17"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17" t="s">
@@ -4651,7 +4652,7 @@
       </c>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17" t="s">
@@ -4665,7 +4666,7 @@
       </c>
       <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17" t="s">
@@ -4679,7 +4680,7 @@
       </c>
       <c r="F11" s="17"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17" t="s">
@@ -4693,7 +4694,7 @@
       </c>
       <c r="F12" s="17"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17" t="s">
@@ -4707,7 +4708,7 @@
       </c>
       <c r="F13" s="17"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -4717,7 +4718,7 @@
       </c>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17" t="s">
@@ -4731,7 +4732,7 @@
       </c>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
@@ -4745,7 +4746,7 @@
       </c>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17" t="s">
@@ -4759,7 +4760,7 @@
       </c>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -4769,7 +4770,7 @@
       </c>
       <c r="F18" s="17"/>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17" t="s">
@@ -4959,7 +4960,7 @@
       </c>
       <c r="F31" s="17"/>
     </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17" t="s">
@@ -5001,7 +5002,7 @@
       </c>
       <c r="F34" s="17"/>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17" t="s">
@@ -5028,7 +5029,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17" t="s">
@@ -5041,7 +5042,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17" t="s">
@@ -5145,7 +5146,7 @@
       </c>
       <c r="F45" s="17"/>
     </row>
-    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17" t="s">
@@ -5185,7 +5186,7 @@
       </c>
       <c r="F48" s="17"/>
     </row>
-    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17" t="s">
@@ -5211,7 +5212,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17" t="s">
@@ -5225,7 +5226,7 @@
       </c>
       <c r="F51" s="17"/>
     </row>
-    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17" t="s">
@@ -5529,7 +5530,7 @@
       </c>
       <c r="F74" s="17"/>
     </row>
-    <row r="75" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17" t="s">
@@ -5607,7 +5608,7 @@
       </c>
       <c r="F80" s="17"/>
     </row>
-    <row r="81" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="17"/>
       <c r="C81" s="17" t="s">
@@ -6044,7 +6045,7 @@
       </c>
       <c r="F112" s="17"/>
     </row>
-    <row r="113" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="B113" s="17"/>
       <c r="C113" s="17" t="s">
@@ -6071,7 +6072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="17"/>
       <c r="B115" s="17"/>
       <c r="C115" s="17" t="s">
@@ -6115,7 +6116,7 @@
       </c>
       <c r="F117" s="17"/>
     </row>
-    <row r="118" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="B118" s="17"/>
       <c r="C118" s="17" t="s">
@@ -6211,14 +6212,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
@@ -6229,7 +6230,7 @@
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6249,19 +6250,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1048</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>1049</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>1050</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
@@ -6273,7 +6274,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>1052</v>
@@ -6291,7 +6292,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17" t="s">
@@ -6307,7 +6308,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
@@ -6323,7 +6324,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17" t="s">
@@ -6415,7 +6416,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -6425,7 +6426,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -6459,7 +6460,7 @@
       <c r="E16" s="17" t="s">
         <v>1084</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="31" t="s">
         <v>1085</v>
       </c>
     </row>
@@ -6473,7 +6474,7 @@
         <v>1087</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="28"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
@@ -6487,7 +6488,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -6525,7 +6526,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -6549,11 +6550,11 @@
       <c r="E23" s="17" t="s">
         <v>972</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="32" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17" t="s">
@@ -6565,9 +6566,9 @@
       <c r="E24" s="17" t="s">
         <v>972</v>
       </c>
-      <c r="F24" s="29"/>
-    </row>
-    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="F24" s="32"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -6579,7 +6580,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="26" t="s">
         <v>1103</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -6597,7 +6598,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
-      <c r="B27" s="23"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="1" t="s">
         <v>1107</v>
       </c>
@@ -6613,7 +6614,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="1" t="s">
         <v>1109</v>
       </c>
@@ -6629,7 +6630,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
-      <c r="B29" s="23"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="17" t="s">
         <v>1111</v>
       </c>
@@ -6643,7 +6644,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
-      <c r="B30" s="23"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="17" t="s">
         <v>1113</v>
       </c>
@@ -6657,7 +6658,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
-      <c r="B31" s="23"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="17" t="s">
         <v>1115</v>
       </c>
@@ -6669,7 +6670,7 @@
       </c>
       <c r="F31" s="17"/>
     </row>
-    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -6723,7 +6724,7 @@
       </c>
       <c r="F35" s="17"/>
     </row>
-    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -6765,7 +6766,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17" t="s">
@@ -6809,7 +6810,7 @@
       </c>
       <c r="F41" s="17"/>
     </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17" t="s">
@@ -6823,7 +6824,7 @@
       </c>
       <c r="F42" s="17"/>
     </row>
-    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17" t="s">
@@ -6837,7 +6838,7 @@
       </c>
       <c r="F43" s="17"/>
     </row>
-    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17" t="s">
@@ -6865,7 +6866,7 @@
       </c>
       <c r="F45" s="17"/>
     </row>
-    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17" t="s">
@@ -6893,7 +6894,7 @@
       </c>
       <c r="F47" s="17"/>
     </row>
-    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17" t="s">
@@ -6921,7 +6922,7 @@
       </c>
       <c r="F49" s="17"/>
     </row>
-    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17" t="s">
@@ -6943,7 +6944,7 @@
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
     </row>
-    <row r="52" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17" t="s">
@@ -7225,24 +7226,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.44140625" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" customWidth="1"/>
     <col min="4" max="4" width="113.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.6640625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="55.6640625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7262,691 +7263,691 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="47.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1178</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>1179</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>1180</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" s="24" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="F3" s="22"/>
     </row>
-    <row r="4" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="24" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
+    <row r="5" spans="1:6" s="24" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="24" t="s">
         <v>1181</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="24" t="s">
         <v>1182</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="24" t="s">
         <v>1183</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="22"/>
     </row>
-    <row r="6" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="31" t="s">
+    <row r="6" spans="1:6" s="24" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C6" s="24" t="s">
         <v>1184</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="24" t="s">
         <v>1189</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="22"/>
     </row>
-    <row r="7" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="31" t="s">
+    <row r="7" spans="1:6" s="24" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C7" s="24" t="s">
         <v>1185</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="24" t="s">
         <v>1186</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="22"/>
     </row>
-    <row r="8" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="31" t="s">
+    <row r="8" spans="1:6" s="24" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C8" s="24" t="s">
         <v>1187</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="24" t="s">
         <v>1188</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="22"/>
     </row>
-    <row r="9" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="31" t="s">
+    <row r="9" spans="1:6" s="24" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C9" s="24" t="s">
         <v>1190</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="24" t="s">
         <v>1191</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="22"/>
     </row>
-    <row r="10" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="31" t="s">
+    <row r="10" spans="1:6" s="24" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C10" s="24" t="s">
         <v>1192</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="24" t="s">
         <v>1193</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="31" t="s">
+    <row r="11" spans="1:6" s="24" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C11" s="24" t="s">
         <v>1194</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="24" t="s">
         <v>1195</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="31" t="s">
+    <row r="12" spans="1:6" s="24" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C12" s="24" t="s">
         <v>1196</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="24" t="s">
         <v>1197</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:6" s="31" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C13" s="31" t="s">
+    <row r="13" spans="1:6" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C13" s="24" t="s">
         <v>1198</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="24" t="s">
         <v>1199</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="31" t="s">
+    <row r="14" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="24" t="s">
         <v>1201</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="24" t="s">
         <v>1202</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="31" t="s">
+    <row r="15" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="24" t="s">
         <v>1203</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="24" t="s">
         <v>1204</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="31" t="s">
+    <row r="17" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="24" t="s">
         <v>1205</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="24" t="s">
         <v>1210</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="31" t="s">
+    <row r="18" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="24" t="s">
         <v>1206</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="24" t="s">
         <v>1211</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="31" t="s">
+    <row r="19" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="24" t="s">
         <v>1207</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="24" t="s">
         <v>1212</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="31" t="s">
+    <row r="20" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="24" t="s">
         <v>1208</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="24" t="s">
         <v>1213</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="31" t="s">
+    <row r="21" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="24" t="s">
         <v>1209</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="24" t="s">
         <v>1214</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="31" t="s">
+    <row r="23" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="24" t="s">
         <v>1215</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="24" t="s">
         <v>1216</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="24" t="s">
         <v>1217</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="31" t="s">
+    <row r="24" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="24" t="s">
         <v>1218</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="24" t="s">
         <v>1219</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="31" t="s">
+    <row r="25" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="24" t="s">
         <v>1220</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="24" t="s">
         <v>1221</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="22"/>
     </row>
-    <row r="26" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F26" s="22"/>
     </row>
-    <row r="27" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="31" t="s">
+    <row r="27" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="24" t="s">
         <v>1222</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="24" t="s">
         <v>1223</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="24" t="s">
         <v>1224</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="33" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="28" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="31" t="s">
+    <row r="28" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="24" t="s">
         <v>1226</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="24" t="s">
         <v>1227</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="32"/>
-    </row>
-    <row r="29" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="31" t="s">
+      <c r="F28" s="33"/>
+    </row>
+    <row r="29" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="24" t="s">
         <v>1228</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="24" t="s">
         <v>1229</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="32"/>
-    </row>
-    <row r="30" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="31" t="s">
+      <c r="F29" s="33"/>
+    </row>
+    <row r="30" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="24" t="s">
         <v>1230</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="24" t="s">
         <v>1231</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="32"/>
-    </row>
-    <row r="31" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="33"/>
+    </row>
+    <row r="31" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="31" t="s">
+    <row r="32" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="24" t="s">
         <v>1232</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="24" t="s">
         <v>1235</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="24" t="s">
         <v>22</v>
       </c>
       <c r="F32" s="22"/>
     </row>
-    <row r="33" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="31" t="s">
+    <row r="33" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="24" t="s">
         <v>1233</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="24" t="s">
         <v>1236</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="24" t="s">
         <v>22</v>
       </c>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="31" t="s">
+    <row r="34" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="24" t="s">
         <v>1234</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="24" t="s">
         <v>1237</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="24" t="s">
         <v>22</v>
       </c>
       <c r="F34" s="22"/>
     </row>
-    <row r="35" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F35" s="22"/>
     </row>
-    <row r="36" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="31" t="s">
+    <row r="36" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="24" t="s">
         <v>1238</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="24" t="s">
         <v>1239</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="24" t="s">
         <v>1240</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="31" t="s">
+    <row r="37" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="24" t="s">
         <v>1241</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="24" t="s">
         <v>1242</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="31" t="s">
+    <row r="38" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="24" t="s">
         <v>1243</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="24" t="s">
         <v>1244</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="22"/>
     </row>
-    <row r="39" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="31" t="s">
+    <row r="39" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="24" t="s">
         <v>1245</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="24" t="s">
         <v>1246</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="22"/>
     </row>
-    <row r="40" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F40" s="22"/>
     </row>
-    <row r="41" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="31" t="s">
+    <row r="41" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="24" t="s">
         <v>1247</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="24" t="s">
         <v>1252</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E41" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="22"/>
     </row>
-    <row r="42" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="31" t="s">
+    <row r="42" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="24" t="s">
         <v>1248</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="24" t="s">
         <v>1251</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="22"/>
     </row>
-    <row r="43" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="31" t="s">
+    <row r="43" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="24" t="s">
         <v>1249</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="24" t="s">
         <v>1250</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F43" s="22"/>
     </row>
-    <row r="44" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="31" t="s">
+    <row r="44" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="24" t="s">
         <v>1253</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="24" t="s">
         <v>1254</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F44" s="22"/>
     </row>
-    <row r="45" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F45" s="22"/>
     </row>
-    <row r="46" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="31" t="s">
+    <row r="46" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="24" t="s">
         <v>1272</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="24" t="s">
         <v>1271</v>
       </c>
-      <c r="E46" s="31" t="s">
+      <c r="E46" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="22"/>
     </row>
-    <row r="47" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="31" t="s">
+    <row r="47" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="24" t="s">
         <v>1273</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="24" t="s">
         <v>1274</v>
       </c>
-      <c r="E47" s="31" t="s">
+      <c r="E47" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="22"/>
     </row>
-    <row r="48" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F48" s="22"/>
     </row>
-    <row r="49" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="31" t="s">
+    <row r="49" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="24" t="s">
         <v>1255</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="24" t="s">
         <v>1257</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="24" t="s">
         <v>1256</v>
       </c>
-      <c r="E49" s="31" t="s">
+      <c r="E49" s="24" t="s">
         <v>22</v>
       </c>
       <c r="F49" s="22"/>
     </row>
-    <row r="50" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="31" t="s">
+    <row r="50" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="24" t="s">
         <v>1258</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="24" t="s">
         <v>1259</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="E50" s="24" t="s">
         <v>22</v>
       </c>
       <c r="F50" s="22"/>
     </row>
-    <row r="51" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F51" s="22"/>
     </row>
-    <row r="52" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="31" t="s">
+    <row r="52" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="24" t="s">
         <v>1260</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="24" t="s">
         <v>1261</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="24" t="s">
         <v>1262</v>
       </c>
-      <c r="E52" s="31" t="s">
+      <c r="E52" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="22"/>
     </row>
-    <row r="53" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="31" t="s">
+    <row r="53" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="24" t="s">
         <v>1263</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="24" t="s">
         <v>1264</v>
       </c>
-      <c r="E53" s="31" t="s">
+      <c r="E53" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="22"/>
     </row>
-    <row r="54" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="31" t="s">
+    <row r="54" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="24" t="s">
         <v>1265</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="24" t="s">
         <v>1266</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="E54" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="22"/>
     </row>
-    <row r="55" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="31" t="s">
+    <row r="55" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="24" t="s">
         <v>1267</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="24" t="s">
         <v>1268</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="22"/>
     </row>
-    <row r="56" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="31" t="s">
+    <row r="56" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="24" t="s">
         <v>1269</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D56" s="24" t="s">
         <v>1270</v>
       </c>
-      <c r="E56" s="31" t="s">
+      <c r="E56" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="22"/>
     </row>
-    <row r="57" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F57" s="22"/>
     </row>
-    <row r="58" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="31" t="s">
+    <row r="58" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="24" t="s">
         <v>1275</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="24" t="s">
         <v>1276</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="24" t="s">
         <v>1277</v>
       </c>
-      <c r="E58" s="31" t="s">
+      <c r="E58" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="22"/>
     </row>
-    <row r="59" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="31" t="s">
+    <row r="59" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="24" t="s">
         <v>1278</v>
       </c>
-      <c r="D59" s="31" t="s">
+      <c r="D59" s="24" t="s">
         <v>1279</v>
       </c>
-      <c r="E59" s="31" t="s">
+      <c r="E59" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="22"/>
     </row>
-    <row r="60" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="31" t="s">
+    <row r="60" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="24" t="s">
         <v>1280</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="24" t="s">
         <v>1281</v>
       </c>
-      <c r="E60" s="31" t="s">
+      <c r="E60" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="22"/>
     </row>
-    <row r="61" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="31" t="s">
+    <row r="61" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="24" t="s">
         <v>1282</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="24" t="s">
         <v>1283</v>
       </c>
-      <c r="E61" s="31" t="s">
+      <c r="E61" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="22"/>
     </row>
-    <row r="62" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F62" s="22"/>
     </row>
-    <row r="63" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F63" s="22"/>
     </row>
-    <row r="64" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F64" s="22"/>
     </row>
-    <row r="65" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F65" s="22"/>
     </row>
-    <row r="66" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F66" s="22"/>
     </row>
-    <row r="67" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F67" s="22"/>
     </row>
-    <row r="68" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F68" s="22"/>
     </row>
-    <row r="69" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F69" s="22"/>
     </row>
-    <row r="70" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F70" s="22"/>
     </row>
-    <row r="71" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F71" s="22"/>
     </row>
-    <row r="72" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F72" s="22"/>
     </row>
-    <row r="73" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F73" s="22"/>
     </row>
-    <row r="74" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F74" s="22"/>
     </row>
-    <row r="75" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F75" s="22"/>
     </row>
-    <row r="76" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F76" s="22"/>
     </row>
-    <row r="77" spans="6:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F77" s="22"/>
     </row>
   </sheetData>
@@ -7960,25 +7961,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="31" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="75.21875" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="75.21875" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.88671875" style="22" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="31"/>
+    <col min="7" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7998,45 +7999,45 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="33" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="25" customFormat="1" ht="47.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>1317</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>1284</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>1320</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="31" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="24" t="s">
         <v>1285</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="24" t="s">
         <v>1286</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="24" t="s">
         <v>1287</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="24" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="24" t="s">
         <v>1289</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="24" t="s">
         <v>1290</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="24" t="s">
         <v>1291</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="24" t="s">
         <v>1292</v>
       </c>
       <c r="F6" s="22" t="s">
@@ -8044,120 +8045,120 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="24" t="s">
         <v>1294</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="24" t="s">
         <v>1295</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="24" t="s">
         <v>1292</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="33" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="24" t="s">
         <v>1296</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="24" t="s">
         <v>1297</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="24" t="s">
         <v>1292</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="24" t="s">
         <v>1298</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="24" t="s">
         <v>1299</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="24" t="s">
         <v>1292</v>
       </c>
-      <c r="F9" s="32"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="31" t="s">
+      <c r="F9" s="33"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C11" s="24" t="s">
         <v>1300</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="24" t="s">
         <v>1302</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="24" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="31" t="s">
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C12" s="24" t="s">
         <v>1301</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="24" t="s">
         <v>1303</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="24" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="31" t="s">
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B14" s="24" t="s">
         <v>1304</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="24" t="s">
         <v>1305</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="24" t="s">
         <v>1306</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="24" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="24" t="s">
         <v>1308</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="24" t="s">
         <v>1309</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="24" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="24" t="s">
         <v>1311</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="24" t="s">
         <v>1310</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="24" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="24" t="s">
         <v>1312</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="24" t="s">
         <v>1313</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="24" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="24" t="s">
         <v>1314</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="24" t="s">
         <v>1315</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="24" t="s">
         <v>1316</v>
       </c>
     </row>
@@ -8171,14 +8172,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5546875" customWidth="1"/>
     <col min="2" max="2" width="14.109375" customWidth="1"/>
@@ -8187,7 +8188,7 @@
     <col min="6" max="6" width="38.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8207,19 +8208,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="33" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="25" customFormat="1" ht="47.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>1318</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>1319</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>1321</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8230,56 +8231,56 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.109375" style="1" customWidth="1"/>
@@ -8290,7 +8291,7 @@
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8317,14 +8318,14 @@
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="17"/>
       <c r="C3" s="18"/>
@@ -8332,7 +8333,7 @@
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>9</v>
@@ -8348,7 +8349,7 @@
       </c>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17" t="s">
@@ -8362,7 +8363,7 @@
       </c>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
@@ -8376,7 +8377,7 @@
       </c>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17" t="s">
@@ -8390,7 +8391,7 @@
       </c>
       <c r="F7" s="17"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
@@ -8404,7 +8405,7 @@
       </c>
       <c r="F8" s="17"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17" t="s">
@@ -8418,7 +8419,7 @@
       </c>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17" t="s">
@@ -8432,7 +8433,7 @@
       </c>
       <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17" t="s">
@@ -8446,7 +8447,7 @@
       </c>
       <c r="F11" s="17"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17" t="s">
@@ -8460,7 +8461,7 @@
       </c>
       <c r="F12" s="17"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17" t="s">
@@ -8474,7 +8475,7 @@
       </c>
       <c r="F13" s="17"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17" t="s">
@@ -8488,7 +8489,7 @@
       </c>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17" t="s">
@@ -8504,7 +8505,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
@@ -8518,7 +8519,7 @@
       </c>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -8526,7 +8527,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>40</v>
@@ -8598,7 +8599,7 @@
       </c>
       <c r="F22" s="17"/>
     </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17" t="s">
@@ -8662,14 +8663,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.33203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" style="6" customWidth="1"/>
@@ -8680,7 +8681,7 @@
     <col min="7" max="16384" width="8.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -8707,14 +8708,14 @@
       <c r="B2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -8722,7 +8723,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>58</v>
@@ -8740,7 +8741,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
@@ -8756,7 +8757,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -8772,7 +8773,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
@@ -8788,7 +8789,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
@@ -8804,7 +8805,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
@@ -8820,7 +8821,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
@@ -8836,7 +8837,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
@@ -8852,7 +8853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
@@ -8868,7 +8869,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -8876,7 +8877,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>78</v>
@@ -8894,7 +8895,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -8902,7 +8903,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>81</v>
@@ -8920,7 +8921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -9379,14 +9380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="17.109375" style="6" customWidth="1"/>
@@ -9397,7 +9398,7 @@
     <col min="7" max="16384" width="8.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9424,14 +9425,14 @@
       <c r="B2" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -9439,7 +9440,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>149</v>
@@ -9455,7 +9456,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
@@ -9469,7 +9470,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -9511,7 +9512,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -9537,7 +9538,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -9545,7 +9546,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>164</v>
@@ -9561,7 +9562,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -9578,14 +9579,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -9596,7 +9597,7 @@
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9616,21 +9617,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="33.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -9638,7 +9639,7 @@
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>170</v>
@@ -9654,7 +9655,7 @@
       </c>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17" t="s">
@@ -9668,7 +9669,7 @@
       </c>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
@@ -9682,7 +9683,7 @@
       </c>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17" t="s">
@@ -9696,7 +9697,7 @@
       </c>
       <c r="F7" s="17"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
@@ -9710,7 +9711,7 @@
       </c>
       <c r="F8" s="17"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17" t="s">
@@ -9724,7 +9725,7 @@
       </c>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17" t="s">
@@ -9738,7 +9739,7 @@
       </c>
       <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17" t="s">
@@ -9752,7 +9753,7 @@
       </c>
       <c r="F11" s="17"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17" t="s">
@@ -9766,7 +9767,7 @@
       </c>
       <c r="F12" s="17"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17" t="s">
@@ -9780,7 +9781,7 @@
       </c>
       <c r="F13" s="17"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17" t="s">
@@ -9794,7 +9795,7 @@
       </c>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17" t="s">
@@ -9808,7 +9809,7 @@
       </c>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
@@ -9822,7 +9823,7 @@
       </c>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17" t="s">
@@ -9836,7 +9837,7 @@
       </c>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17" t="s">
@@ -9998,7 +9999,7 @@
       <c r="E29" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="29" t="s">
         <v>223</v>
       </c>
     </row>
@@ -10014,7 +10015,7 @@
       <c r="E30" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="26"/>
+      <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
@@ -10028,7 +10029,7 @@
       <c r="E31" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="26"/>
+      <c r="F31" s="29"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
@@ -10042,7 +10043,7 @@
       <c r="E32" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="26"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
@@ -10056,7 +10057,7 @@
       <c r="E33" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="26"/>
+      <c r="F33" s="29"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
@@ -10070,7 +10071,7 @@
       <c r="E34" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="26"/>
+      <c r="F34" s="29"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
@@ -10084,7 +10085,7 @@
       <c r="E35" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="26"/>
+      <c r="F35" s="29"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
@@ -10098,7 +10099,7 @@
       <c r="E36" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="26"/>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
@@ -10112,7 +10113,7 @@
       <c r="E37" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="26"/>
+      <c r="F37" s="29"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
@@ -10126,7 +10127,7 @@
       <c r="E38" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="26"/>
+      <c r="F38" s="29"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
@@ -10140,7 +10141,7 @@
       <c r="E39" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="26"/>
+      <c r="F39" s="29"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
@@ -10154,7 +10155,7 @@
       <c r="E40" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="26"/>
+      <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
@@ -10168,7 +10169,7 @@
       <c r="E41" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="26"/>
+      <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
@@ -10182,7 +10183,7 @@
       <c r="E42" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="26"/>
+      <c r="F42" s="29"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
@@ -10196,7 +10197,7 @@
       <c r="E43" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="26"/>
+      <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
@@ -10210,7 +10211,7 @@
       <c r="E44" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="26"/>
+      <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
@@ -10224,7 +10225,7 @@
       <c r="E45" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="26"/>
+      <c r="F45" s="29"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
@@ -10238,7 +10239,7 @@
       <c r="E46" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="26"/>
+      <c r="F46" s="29"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
@@ -10650,7 +10651,7 @@
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
     </row>
-    <row r="78" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="60.25" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17" t="s">
@@ -10692,7 +10693,7 @@
       </c>
       <c r="F80" s="17"/>
     </row>
-    <row r="81" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="17"/>
       <c r="C81" s="17" t="s">
@@ -10706,7 +10707,7 @@
       </c>
       <c r="F81" s="17"/>
     </row>
-    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17" t="s">
@@ -10720,7 +10721,7 @@
       </c>
       <c r="F82" s="17"/>
     </row>
-    <row r="83" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17" t="s">
@@ -10734,7 +10735,7 @@
       </c>
       <c r="F83" s="17"/>
     </row>
-    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17" t="s">
@@ -10770,7 +10771,7 @@
       <c r="E86" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F86" s="26" t="s">
+      <c r="F86" s="29" t="s">
         <v>329</v>
       </c>
     </row>
@@ -10786,7 +10787,7 @@
       <c r="E87" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F87" s="26"/>
+      <c r="F87" s="29"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
@@ -10800,7 +10801,7 @@
       <c r="E88" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F88" s="26"/>
+      <c r="F88" s="29"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
@@ -10814,7 +10815,7 @@
       <c r="E89" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="26"/>
+      <c r="F89" s="29"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
@@ -10828,7 +10829,7 @@
       <c r="E90" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F90" s="26"/>
+      <c r="F90" s="29"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
@@ -10842,7 +10843,7 @@
       <c r="E91" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F91" s="26"/>
+      <c r="F91" s="29"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
@@ -10856,7 +10857,7 @@
       <c r="E92" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F92" s="26"/>
+      <c r="F92" s="29"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
@@ -10870,7 +10871,7 @@
       <c r="E93" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="26"/>
+      <c r="F93" s="29"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
@@ -10884,7 +10885,7 @@
       <c r="E94" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F94" s="26"/>
+      <c r="F94" s="29"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
@@ -10898,7 +10899,7 @@
       <c r="E95" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F95" s="26"/>
+      <c r="F95" s="29"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
@@ -10912,7 +10913,7 @@
       <c r="E96" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F96" s="26"/>
+      <c r="F96" s="29"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
@@ -10926,7 +10927,7 @@
       <c r="E97" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="26"/>
+      <c r="F97" s="29"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
@@ -10940,7 +10941,7 @@
       <c r="E98" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F98" s="26"/>
+      <c r="F98" s="29"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
@@ -10954,7 +10955,7 @@
       <c r="E99" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F99" s="26"/>
+      <c r="F99" s="29"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
@@ -11377,7 +11378,7 @@
       <c r="E131" s="17"/>
       <c r="F131" s="17"/>
     </row>
-    <row r="132" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>413</v>
@@ -11451,7 +11452,7 @@
       </c>
       <c r="F136" s="17"/>
     </row>
-    <row r="137" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="90.35" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
       <c r="B137" s="17"/>
       <c r="C137" s="17" t="s">
@@ -11584,14 +11585,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" style="6" customWidth="1"/>
@@ -11602,7 +11603,7 @@
     <col min="7" max="16384" width="8.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -11629,14 +11630,14 @@
       <c r="B2" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -11649,16 +11650,16 @@
       <c r="B4" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -11666,7 +11667,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>445</v>
@@ -11684,7 +11685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -11692,7 +11693,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>448</v>
@@ -11726,7 +11727,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
@@ -11738,7 +11739,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -11746,7 +11747,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
@@ -11762,7 +11763,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
@@ -11778,7 +11779,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
@@ -11794,7 +11795,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
@@ -11880,7 +11881,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
@@ -11934,7 +11935,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
@@ -11966,7 +11967,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
@@ -12006,7 +12007,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="45.2" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="9" t="s">
@@ -12048,7 +12049,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="10" t="s">
@@ -12064,7 +12065,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="10" t="s">
@@ -12180,7 +12181,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="10" t="s">
@@ -12196,7 +12197,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="10" t="s">
@@ -12212,7 +12213,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="10" t="s">
@@ -12228,7 +12229,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="C45" s="10" t="s">
         <v>512</v>
       </c>
@@ -12242,7 +12243,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="C46" s="10" t="s">
         <v>514</v>
       </c>
@@ -12280,7 +12281,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="49" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="C49" s="10" t="s">
         <v>518</v>
       </c>
@@ -12294,7 +12295,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="50" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="C50" s="10" t="s">
         <v>520</v>
       </c>
@@ -12308,7 +12309,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="51" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="C51" s="10" t="s">
         <v>522</v>
       </c>
@@ -12322,7 +12323,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="52" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="C52" s="10" t="s">
         <v>524</v>
       </c>
@@ -12346,14 +12347,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
@@ -12364,7 +12365,7 @@
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12384,21 +12385,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>526</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>528</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -12436,7 +12437,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -12444,7 +12445,7 @@
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>534</v>
@@ -12462,7 +12463,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
@@ -12478,7 +12479,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17" t="s">
@@ -12492,7 +12493,7 @@
       </c>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17" t="s">
@@ -12506,7 +12507,7 @@
       </c>
       <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17" t="s">
@@ -12520,7 +12521,7 @@
       </c>
       <c r="F11" s="17"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17" t="s">
@@ -12534,7 +12535,7 @@
       </c>
       <c r="F12" s="17"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17" t="s">
@@ -12550,7 +12551,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17" t="s">
@@ -12564,7 +12565,7 @@
       </c>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17" t="s">
@@ -12989,14 +12990,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="F123" sqref="F123:F124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
@@ -13027,21 +13028,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>611</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>612</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>613</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -13049,7 +13050,7 @@
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>614</v>
@@ -13065,7 +13066,7 @@
       </c>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17" t="s">
@@ -13079,7 +13080,7 @@
       </c>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
@@ -13093,7 +13094,7 @@
       </c>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -13101,7 +13102,7 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>621</v>
@@ -13117,7 +13118,7 @@
       </c>
       <c r="F8" s="17"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17" t="s">
@@ -13131,7 +13132,7 @@
       </c>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17" t="s">
@@ -13145,7 +13146,7 @@
       </c>
       <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -13153,7 +13154,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17" t="s">
@@ -13167,7 +13168,7 @@
       </c>
       <c r="F12" s="17"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17" t="s">
@@ -13181,7 +13182,7 @@
       </c>
       <c r="F13" s="17"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17" t="s">
@@ -13195,7 +13196,7 @@
       </c>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17" t="s">
@@ -13209,7 +13210,7 @@
       </c>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
@@ -13223,7 +13224,7 @@
       </c>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17" t="s">
@@ -13237,7 +13238,7 @@
       </c>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17" t="s">
@@ -13919,7 +13920,7 @@
       </c>
       <c r="F70" s="17"/>
     </row>
-    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17" t="s">
@@ -13963,7 +13964,7 @@
       </c>
       <c r="F73" s="17"/>
     </row>
-    <row r="74" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17" t="s">
@@ -13990,7 +13991,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17" t="s">
@@ -14017,7 +14018,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17" t="s">
@@ -14045,7 +14046,7 @@
       </c>
       <c r="F79" s="17"/>
     </row>
-    <row r="80" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17" t="s">
@@ -14107,7 +14108,7 @@
       </c>
       <c r="F84" s="17"/>
     </row>
-    <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="17"/>
       <c r="C85" s="17" t="s">
@@ -14175,7 +14176,7 @@
       </c>
       <c r="F89" s="17"/>
     </row>
-    <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17" t="s">
@@ -14465,7 +14466,7 @@
       </c>
       <c r="F110" s="17"/>
     </row>
-    <row r="111" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="17"/>
       <c r="C111" s="17" t="s">
@@ -14479,7 +14480,7 @@
       </c>
       <c r="F111" s="17"/>
     </row>
-    <row r="112" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="17"/>
       <c r="C112" s="17" t="s">
@@ -14506,7 +14507,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="B114" s="17"/>
       <c r="C114" s="17" t="s">
@@ -14520,7 +14521,7 @@
       </c>
       <c r="F114" s="17"/>
     </row>
-    <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A115" s="17"/>
       <c r="B115" s="17"/>
       <c r="C115" s="17" t="s">
@@ -14548,7 +14549,7 @@
       </c>
       <c r="F116" s="17"/>
     </row>
-    <row r="117" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="B117" s="17"/>
       <c r="C117" s="17" t="s">
@@ -14590,7 +14591,7 @@
       </c>
       <c r="F119" s="17"/>
     </row>
-    <row r="120" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="17"/>
       <c r="C120" s="17" t="s">
@@ -14626,9 +14627,11 @@
       <c r="E122" s="17"/>
       <c r="F122" s="17"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="45.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
-      <c r="B123" s="17"/>
+      <c r="B123" s="17" t="s">
+        <v>1322</v>
+      </c>
       <c r="C123" s="17" t="s">
         <v>828</v>
       </c>
@@ -14638,7 +14641,9 @@
       <c r="E123" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="F123" s="17"/>
+      <c r="F123" s="29" t="s">
+        <v>1323</v>
+      </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
@@ -14652,7 +14657,7 @@
       <c r="E124" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="F124" s="17"/>
+      <c r="F124" s="29"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
@@ -14679,14 +14684,24 @@
       <c r="F126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:F2"/>
+    <mergeCell ref="F123:F124"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -14736,9 +14751,9 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="478" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="530d37be357ae9af341f1311dafd44e2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1b0c369e886228bd2ebc7f10ef132e9" ns1:_="" ns2:_="" ns3:_="">
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="480" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4112082b3fcc37184355d8d9f746cc16">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e31d9155d0f1567779179698607192e" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
     <xsd:import namespace="d16efad5-0601-4cf0-b7c2-89968258c777"/>
@@ -14764,6 +14779,8 @@
                 <xsd:element ref="ns2:Survey_x0020_Type" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -14837,6 +14854,18 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="25" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="26" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -14991,7 +15020,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -15006,16 +15035,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C070FFD4-2B81-40A9-9526-59DD893E6C18}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -15023,8 +15051,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50E825E5-D295-4ACF-B8F3-CD5493E2774D}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{096B1B8F-85B6-4F7D-B099-9F3595B615B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -15043,7 +15071,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC59F560-844B-432B-8AD6-73714CEDFB96}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -15059,12 +15087,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33697\ICF\Analysis - Shared Resources\Code\DHS-Indicators-Stata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2880A1-3DF7-4C00-BE36-46CE29D3FE8B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="114_{BA56B5EA-75AF-4E8A-BCB2-6B6346BBE5CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{79AEAB84-472F-4213-A918-0BF403EA1E9D}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="690" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="690" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CH2PH" sheetId="17" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="1731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="1690">
   <si>
     <t>Chapter</t>
   </si>
@@ -2574,336 +2574,57 @@
     <t>"Mean duration in months of breastfeeding for any breastfeeding - born last 3yrs"</t>
   </si>
   <si>
-    <t>nt_bfch_inf</t>
-  </si>
-  <si>
-    <t>"Breastfed child given infant formula in day/night before survey - last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_bfch_milk</t>
-  </si>
-  <si>
-    <t>"Breastfed child given other milk in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_bfch_liq</t>
-  </si>
-  <si>
-    <t>"Breastfed child given other liquids in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_bfch_bbyfd</t>
-  </si>
-  <si>
-    <t>"Breastfed child given fortified baby food in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_bfch_grain</t>
-  </si>
-  <si>
-    <t>"Breastfed child given grains in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>"Breastfed child given vitamin A rich food in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_bfch_frtveg</t>
-  </si>
-  <si>
-    <t>"Breastfed child given other fruits or vegetables in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_bfch_root</t>
-  </si>
-  <si>
-    <t>"Breastfed child given roots or tubers in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_bfch_legnut</t>
-  </si>
-  <si>
-    <t>"Breastfed child given legumes or nuts in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_bfch_mtfsh</t>
-  </si>
-  <si>
-    <t>"Breastfed child given meat, fish, shellfish, or poultry in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_bfch_egg</t>
-  </si>
-  <si>
-    <t>"Breastfed child given eggs in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_bfch_dairy</t>
-  </si>
-  <si>
-    <t>"Breastfed child given cheese, yogurt, or other milk products in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_bfch_solids</t>
-  </si>
-  <si>
-    <t>"Breastfed child given any solid or semisolid food in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_notbf_inf</t>
-  </si>
-  <si>
-    <t>"Not breastfed child given infant formula in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_notbf_milk</t>
-  </si>
-  <si>
-    <t>"Not breastfed child given other milk in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_notbf_liq</t>
-  </si>
-  <si>
-    <t>"Not breastfed child given other liquids in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_notbf_bbyfd</t>
-  </si>
-  <si>
-    <t>"Not breastfed child given fortified baby food in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_notbf_grain</t>
-  </si>
-  <si>
-    <t>"Not breastfed child given grains in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_notbf_vta</t>
-  </si>
-  <si>
-    <t>"Not breastfed child given vitamin A rich food in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_notbf_frtveg</t>
-  </si>
-  <si>
-    <t>"Not breastfed child given other fruits or vegetables in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_notbf_root</t>
-  </si>
-  <si>
-    <t>"Not breastfed child given roots or tubers in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_notbf_legnut</t>
-  </si>
-  <si>
-    <t>"Not breastfed child given legumes or nuts in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_notbf_mtfsh</t>
-  </si>
-  <si>
-    <t>"Not breastfed child given meat, fish, shellfish, or poultry in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_notbf_egg</t>
-  </si>
-  <si>
-    <t>"Not breastfed child given eggs in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_notbf_dairy</t>
-  </si>
-  <si>
-    <t>"Not breastfed child given cheese, yogurt, or other milk products in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_notbf_solids</t>
-  </si>
-  <si>
-    <t>"Not breastfed child given any solid or semisolid food in day/night before survey- last-born under 2 years"</t>
-  </si>
-  <si>
-    <t>nt_bfch_fed_milk</t>
-  </si>
-  <si>
-    <t>nt_bfch_mindiet</t>
-  </si>
-  <si>
-    <t>nt_bfch_minmeal</t>
-  </si>
-  <si>
-    <t>nt_bfch_minaccept</t>
-  </si>
-  <si>
-    <t>nt_notbf_fed_milk</t>
-  </si>
-  <si>
-    <t>"Not breastfed child given milk or milk products- last-born 6-23months"</t>
-  </si>
-  <si>
-    <t>nt_notbf_mindiet</t>
-  </si>
-  <si>
-    <t>"Not breastfed child with minimum dietary diversity- last-born 6-23months"</t>
-  </si>
-  <si>
-    <t>nt_notbf_minmeal</t>
-  </si>
-  <si>
-    <t>"Not breastfed child with minimum meal frequency- last-born 6-23months"</t>
-  </si>
-  <si>
-    <t>nt_notbf_minaccept</t>
-  </si>
-  <si>
-    <t>"Not breastfed child with minimum acceptable diet- last-born 6-23months"</t>
-  </si>
-  <si>
-    <t>nt_allch_fed_milk</t>
-  </si>
-  <si>
-    <t>"All children given milk or milk products- last-born 6-23months"</t>
-  </si>
-  <si>
-    <t>nt_allch_mindiet</t>
-  </si>
-  <si>
-    <t>"All children with minimum dietary diversity- last-born 6-23months"</t>
-  </si>
-  <si>
-    <t>nt_allch_minmeal</t>
-  </si>
-  <si>
-    <t>"All children with minimum meal frequency- last-born 6-23months"</t>
-  </si>
-  <si>
-    <t>nt_allch_minaccept</t>
-  </si>
-  <si>
-    <t>"All children with minimum acceptable diet- last-born 6-23months"</t>
-  </si>
-  <si>
     <t>NT_CH_MICRO.do</t>
   </si>
   <si>
-    <t>nt_ych_micro_vaf</t>
-  </si>
-  <si>
-    <t>"Youngest children age 6-23mos living with mother given Vit A rich food"</t>
-  </si>
-  <si>
-    <t>nt_ych_micro_irf</t>
-  </si>
-  <si>
-    <t>"Youngest children age 6-23mos living with mother given iron rich food"</t>
-  </si>
-  <si>
     <t>nt_ch_micro_mp</t>
   </si>
   <si>
-    <t>"Children age 6-23mos given mult. micronutrient powder"</t>
-  </si>
-  <si>
     <t>nt_ch_micro_iron</t>
   </si>
   <si>
-    <t>"Children age 6-59mos given iron supplements"</t>
-  </si>
-  <si>
     <t>nt_ch_micro_vas</t>
   </si>
   <si>
-    <t>"Children age 6-59mos given Vit. A supplements"</t>
-  </si>
-  <si>
     <t>nt_ch_micro_dwm</t>
   </si>
   <si>
-    <t>"Children age 6-59mos given deworming medication"</t>
-  </si>
-  <si>
     <t>nt_ch_micro_iod</t>
   </si>
   <si>
-    <t>"Children age 6-59mos live in hh with iodized salt"</t>
-  </si>
-  <si>
     <t>KR and HR</t>
   </si>
   <si>
-    <t>nt_food_c_ther</t>
-  </si>
-  <si>
-    <t>"Children age 6-35mos given therapeutic food"</t>
-  </si>
-  <si>
-    <t>nt_food_c_supp</t>
-  </si>
-  <si>
-    <t>"Children age 6-35mos given supplemental food"</t>
-  </si>
-  <si>
     <t>NT_CH_NUT.do</t>
   </si>
   <si>
-    <t>nt_sev_stunt</t>
-  </si>
-  <si>
     <t>"Severely stunted child under 5 years"</t>
   </si>
   <si>
     <t>PR</t>
   </si>
   <si>
-    <t>nt_stunt</t>
-  </si>
-  <si>
     <t>"Stunted child under 5 years"</t>
   </si>
   <si>
-    <t>nt_mean_haz</t>
-  </si>
-  <si>
     <t>"Mean z-score for height-for-age for children under 5 years"</t>
   </si>
   <si>
-    <t>nt_sev_wast</t>
-  </si>
-  <si>
     <t>"Severely wasted child under 5 years"</t>
   </si>
   <si>
-    <t>nt_wast</t>
-  </si>
-  <si>
     <t>"Wasted child under 5 years"</t>
   </si>
   <si>
-    <t>nt_mean_whz</t>
-  </si>
-  <si>
     <t>"Mean z-score for weight-for-height for children under 5 years"</t>
   </si>
   <si>
-    <t>nt_sev_underwt</t>
-  </si>
-  <si>
     <t>"Severely underweight child under 5 years"</t>
   </si>
   <si>
-    <t>nt_underwt</t>
-  </si>
-  <si>
     <t>"Underweight child under 5 years"</t>
   </si>
   <si>
-    <t>nt_mean_waz</t>
-  </si>
-  <si>
     <t>"Mean weight-for-age for children under 5 years"</t>
   </si>
   <si>
@@ -2943,144 +2664,12 @@
     <t>HR</t>
   </si>
   <si>
-    <t>nt_salt_test</t>
-  </si>
-  <si>
-    <t>"Households with tested salt"</t>
-  </si>
-  <si>
-    <t>NT_M_NUT.do</t>
-  </si>
-  <si>
-    <t>nt_m_any_anem</t>
-  </si>
-  <si>
-    <t>"Any anemia - all men age 15-49"</t>
-  </si>
-  <si>
-    <t>nt_m_norm_bmi</t>
-  </si>
-  <si>
-    <t>"Normal BMI - men age 15-49"</t>
-  </si>
-  <si>
-    <t>nt_m_thin_bmi</t>
-  </si>
-  <si>
-    <t>"Thin BMI - men age 15-49"</t>
-  </si>
-  <si>
-    <t>nt_m_mthin_bmi</t>
-  </si>
-  <si>
-    <t>"Mildly thin BMI  - men age 15-49"</t>
-  </si>
-  <si>
-    <t>nt_m_modsevthin_bmi</t>
-  </si>
-  <si>
-    <t>"Moderately and severely thin BMI - men age 15-49"</t>
-  </si>
-  <si>
-    <t>nt_m_ovobese_bmi</t>
-  </si>
-  <si>
-    <t>"Overweight or obese BMI  - men age 15-49"</t>
-  </si>
-  <si>
-    <t>nt_m_ovwt_bmi</t>
-  </si>
-  <si>
-    <t>"Overweight BMI  - men age 15-49"</t>
-  </si>
-  <si>
-    <t>nt_m_obese_bmi</t>
-  </si>
-  <si>
-    <t>"Obese BMI  - men age 15-49"</t>
-  </si>
-  <si>
-    <t>nt_m_mean_bmi</t>
-  </si>
-  <si>
-    <t>"Mean BMI  - men age 15-49"</t>
-  </si>
-  <si>
-    <t>NT_W_NUT.do</t>
-  </si>
-  <si>
-    <t>nt_w_any_anem</t>
-  </si>
-  <si>
-    <t>"Any anemia - all women age 15-49"</t>
-  </si>
-  <si>
-    <t>nt_w_norm_bmi</t>
-  </si>
-  <si>
-    <t>"Normal BMI - women age 15-49"</t>
-  </si>
-  <si>
-    <t>nt_w_thin_bmi</t>
-  </si>
-  <si>
-    <t>"Thin BMI - women age 15-49"</t>
-  </si>
-  <si>
-    <t>nt_w_mthin_bmi</t>
-  </si>
-  <si>
-    <t>"Mildly thin BMI  - women age 15-49"</t>
-  </si>
-  <si>
-    <t>nt_w_modsevthin_bmi</t>
-  </si>
-  <si>
-    <t>"Moderately and severely thin BMI - women age 15-49"</t>
-  </si>
-  <si>
-    <t>nt_w_ovobese_bmi</t>
-  </si>
-  <si>
-    <t>"Overweight or obese BMI  - women age 15-49"</t>
-  </si>
-  <si>
-    <t>nt_w_ovwt_bmi</t>
-  </si>
-  <si>
-    <t>"Overweight BMI  - women age 15-49"</t>
-  </si>
-  <si>
-    <t>nt_w_obese_bmi</t>
-  </si>
-  <si>
-    <t>"Obese BMI  - women age 15-49"</t>
-  </si>
-  <si>
-    <t>nt_w_mean_bmi</t>
-  </si>
-  <si>
-    <t>"Mean BMI  - women age 15-49"</t>
-  </si>
-  <si>
-    <t>nt_w_micro_iron</t>
-  </si>
-  <si>
     <t>"Number of days women took iron supplements during last pregnancy"</t>
   </si>
   <si>
-    <t>nt_w_micro_dwm</t>
-  </si>
-  <si>
     <t>"Women who took deworming medication during last pregnancy"</t>
   </si>
   <si>
-    <t>nt_w_micro_iod</t>
-  </si>
-  <si>
-    <t>"Women living in hh with iodized salt "</t>
-  </si>
-  <si>
     <t>IR and HR</t>
   </si>
   <si>
@@ -3510,9 +3099,6 @@
     <t>"Have comprehensive knowledge about HIV"</t>
   </si>
   <si>
-    <t>"Know that HIV mother to child transmission can occur during pregnancy"</t>
-  </si>
-  <si>
     <t>"Know that HIV mother to child transmission can occur during delivery"</t>
   </si>
   <si>
@@ -4098,33 +3684,15 @@
     <t>DV_VIOL.do</t>
   </si>
   <si>
-    <t>dv_phy_viol</t>
-  </si>
-  <si>
     <t>"Experienced physical violence since age 15"</t>
   </si>
   <si>
-    <t>dv_phy_viol_12mo</t>
-  </si>
-  <si>
     <t>"Experienced physical violence in the past 12 months"</t>
   </si>
   <si>
-    <t>dv_phy_currhus</t>
-  </si>
-  <si>
     <t>"Experienced physical violence since age 15 by current husband/partner"</t>
   </si>
   <si>
-    <t>dv_phy_forhus</t>
-  </si>
-  <si>
-    <t>dv_phy_curbf</t>
-  </si>
-  <si>
-    <t>dv_phy_forbf</t>
-  </si>
-  <si>
     <t>dv_phy_father</t>
   </si>
   <si>
@@ -4134,9 +3702,6 @@
     <t>dv_phy_sibling</t>
   </si>
   <si>
-    <t>dv_phy_daugh_son</t>
-  </si>
-  <si>
     <t>dv_phy_other_rel</t>
   </si>
   <si>
@@ -4206,24 +3771,6 @@
     <t>"Experienced physical violence since age 15 by other"</t>
   </si>
   <si>
-    <t>dv_sex_viol</t>
-  </si>
-  <si>
-    <t>dv_sex_viol_12mo</t>
-  </si>
-  <si>
-    <t>dv_sex_currhus</t>
-  </si>
-  <si>
-    <t>dv_sex_forhus</t>
-  </si>
-  <si>
-    <t>dv_sex_curbf</t>
-  </si>
-  <si>
-    <t>dv_sex_forbf</t>
-  </si>
-  <si>
     <t>dv_sex_father</t>
   </si>
   <si>
@@ -4317,12 +3864,6 @@
     <t>"Specific age experienced sexual violence"</t>
   </si>
   <si>
-    <t>dv_sex_viol_none</t>
-  </si>
-  <si>
-    <t>dv_sex_viol_age</t>
-  </si>
-  <si>
     <t>"Did not experience sexual violence"</t>
   </si>
   <si>
@@ -4341,18 +3882,9 @@
     <t>"Experienced physical and sexual violence only"</t>
   </si>
   <si>
-    <t>dv_phy_and_sex</t>
-  </si>
-  <si>
-    <t>dv_phy_or_sex</t>
-  </si>
-  <si>
     <t>"Experienced physical or sexual violence only"</t>
   </si>
   <si>
-    <t>dv_viol_preg</t>
-  </si>
-  <si>
     <t>"Experienced physical violence during pregnancy"</t>
   </si>
   <si>
@@ -4374,45 +3906,9 @@
     <t>"Current or most recent partner ever did not trust her with money"</t>
   </si>
   <si>
-    <t>dv_hus_any_phy</t>
-  </si>
-  <si>
-    <t>dv_hus_push</t>
-  </si>
-  <si>
-    <t>dv_hus_slap</t>
-  </si>
-  <si>
-    <t>dv_hus_twist</t>
-  </si>
-  <si>
-    <t>dv_hus_punch</t>
-  </si>
-  <si>
-    <t>dv_hus_kick</t>
-  </si>
-  <si>
-    <t>dv_hus_choke</t>
-  </si>
-  <si>
-    <t>dv_hus_threat</t>
-  </si>
-  <si>
     <t>often/sometimes/total</t>
   </si>
   <si>
-    <t>dv_hus_any_sexv</t>
-  </si>
-  <si>
-    <t>dv_hus_forc_osex</t>
-  </si>
-  <si>
-    <t>dv_hus_oforc_osex</t>
-  </si>
-  <si>
-    <t>dv_hus_forc_sex</t>
-  </si>
-  <si>
     <t>"Experienced any physical violence in the last 12 months by husband/partner"</t>
   </si>
   <si>
@@ -4449,27 +3945,15 @@
     <t>"Forced with threats or in any other way to perform sexual acts she did not want to in the last 12 months by husband/partner"</t>
   </si>
   <si>
-    <t>dv_hus_any_emot</t>
-  </si>
-  <si>
     <t>"Experinced any emotional violence in the last 12 months by husband/partner"</t>
   </si>
   <si>
-    <t>dv_hus_humil</t>
-  </si>
-  <si>
     <t>"Humiliated in front of others in the last 12 months by husband/partner"</t>
   </si>
   <si>
-    <t>dv_hus_weapon</t>
-  </si>
-  <si>
     <t>"Threatened to hurt or harm her or someone she cared about in the last 12 months by husband/partner"</t>
   </si>
   <si>
-    <t>dv_hus_insult</t>
-  </si>
-  <si>
     <t>"Insulted or made to feel bad about herself in the last 12 months by husband/partner"</t>
   </si>
   <si>
@@ -4485,18 +3969,6 @@
     <t>"Ever experienced physical or sexual or emotional violence by husband/partner"</t>
   </si>
   <si>
-    <t>dv_hus_phy_sex_12mo</t>
-  </si>
-  <si>
-    <t>dv_hus_phy_sex_emot_all_12mo</t>
-  </si>
-  <si>
-    <t>dv_hus_phy_sex_either_12mo</t>
-  </si>
-  <si>
-    <t>dv_hus_phy_sex_emot_oneof_12mo</t>
-  </si>
-  <si>
     <t>"Experienced physical and sexual violence in the last 12 months by husband/partner"</t>
   </si>
   <si>
@@ -4509,18 +3981,6 @@
     <t>"Ever experienced physical or sexual or emotional violence in the last 12 months by husband/partner"</t>
   </si>
   <si>
-    <t>dv_ahus_phy_sex_12mo</t>
-  </si>
-  <si>
-    <t>dv_ahus_phy_sex_emot_all_12mo</t>
-  </si>
-  <si>
-    <t>dv_ahus_phy_sex_either_12mo</t>
-  </si>
-  <si>
-    <t>dv_ahus_phy_sex_emot_oneof_12mo</t>
-  </si>
-  <si>
     <t>"Experienced physical and sexual violence in the last 12 months by any husband/partner"</t>
   </si>
   <si>
@@ -4533,57 +3993,30 @@
     <t>"Ever experienced physical or sexual or emotional violence in the last 12 months by any husband/partner"</t>
   </si>
   <si>
-    <t>dv_ahus_phy_12mo</t>
-  </si>
-  <si>
     <t>"Experienced physical in the last 12 months by any husband/partner"</t>
   </si>
   <si>
-    <t>dv_ahus_sex_12mo</t>
-  </si>
-  <si>
     <t>"Experienced sexual violence in the last 12 months by any husband/partner"</t>
   </si>
   <si>
-    <t>dv_ahus_emot_12mo</t>
-  </si>
-  <si>
     <t>"Experienced emotional violence in the last 12 months by any husband/partner"</t>
   </si>
   <si>
-    <t>dv_hus_viol_years</t>
-  </si>
-  <si>
     <t>"Experience of physical or sexual violence by husband/partner by specific exact years since marriage - among women only married once"</t>
   </si>
   <si>
-    <t>dv_hus_viol_none</t>
-  </si>
-  <si>
     <t>"Did not experience physical or sexual violence by husband/partner - among women only married once"</t>
   </si>
   <si>
-    <t>dv_hus_cuts</t>
-  </si>
-  <si>
     <t>"Have cuts, bruises, or aches as a result of the violence by husband/partner"</t>
   </si>
   <si>
-    <t>dv_hus_injury_burn</t>
-  </si>
-  <si>
-    <t>dv_hus_wound_break</t>
-  </si>
-  <si>
     <t>"Have eye injuries, sprains, dislocations, or burns as a result of the violence by husband/partner"</t>
   </si>
   <si>
     <t>"Deep wounds, broken bones, broken teeth, or any other serious injury as a result of the violence by husband/partner"</t>
   </si>
   <si>
-    <t>dv_hus_any_injury</t>
-  </si>
-  <si>
     <t>"Have any injury as a result of the violence by husband/partner"</t>
   </si>
   <si>
@@ -4776,60 +4209,9 @@
     <t>nt_bf_cont_2yr</t>
   </si>
   <si>
-    <t>nt_bfch_vita</t>
-  </si>
-  <si>
-    <t>mdd</t>
-  </si>
-  <si>
-    <t>mmf</t>
-  </si>
-  <si>
-    <t>mad</t>
-  </si>
-  <si>
-    <t>"Breastfed child given milk or milk products- last-born 6-23 months"</t>
-  </si>
-  <si>
-    <t>"Breastfed child with minimum dietary diversity- last-born 6-23 months"</t>
-  </si>
-  <si>
-    <t>"Breastfed child with minimum meal frequency- last-born 6-23 months"</t>
-  </si>
-  <si>
-    <t>"Breastfed child with minimum acceptable diet- last-born 6-23 months"</t>
-  </si>
-  <si>
-    <t>nt_overwt</t>
-  </si>
-  <si>
-    <t>"Overweight child under 5 years"</t>
-  </si>
-  <si>
-    <t>nt_overwt_age</t>
-  </si>
-  <si>
     <t>"Overweight for age child under 5 years"</t>
   </si>
   <si>
-    <t>These next 2 groups can be one group - they are just disaggregated by whether breastfed or not</t>
-  </si>
-  <si>
-    <t>change "6-23mos" to add a space</t>
-  </si>
-  <si>
-    <t>I suggest adding _ch into the names here as we may in the future have similar indicators for women</t>
-  </si>
-  <si>
-    <t>Use the following acronyms - these are standard in the nutrition field:</t>
-  </si>
-  <si>
-    <t>drop the 'y' here - all of the feeding indicators are for the youngest child living with the mother.</t>
-  </si>
-  <si>
-    <t>These next 3 groups can be one group - they are just disaggregated by whether breastfed or not. We don't need separate groups for BF and non-BF children</t>
-  </si>
-  <si>
     <t>change "viol" to "phy". These are all violence, but this one relates to physical violence.</t>
   </si>
   <si>
@@ -4971,36 +4353,12 @@
     <t>dv_prtnr_fam</t>
   </si>
   <si>
-    <t>dv_hus_phy_sexv</t>
-  </si>
-  <si>
-    <t>dv_hus_phy_sexv_emot_all</t>
-  </si>
-  <si>
-    <t>dv_hus_phy_sexv_either</t>
-  </si>
-  <si>
-    <t>dv_hus_phy_sexv_emot_oneof</t>
-  </si>
-  <si>
     <t>dv_help_seek</t>
   </si>
   <si>
     <t>dv_help_phy</t>
   </si>
   <si>
-    <t>dv_help_sexv</t>
-  </si>
-  <si>
-    <t>dv_help_phyv_sexv</t>
-  </si>
-  <si>
-    <t>dv_abusehus_physv_12mo</t>
-  </si>
-  <si>
-    <t>dv_abusehus_phyv</t>
-  </si>
-  <si>
     <t>dv_hus_phy_sexv_any</t>
   </si>
   <si>
@@ -5239,6 +4597,525 @@
   </si>
   <si>
     <t>"Not previously tested among HIV negative"</t>
+  </si>
+  <si>
+    <t>"Know that HIV mother to child transmission can occur during pregnancy "</t>
+  </si>
+  <si>
+    <t>dv_phy_hus_curr</t>
+  </si>
+  <si>
+    <t>dv_phy_hus_form</t>
+  </si>
+  <si>
+    <t>dv_phy_bf_curr</t>
+  </si>
+  <si>
+    <t>dv_phy_bf_form</t>
+  </si>
+  <si>
+    <t>dv_phy_bychild</t>
+  </si>
+  <si>
+    <t>dv_sex_hus_curr</t>
+  </si>
+  <si>
+    <t>dv_sex_hus_form</t>
+  </si>
+  <si>
+    <t>dv_sex_bf_curr</t>
+  </si>
+  <si>
+    <t>dv_sex_bf_form</t>
+  </si>
+  <si>
+    <t>dv_viol_preg    ...old</t>
+  </si>
+  <si>
+    <t>dv_help_sex</t>
+  </si>
+  <si>
+    <t>dv_prtnr_push</t>
+  </si>
+  <si>
+    <t>dv_prtnr_slap</t>
+  </si>
+  <si>
+    <t>dv_prtnr_twist</t>
+  </si>
+  <si>
+    <t>dv_prtnr_punch</t>
+  </si>
+  <si>
+    <t>dv_prtnr_kick</t>
+  </si>
+  <si>
+    <t>dv_prtnr_choke</t>
+  </si>
+  <si>
+    <t>dv_prtnr_weapon</t>
+  </si>
+  <si>
+    <t>dv_prtnr_humil</t>
+  </si>
+  <si>
+    <t>dv_prtnr_threat</t>
+  </si>
+  <si>
+    <t>dv_prtnr_insult</t>
+  </si>
+  <si>
+    <t>dv_prtnr_phy_sex</t>
+  </si>
+  <si>
+    <t>dv_prtnr_phy_sex_emot_all</t>
+  </si>
+  <si>
+    <t>dv_prtnr_phy_sex_12mo</t>
+  </si>
+  <si>
+    <t>dv_prtnr_phy_sex_emot_all_12mo</t>
+  </si>
+  <si>
+    <t>dv_prtnr_phy_sex_any_12mo</t>
+  </si>
+  <si>
+    <t>dv_prtnr_phy_sex_emot_any_12mo</t>
+  </si>
+  <si>
+    <t>dv_prtnr_phy_sex_any</t>
+  </si>
+  <si>
+    <t>dv_prtnr_phy_sex_emot_any</t>
+  </si>
+  <si>
+    <t>dv_aprtnr_phy_12mo</t>
+  </si>
+  <si>
+    <t>dv_aprtnr_sex_12mo</t>
+  </si>
+  <si>
+    <t>dv_aprtnr_emot_12mo</t>
+  </si>
+  <si>
+    <t>dv_aprtnr_phy_sex_12mo</t>
+  </si>
+  <si>
+    <t>dv_aprtnr_phy_sex_emot_all_12mo</t>
+  </si>
+  <si>
+    <t>dv_aprtnr_phy_sex_emot_any_12mo</t>
+  </si>
+  <si>
+    <t>dv_aprtnr_phy_sex_any_12mo</t>
+  </si>
+  <si>
+    <t>dv_prtnr_viol_years</t>
+  </si>
+  <si>
+    <t>dv_prtnr_viol_none</t>
+  </si>
+  <si>
+    <t>dv_prtnr_cuts</t>
+  </si>
+  <si>
+    <t>dv_prtnr_injury_any</t>
+  </si>
+  <si>
+    <t>dv_prtnr_injury</t>
+  </si>
+  <si>
+    <t>dv_prtnr_broken</t>
+  </si>
+  <si>
+    <t>dv_help_phy_sex_all</t>
+  </si>
+  <si>
+    <t>dv_help_phy_sex_any</t>
+  </si>
+  <si>
+    <t>dv_prtnr_phy_any</t>
+  </si>
+  <si>
+    <t>dv_prtnr_sex_any</t>
+  </si>
+  <si>
+    <t>dv_prtnr_sex_force</t>
+  </si>
+  <si>
+    <t>dv_prtnr_osex_force</t>
+  </si>
+  <si>
+    <t>dv_prtnr_sex_threat</t>
+  </si>
+  <si>
+    <t>dv_prtnr_emot_any</t>
+  </si>
+  <si>
+    <t>dv_phy_sex_all</t>
+  </si>
+  <si>
+    <t>dv_phy_sex_any</t>
+  </si>
+  <si>
+    <t>dv_sex</t>
+  </si>
+  <si>
+    <t>dv_phy_12mo</t>
+  </si>
+  <si>
+    <t>dv_phy</t>
+  </si>
+  <si>
+    <t>dv_sex_age</t>
+  </si>
+  <si>
+    <t>dv_sex_none</t>
+  </si>
+  <si>
+    <t>dv_sex_12mo</t>
+  </si>
+  <si>
+    <t>nt_mdd</t>
+  </si>
+  <si>
+    <t>nt_fed_milk</t>
+  </si>
+  <si>
+    <t>nt_mmf</t>
+  </si>
+  <si>
+    <t>nt_mad</t>
+  </si>
+  <si>
+    <t>"Child given milk or milk products- last-born 6-23 months"</t>
+  </si>
+  <si>
+    <t>"Child with minimum meal frequency- last-born 6-23 months"</t>
+  </si>
+  <si>
+    <t>"Child with minimum acceptable diet- last-born 6-23 months"</t>
+  </si>
+  <si>
+    <t>nt_bottle</t>
+  </si>
+  <si>
+    <t>"Drank from a bottle with a nipple yesterday - under 2 years"</t>
+  </si>
+  <si>
+    <t>nt_formula</t>
+  </si>
+  <si>
+    <t>nt_liquids</t>
+  </si>
+  <si>
+    <t>nt_bbyfood</t>
+  </si>
+  <si>
+    <t>nt_grains</t>
+  </si>
+  <si>
+    <t>nt_vita</t>
+  </si>
+  <si>
+    <t>nt_frtveg</t>
+  </si>
+  <si>
+    <t>nt_root</t>
+  </si>
+  <si>
+    <t>nt_nuts</t>
+  </si>
+  <si>
+    <t>nt_meatfish</t>
+  </si>
+  <si>
+    <t>nt_eggs</t>
+  </si>
+  <si>
+    <t>nt_dairy</t>
+  </si>
+  <si>
+    <t>nt_solids</t>
+  </si>
+  <si>
+    <t>"Child given infant formula in day/night before survey - last-born under 2 years"</t>
+  </si>
+  <si>
+    <t>"Child given other milk in day/night before survey- last-born under 2 years"</t>
+  </si>
+  <si>
+    <t>"Child given other liquids in day/night before survey- last-born under 2 years"</t>
+  </si>
+  <si>
+    <t>"Child given fortified baby food in day/night before survey- last-born under 2 years"</t>
+  </si>
+  <si>
+    <t>"Child given grains in day/night before survey- last-born under 2 years"</t>
+  </si>
+  <si>
+    <t>"Child given vitamin A rich food in day/night before survey- last-born under 2 years"</t>
+  </si>
+  <si>
+    <t>"Child given other fruits or vegetables in day/night before survey- last-born under 2 years"</t>
+  </si>
+  <si>
+    <t>"Child given roots or tubers in day/night before survey- last-born under 2 years"</t>
+  </si>
+  <si>
+    <t>"Child given legumes or nuts in day/night before survey- last-born under 2 years"</t>
+  </si>
+  <si>
+    <t>"Child given meat, fish, shellfish, or poultry in day/night before survey- last-born under 2 years"</t>
+  </si>
+  <si>
+    <t>"Child given eggs in day/night before survey- last-born under 2 years"</t>
+  </si>
+  <si>
+    <t>"Child given cheese, yogurt, or other milk products in day/night before survey- last-born under 2 years"</t>
+  </si>
+  <si>
+    <t>"Child given any solid or semisolid food in day/night before survey- last-born under 2 years"</t>
+  </si>
+  <si>
+    <t>nt_milk</t>
+  </si>
+  <si>
+    <t>nt_ch_micro_vaf</t>
+  </si>
+  <si>
+    <t>nt_ch_micro_irf</t>
+  </si>
+  <si>
+    <t>"Youngest children age 6-23 mos living with mother given Vit A rich food"</t>
+  </si>
+  <si>
+    <t>"Youngest children age 6-23 mos living with mother given iron rich food"</t>
+  </si>
+  <si>
+    <t>"Children age 6-23 mos given mult. micronutrient powder"</t>
+  </si>
+  <si>
+    <t>"Children age 6-59 mos given iron supplements"</t>
+  </si>
+  <si>
+    <t>"Children age 6-59 mos given Vit. A supplements"</t>
+  </si>
+  <si>
+    <t>"Children age 6-59 mos given deworming medication"</t>
+  </si>
+  <si>
+    <t>"Children age 6-59 mos live in hh with iodized salt"</t>
+  </si>
+  <si>
+    <t>"Children age 6-35 mos given therapeutic food"</t>
+  </si>
+  <si>
+    <t>"Children age 6-35 mos given supplemental food"</t>
+  </si>
+  <si>
+    <t>nt_ch_food_ther</t>
+  </si>
+  <si>
+    <t>nt_ch_food_supp</t>
+  </si>
+  <si>
+    <t>"Child with minimum dietary diversity, 5 out of 8 food groups- last-born 6-23 months"</t>
+  </si>
+  <si>
+    <t>NT_IYCF.do</t>
+  </si>
+  <si>
+    <t>nt_ch_ovwt_age</t>
+  </si>
+  <si>
+    <t>nt_ch_sev_stunt</t>
+  </si>
+  <si>
+    <t>nt_ch_stunt</t>
+  </si>
+  <si>
+    <t>nt_ch_mean_haz</t>
+  </si>
+  <si>
+    <t>nt_ch_sev_wast</t>
+  </si>
+  <si>
+    <t>nt_ch_wast</t>
+  </si>
+  <si>
+    <t>nt_ch_mean_whz</t>
+  </si>
+  <si>
+    <t>nt_ch_sev_underwt</t>
+  </si>
+  <si>
+    <t>nt_ch_underwt</t>
+  </si>
+  <si>
+    <t>nt_ch_mean_waz</t>
+  </si>
+  <si>
+    <t>nt_mn_any_anem</t>
+  </si>
+  <si>
+    <t>nt_mn_thin</t>
+  </si>
+  <si>
+    <t>nt_mn_norm</t>
+  </si>
+  <si>
+    <t>nt_mn_mthin</t>
+  </si>
+  <si>
+    <t>nt_mn_modsevthin</t>
+  </si>
+  <si>
+    <t>nt_mn_ovobese</t>
+  </si>
+  <si>
+    <t>nt_mn_ovwt</t>
+  </si>
+  <si>
+    <t>nt_mn_obese</t>
+  </si>
+  <si>
+    <t>"Normal BMI - men"</t>
+  </si>
+  <si>
+    <t>"Thin BMI - men"</t>
+  </si>
+  <si>
+    <t>"Mildly thin BMI  - men"</t>
+  </si>
+  <si>
+    <t>"Moderately and severely thin BMI - men"</t>
+  </si>
+  <si>
+    <t>"Overweight or obese BMI  - men"</t>
+  </si>
+  <si>
+    <t>"Overweight BMI  - men"</t>
+  </si>
+  <si>
+    <t>"Obese BMI  - men"</t>
+  </si>
+  <si>
+    <t>"Any anemia - women"</t>
+  </si>
+  <si>
+    <t>"Normal BMI - women"</t>
+  </si>
+  <si>
+    <t>"Thin BMI - women"</t>
+  </si>
+  <si>
+    <t>"Mildly thin BMI  - women"</t>
+  </si>
+  <si>
+    <t>"Moderately and severely thin BMI - women"</t>
+  </si>
+  <si>
+    <t>"Overweight or obese BMI  - women"</t>
+  </si>
+  <si>
+    <t>"Overweight BMI  - women"</t>
+  </si>
+  <si>
+    <t>"Obese BMI  - women"</t>
+  </si>
+  <si>
+    <t>"Mean BMI  - women"</t>
+  </si>
+  <si>
+    <t>nt_wm_any_anem</t>
+  </si>
+  <si>
+    <t>nt_wm_micro_iron</t>
+  </si>
+  <si>
+    <t>nt_wm_micro_dwm</t>
+  </si>
+  <si>
+    <t>nt_wm_micro_iod</t>
+  </si>
+  <si>
+    <t>nt_wm_norm</t>
+  </si>
+  <si>
+    <t>nt_wm_thin</t>
+  </si>
+  <si>
+    <t>nt_wm_mthin</t>
+  </si>
+  <si>
+    <t>nt_wm_modsevthin</t>
+  </si>
+  <si>
+    <t>nt_wm_ovobese</t>
+  </si>
+  <si>
+    <t>nt_wm_ovwt</t>
+  </si>
+  <si>
+    <t>nt_wm_obese</t>
+  </si>
+  <si>
+    <t>nt_ch_ovwt_ht</t>
+  </si>
+  <si>
+    <t>"Overweight for height child under 5 years"</t>
+  </si>
+  <si>
+    <t>nt_salt_iod</t>
+  </si>
+  <si>
+    <t>"Households with iodized salt"</t>
+  </si>
+  <si>
+    <t>nt_wm_mild_anem</t>
+  </si>
+  <si>
+    <t>"Mild anemia - women"</t>
+  </si>
+  <si>
+    <t>nt_wm_mod_anem</t>
+  </si>
+  <si>
+    <t>"Moderate anemia - women"</t>
+  </si>
+  <si>
+    <t>nt_wm_sev_anem</t>
+  </si>
+  <si>
+    <t>"Severe anemia - women"</t>
+  </si>
+  <si>
+    <t>NT_WM_NUT.do</t>
+  </si>
+  <si>
+    <t>NT_MN_NUT.do</t>
+  </si>
+  <si>
+    <t>nt_wm_ht</t>
+  </si>
+  <si>
+    <t>"Height under 145cm - women"</t>
+  </si>
+  <si>
+    <t>nt_wm_bmi_mean</t>
+  </si>
+  <si>
+    <t>"Any anemia - men"</t>
+  </si>
+  <si>
+    <t>"Women living in hh with iodized salt"</t>
+  </si>
+  <si>
+    <t>"Mean BMI  - men"</t>
+  </si>
+  <si>
+    <t>nt_mn_bmi_mean</t>
   </si>
 </sst>
 </file>
@@ -5369,7 +5246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5461,9 +5338,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5491,6 +5365,20 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5811,10 +5699,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -5822,8 +5710,8 @@
     <col min="1" max="1" width="21.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="82.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="1" customWidth="1"/>
+    <col min="4" max="4" width="91.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.44140625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -5850,17 +5738,17 @@
     </row>
     <row r="2" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>1243</v>
+        <v>1105</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="53" t="s">
         <v>809</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:6" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -5929,614 +5817,615 @@
       <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="F8" s="17"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="17" t="s">
-        <v>820</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>821</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>813</v>
-      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17" t="s">
-        <v>822</v>
+        <v>833</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>823</v>
+        <v>834</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="17" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="17" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="17" t="s">
+        <v>840</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>841</v>
+      </c>
       <c r="E14" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17" t="s">
-        <v>1573</v>
+        <v>840</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>830</v>
+        <v>841</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="F15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17" t="s">
-        <v>1574</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>831</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
+      <c r="B17" s="17" t="s">
+        <v>842</v>
+      </c>
       <c r="C17" s="17" t="s">
-        <v>1575</v>
+        <v>843</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>832</v>
+        <v>1615</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>813</v>
       </c>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="17" t="s">
+        <v>844</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>1616</v>
+      </c>
       <c r="E18" s="17" t="s">
         <v>813</v>
       </c>
       <c r="F18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>834</v>
+        <v>1617</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>837</v>
+        <v>1618</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>839</v>
+        <v>1619</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>848</v>
+      </c>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17" t="s">
-        <v>840</v>
+        <v>1622</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>841</v>
+        <v>1620</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17" t="s">
-        <v>840</v>
+        <v>1623</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>841</v>
+        <v>1621</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17" t="s">
-        <v>840</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>841</v>
-      </c>
-      <c r="E24" s="17" t="s">
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>820</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="F24" s="17" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="34" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17" t="s">
-        <v>842</v>
+        <v>822</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>843</v>
+        <v>823</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>813</v>
       </c>
       <c r="F26" s="17"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17" t="s">
-        <v>844</v>
+        <v>824</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>845</v>
+        <v>825</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>813</v>
       </c>
       <c r="F27" s="17"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17" t="s">
-        <v>846</v>
+        <v>826</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>813</v>
       </c>
       <c r="F28" s="17"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>813</v>
       </c>
       <c r="F29" s="17"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="17" t="s">
-        <v>850</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>851</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>813</v>
-      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="17"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17" t="s">
-        <v>1576</v>
+        <v>1384</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>852</v>
+        <v>830</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>813</v>
       </c>
       <c r="F31" s="17"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17" t="s">
-        <v>853</v>
+        <v>1385</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>813</v>
       </c>
       <c r="F32" s="17"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17" t="s">
-        <v>855</v>
+        <v>1386</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>856</v>
+        <v>832</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>813</v>
       </c>
       <c r="F33" s="17"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17" t="s">
-        <v>857</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>858</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17" t="s">
-        <v>859</v>
+        <v>1585</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>860</v>
+        <v>1597</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>813</v>
       </c>
       <c r="F35" s="17"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17" t="s">
-        <v>861</v>
+        <v>1610</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>862</v>
+        <v>1598</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17" t="s">
-        <v>863</v>
+        <v>1586</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>864</v>
+        <v>1599</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17" t="s">
-        <v>865</v>
+        <v>1587</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>866</v>
+        <v>1600</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>813</v>
       </c>
       <c r="F38" s="17"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C39" s="17" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17" t="s">
-        <v>867</v>
+        <v>1589</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>868</v>
+        <v>1602</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17" t="s">
-        <v>869</v>
+        <v>1590</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>870</v>
+        <v>1603</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>813</v>
       </c>
       <c r="F41" s="17"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17" t="s">
-        <v>871</v>
+        <v>1591</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>872</v>
+        <v>1604</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17" t="s">
-        <v>873</v>
+        <v>1592</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>874</v>
+        <v>1605</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17" t="s">
-        <v>875</v>
+        <v>1593</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>876</v>
+        <v>1606</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>813</v>
       </c>
       <c r="F44" s="17"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17" t="s">
-        <v>877</v>
+        <v>1594</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>878</v>
+        <v>1607</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="F45" s="17"/>
-    </row>
-    <row r="46" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17" t="s">
-        <v>879</v>
+        <v>1595</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>880</v>
+        <v>1608</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17" t="s">
-        <v>881</v>
+        <v>1596</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>882</v>
+        <v>1609</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F47" s="17"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
-      <c r="C48" s="17" t="s">
-        <v>883</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>884</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="F48" s="17"/>
-    </row>
-    <row r="49" spans="1:7" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="G48" s="33"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17" t="s">
-        <v>885</v>
+        <v>1577</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>886</v>
+        <v>1580</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>813</v>
       </c>
+      <c r="F49" s="17"/>
+      <c r="G49" s="33"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17" t="s">
-        <v>887</v>
+        <v>1576</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>888</v>
+        <v>1624</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="F50" s="17"/>
+      <c r="G50" s="33"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17" t="s">
-        <v>889</v>
+        <v>1578</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>890</v>
+        <v>1581</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>813</v>
       </c>
       <c r="F51" s="17"/>
-    </row>
-    <row r="52" spans="1:7" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="G51" s="33"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17" t="s">
-        <v>891</v>
+        <v>1579</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>892</v>
+        <v>1582</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>813</v>
       </c>
+      <c r="F52" s="17"/>
+      <c r="G52" s="33"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
@@ -6544,541 +6433,520 @@
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
-      <c r="G53" s="34" t="s">
-        <v>1593</v>
-      </c>
+      <c r="F53" s="17"/>
+      <c r="G53" s="33"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
       <c r="C54" s="17" t="s">
-        <v>893</v>
+        <v>1611</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>1580</v>
+        <v>1613</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>813</v>
       </c>
       <c r="F54" s="17"/>
-      <c r="G54" s="34" t="s">
-        <v>1591</v>
-      </c>
+      <c r="G54" s="33"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17" t="s">
-        <v>894</v>
+        <v>1612</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>1581</v>
+        <v>1614</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>813</v>
       </c>
       <c r="F55" s="17"/>
-      <c r="G55" s="34" t="s">
-        <v>1577</v>
-      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
-      <c r="C56" s="17" t="s">
-        <v>895</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>1582</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="F56" s="17"/>
-      <c r="G56" s="34" t="s">
-        <v>1578</v>
-      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="G56" s="33"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
+      <c r="B57" s="17" t="s">
+        <v>849</v>
+      </c>
       <c r="C57" s="17" t="s">
-        <v>896</v>
+        <v>1627</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>1583</v>
+        <v>850</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>813</v>
+        <v>851</v>
       </c>
       <c r="F57" s="17"/>
-      <c r="G57" s="34" t="s">
-        <v>1579</v>
-      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
+      <c r="C58" s="17" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>852</v>
+      </c>
       <c r="E58" s="17" t="s">
-        <v>813</v>
+        <v>851</v>
       </c>
       <c r="F58" s="17"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17" t="s">
-        <v>897</v>
+        <v>1629</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>898</v>
+        <v>853</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="F59" s="17"/>
+        <v>851</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17" t="s">
-        <v>899</v>
+        <v>1630</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>900</v>
+        <v>854</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="F60" s="17"/>
+        <v>851</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17" t="s">
-        <v>901</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>902</v>
+        <v>1631</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>855</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>813</v>
+        <v>851</v>
       </c>
       <c r="F61" s="17"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17" t="s">
-        <v>903</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>904</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="F62" s="17"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="47" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D62" s="48" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E62" s="47" t="s">
+        <v>851</v>
+      </c>
+      <c r="F62" s="32"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="F63" s="17"/>
+      <c r="C63" s="47" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D63" s="47" t="s">
+        <v>856</v>
+      </c>
+      <c r="E63" s="47" t="s">
+        <v>851</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
-      <c r="C64" s="17" t="s">
-        <v>905</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>906</v>
-      </c>
-      <c r="E64" s="17" t="s">
-        <v>813</v>
+      <c r="C64" s="47" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D64" s="47" t="s">
+        <v>857</v>
+      </c>
+      <c r="E64" s="47" t="s">
+        <v>851</v>
       </c>
       <c r="F64" s="17"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
-      <c r="C65" s="17" t="s">
-        <v>907</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>908</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>813</v>
+      <c r="C65" s="47" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D65" s="47" t="s">
+        <v>858</v>
+      </c>
+      <c r="E65" s="47" t="s">
+        <v>851</v>
       </c>
       <c r="F65" s="17"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17" t="s">
-        <v>909</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>910</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="F66" s="17"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="47" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D66" s="48" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E66" s="47" t="s">
+        <v>851</v>
+      </c>
+      <c r="F66" s="32"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17" t="s">
-        <v>911</v>
+        <v>1635</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>912</v>
+        <v>859</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="F67" s="17"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <v>851</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
-      <c r="G68" s="34" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
-      <c r="B69" s="17" t="s">
-        <v>913</v>
-      </c>
+      <c r="B69" s="17"/>
       <c r="C69" s="17" t="s">
-        <v>914</v>
+        <v>860</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>915</v>
+        <v>861</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>813</v>
+        <v>851</v>
       </c>
       <c r="F69" s="17"/>
-      <c r="G69" s="34" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17" t="s">
-        <v>916</v>
+        <v>862</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>917</v>
+        <v>863</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>813</v>
+        <v>851</v>
       </c>
       <c r="F70" s="17"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17" t="s">
-        <v>918</v>
+        <v>864</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>919</v>
+        <v>865</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>813</v>
+        <v>851</v>
       </c>
       <c r="F71" s="17"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="17"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17" t="s">
-        <v>920</v>
+        <v>866</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>921</v>
+        <v>867</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>813</v>
+        <v>851</v>
       </c>
       <c r="F72" s="17"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="17"/>
-      <c r="C73" s="17" t="s">
-        <v>922</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>923</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>813</v>
-      </c>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
       <c r="F73" s="17"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
+      <c r="B74" s="17" t="s">
+        <v>868</v>
+      </c>
       <c r="C74" s="17" t="s">
-        <v>924</v>
+        <v>869</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>925</v>
+        <v>870</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>813</v>
+        <v>871</v>
       </c>
       <c r="F74" s="17"/>
     </row>
-    <row r="75" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17" t="s">
-        <v>926</v>
+        <v>1673</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>927</v>
+        <v>1674</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>928</v>
+        <v>871</v>
       </c>
       <c r="F75" s="17"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="17"/>
-      <c r="C76" s="17" t="s">
-        <v>929</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>930</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="17"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17" t="s">
-        <v>931</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>932</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>813</v>
-      </c>
-      <c r="F77" s="17"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="G78" s="34" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17" t="s">
-        <v>933</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>934</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>935</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>936</v>
-      </c>
-      <c r="F79" s="17"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17" t="s">
-        <v>937</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>936</v>
-      </c>
-      <c r="F80" s="17"/>
-    </row>
-    <row r="81" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17" t="s">
-        <v>939</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>940</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>936</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>835</v>
-      </c>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="49"/>
+      <c r="B77" s="17" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C77" s="49" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D77" s="49" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E77" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="49"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="49"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="49" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D78" s="49" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E78" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="49"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="49"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="49" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D79" s="49" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E79" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="49"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="49"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="49" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D80" s="49" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E80" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="49"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="49"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="49"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="49"/>
+      <c r="F81" s="49"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17" t="s">
-        <v>941</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>942</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>936</v>
-      </c>
+      <c r="A82" s="49"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="49" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D82" s="49" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E82" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="49"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17" t="s">
-        <v>943</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>944</v>
+        <v>1685</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>1659</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>936</v>
-      </c>
-      <c r="F83" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="32"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="33" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D84" s="34" t="s">
-        <v>1585</v>
-      </c>
-      <c r="E84" s="33" t="s">
-        <v>936</v>
-      </c>
-      <c r="F84" s="32"/>
+      <c r="A84" s="17"/>
+      <c r="C84" s="17" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" s="17"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="17"/>
       <c r="C85" s="17" t="s">
-        <v>945</v>
+        <v>1665</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>946</v>
+        <v>1653</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>936</v>
-      </c>
-      <c r="F85" s="17" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="F85" s="17"/>
+    </row>
+    <row r="86" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="17"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17" t="s">
-        <v>947</v>
+        <v>1666</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>948</v>
+        <v>1654</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>936</v>
+        <v>16</v>
       </c>
       <c r="F86" s="17"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="17"/>
       <c r="C87" s="17" t="s">
-        <v>949</v>
+        <v>1667</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>950</v>
+        <v>1655</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>936</v>
+        <v>16</v>
       </c>
       <c r="F87" s="17"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="32"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="33" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D88" s="34" t="s">
-        <v>1587</v>
-      </c>
-      <c r="E88" s="33" t="s">
-        <v>936</v>
-      </c>
-      <c r="F88" s="32"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="17"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="17"/>
       <c r="C89" s="17" t="s">
-        <v>951</v>
+        <v>1669</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>952</v>
+        <v>1657</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>936</v>
-      </c>
-      <c r="F89" s="17" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="F89" s="17"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
+      <c r="C90" s="17" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="F90" s="17"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="17"/>
       <c r="C91" s="17" t="s">
-        <v>953</v>
+        <v>1661</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>954</v>
+        <v>872</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>936</v>
+        <v>16</v>
       </c>
       <c r="F91" s="17"/>
     </row>
@@ -7086,100 +6954,106 @@
       <c r="A92" s="17"/>
       <c r="B92" s="17"/>
       <c r="C92" s="17" t="s">
-        <v>955</v>
+        <v>1662</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>956</v>
+        <v>873</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>936</v>
+        <v>16</v>
       </c>
       <c r="F92" s="17"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="17"/>
-      <c r="C93" s="17" t="s">
-        <v>957</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>958</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>936</v>
+      <c r="C93" s="49" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D93" s="49" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E93" s="49" t="s">
+        <v>874</v>
       </c>
       <c r="F93" s="17"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="17"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17" t="s">
-        <v>959</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>960</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>936</v>
-      </c>
-      <c r="F94" s="17"/>
+    <row r="94" spans="1:6" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="49"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="49"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="49"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
+      <c r="B95" s="17" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="F95" s="17"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
-      <c r="B96" s="17" t="s">
-        <v>961</v>
-      </c>
+      <c r="B96" s="17"/>
       <c r="C96" s="17" t="s">
-        <v>962</v>
+        <v>1689</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>963</v>
+        <v>1688</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>964</v>
-      </c>
-      <c r="F96" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17" t="s">
-        <v>965</v>
+        <v>1638</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>966</v>
+        <v>1644</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>964</v>
+        <v>21</v>
       </c>
       <c r="F97" s="17"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
+      <c r="C98" s="17" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="F98" s="17"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
-      <c r="B99" s="17" t="s">
-        <v>967</v>
-      </c>
+      <c r="B99" s="17"/>
       <c r="C99" s="17" t="s">
-        <v>968</v>
+        <v>1639</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>969</v>
+        <v>1646</v>
       </c>
       <c r="E99" s="17" t="s">
         <v>21</v>
@@ -7190,10 +7064,10 @@
       <c r="A100" s="17"/>
       <c r="B100" s="17"/>
       <c r="C100" s="17" t="s">
-        <v>970</v>
+        <v>1640</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>971</v>
+        <v>1647</v>
       </c>
       <c r="E100" s="17" t="s">
         <v>21</v>
@@ -7204,10 +7078,10 @@
       <c r="A101" s="17"/>
       <c r="B101" s="17"/>
       <c r="C101" s="17" t="s">
-        <v>972</v>
+        <v>1641</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>973</v>
+        <v>1648</v>
       </c>
       <c r="E101" s="17" t="s">
         <v>21</v>
@@ -7218,10 +7092,10 @@
       <c r="A102" s="17"/>
       <c r="B102" s="17"/>
       <c r="C102" s="17" t="s">
-        <v>974</v>
+        <v>1642</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>975</v>
+        <v>1649</v>
       </c>
       <c r="E102" s="17" t="s">
         <v>21</v>
@@ -7232,10 +7106,10 @@
       <c r="A103" s="17"/>
       <c r="B103" s="17"/>
       <c r="C103" s="17" t="s">
-        <v>976</v>
+        <v>1643</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>977</v>
+        <v>1650</v>
       </c>
       <c r="E103" s="17" t="s">
         <v>21</v>
@@ -7245,60 +7119,34 @@
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="17"/>
-      <c r="C104" s="17" t="s">
-        <v>978</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>979</v>
-      </c>
-      <c r="E104" s="17" t="s">
-        <v>21</v>
-      </c>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
       <c r="F104" s="17"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="17"/>
-      <c r="C105" s="17" t="s">
-        <v>980</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>981</v>
-      </c>
-      <c r="E105" s="17" t="s">
-        <v>21</v>
-      </c>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
       <c r="F105" s="17"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="17"/>
-      <c r="C106" s="17" t="s">
-        <v>982</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>983</v>
-      </c>
-      <c r="E106" s="17" t="s">
-        <v>21</v>
-      </c>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
       <c r="F106" s="17"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="17"/>
       <c r="B107" s="17"/>
-      <c r="C107" s="17" t="s">
-        <v>984</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>985</v>
-      </c>
-      <c r="E107" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F107" s="17" t="s">
-        <v>835</v>
-      </c>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
@@ -7310,246 +7158,35 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
-      <c r="B109" s="17" t="s">
-        <v>986</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>987</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>988</v>
-      </c>
-      <c r="E109" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
       <c r="F109" s="17"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="17"/>
-      <c r="C110" s="17" t="s">
-        <v>989</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>990</v>
-      </c>
-      <c r="E110" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
       <c r="F110" s="17"/>
     </row>
-    <row r="111" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="17"/>
-      <c r="C111" s="17" t="s">
-        <v>991</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>992</v>
-      </c>
-      <c r="E111" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
       <c r="F111" s="17"/>
     </row>
-    <row r="112" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="17"/>
-      <c r="C112" s="17" t="s">
-        <v>993</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>994</v>
-      </c>
-      <c r="E112" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
       <c r="F112" s="17"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="17"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="17" t="s">
-        <v>995</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>996</v>
-      </c>
-      <c r="E113" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F113" s="17"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="17"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="17" t="s">
-        <v>997</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>998</v>
-      </c>
-      <c r="E114" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F114" s="17"/>
-    </row>
-    <row r="115" spans="1:6" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="17"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="17" t="s">
-        <v>999</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E115" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F115" s="17"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="17"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="17" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E116" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="17"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="17" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E117" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F117" s="17" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="17"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="17" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E118" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F118" s="17"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="17"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="17" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E119" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F119" s="17"/>
-    </row>
-    <row r="120" spans="1:6" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="17"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="17" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E120" s="17" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F120" s="17"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="17"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="17"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="17"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="17"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="17"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17"/>
-      <c r="F123" s="17"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="17"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="17"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="17"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="17"/>
-      <c r="F125" s="17"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="17"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="17"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="17"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
-      <c r="F127" s="17"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="17"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="17"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17"/>
-      <c r="F128" s="17"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="17"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7601,17 +7238,17 @@
     </row>
     <row r="2" spans="1:6" ht="38.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>1244</v>
+        <v>1106</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+        <v>875</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>876</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:6" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
@@ -7620,105 +7257,105 @@
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="13" t="s">
-        <v>1014</v>
+        <v>877</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
-        <v>1015</v>
+        <v>878</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1016</v>
+        <v>879</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>1017</v>
+        <v>880</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>964</v>
+        <v>871</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>1018</v>
+        <v>881</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17" t="s">
-        <v>1019</v>
+        <v>882</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>1020</v>
+        <v>883</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>964</v>
+        <v>871</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>1021</v>
+        <v>884</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
-        <v>1022</v>
+        <v>885</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>1023</v>
+        <v>886</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>964</v>
+        <v>871</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>1024</v>
+        <v>887</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17" t="s">
-        <v>1025</v>
+        <v>888</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>1026</v>
+        <v>889</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>964</v>
+        <v>871</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>1024</v>
+        <v>887</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
-        <v>1027</v>
+        <v>890</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>1028</v>
+        <v>891</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>964</v>
+        <v>871</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>1029</v>
+        <v>892</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17" t="s">
-        <v>1030</v>
+        <v>893</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>1031</v>
+        <v>894</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>964</v>
+        <v>871</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>1032</v>
+        <v>895</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.350000000000001" x14ac:dyDescent="0.3">
@@ -7728,41 +7365,41 @@
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13" t="s">
-        <v>1033</v>
+        <v>896</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17" t="s">
-        <v>1034</v>
+        <v>897</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1035</v>
+        <v>898</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>1036</v>
+        <v>899</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>964</v>
+        <v>871</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>1037</v>
+        <v>900</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17" t="s">
-        <v>1038</v>
+        <v>901</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>1039</v>
+        <v>902</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>964</v>
+        <v>871</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>1040</v>
+        <v>903</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -7772,7 +7409,7 @@
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="14" t="s">
-        <v>1041</v>
+        <v>904</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -7782,7 +7419,7 @@
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="14" t="s">
-        <v>1042</v>
+        <v>905</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.350000000000001" x14ac:dyDescent="0.3">
@@ -7792,47 +7429,47 @@
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
       <c r="F15" s="13" t="s">
-        <v>1043</v>
+        <v>906</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
-        <v>1044</v>
+        <v>907</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>1045</v>
+        <v>908</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>1046</v>
+        <v>909</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>1048</v>
+        <v>910</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17" t="s">
-        <v>1049</v>
+        <v>912</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>1050</v>
+        <v>913</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="50"/>
+      <c r="F17" s="55"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17" t="s">
-        <v>1051</v>
+        <v>914</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>1052</v>
+        <v>915</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="20"/>
@@ -7844,25 +7481,25 @@
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13" t="s">
-        <v>1053</v>
+        <v>916</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
-        <v>1054</v>
+        <v>917</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>1055</v>
+        <v>918</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>1056</v>
+        <v>919</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>964</v>
+        <v>871</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>1041</v>
+        <v>904</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -7872,7 +7509,7 @@
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="15" t="s">
-        <v>1057</v>
+        <v>920</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.350000000000001" x14ac:dyDescent="0.3">
@@ -7882,40 +7519,40 @@
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
       <c r="F22" s="13" t="s">
-        <v>1058</v>
+        <v>921</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
-        <v>1059</v>
+        <v>922</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>1060</v>
+        <v>923</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>1061</v>
+        <v>924</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>936</v>
-      </c>
-      <c r="F23" s="51" t="s">
-        <v>1062</v>
+        <v>851</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17" t="s">
-        <v>1063</v>
+        <v>926</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>1064</v>
+        <v>927</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>936</v>
-      </c>
-      <c r="F24" s="51"/>
+        <v>851</v>
+      </c>
+      <c r="F24" s="56"/>
     </row>
     <row r="25" spans="1:6" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
@@ -7924,98 +7561,98 @@
       <c r="D25" s="11"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13" t="s">
-        <v>1065</v>
+        <v>928</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
-      <c r="B26" s="45" t="s">
-        <v>1066</v>
+      <c r="B26" s="50" t="s">
+        <v>929</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1067</v>
+        <v>930</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1068</v>
+        <v>931</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>936</v>
+        <v>851</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>1069</v>
+        <v>932</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
-      <c r="B27" s="45"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="1" t="s">
-        <v>1070</v>
+        <v>933</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1071</v>
+        <v>934</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>936</v>
+        <v>851</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>1069</v>
+        <v>932</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="1" t="s">
-        <v>1072</v>
+        <v>935</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1073</v>
+        <v>936</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>936</v>
+        <v>851</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>1069</v>
+        <v>932</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
-      <c r="B29" s="45"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="17" t="s">
-        <v>1074</v>
+        <v>937</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>1075</v>
+        <v>938</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>936</v>
+        <v>851</v>
       </c>
       <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
-      <c r="B30" s="45"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="17" t="s">
-        <v>1076</v>
+        <v>939</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>1077</v>
+        <v>940</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>936</v>
+        <v>851</v>
       </c>
       <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
-      <c r="B31" s="45"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="17" t="s">
-        <v>1078</v>
+        <v>941</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>1079</v>
+        <v>942</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>936</v>
+        <v>851</v>
       </c>
       <c r="F31" s="17"/>
     </row>
@@ -8026,19 +7663,19 @@
       <c r="D32" s="11"/>
       <c r="E32" s="12"/>
       <c r="F32" s="13" t="s">
-        <v>1080</v>
+        <v>943</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
-        <v>1081</v>
+        <v>944</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>1082</v>
+        <v>945</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>1083</v>
+        <v>946</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>16</v>
@@ -8049,10 +7686,10 @@
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17" t="s">
-        <v>1084</v>
+        <v>947</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>1085</v>
+        <v>948</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>16</v>
@@ -8063,10 +7700,10 @@
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17" t="s">
-        <v>1086</v>
+        <v>949</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>1087</v>
+        <v>950</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>16</v>
@@ -8080,19 +7717,19 @@
       <c r="D36" s="11"/>
       <c r="E36" s="12"/>
       <c r="F36" s="13" t="s">
-        <v>1088</v>
+        <v>951</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
-        <v>1089</v>
+        <v>952</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>1090</v>
+        <v>953</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>1091</v>
+        <v>954</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>102</v>
@@ -8103,42 +7740,42 @@
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17" t="s">
-        <v>1092</v>
+        <v>955</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>1093</v>
+        <v>956</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>102</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>1094</v>
+        <v>957</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17" t="s">
-        <v>1095</v>
+        <v>958</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>1096</v>
+        <v>959</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>102</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>1097</v>
+        <v>960</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17" t="s">
-        <v>1098</v>
+        <v>961</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>1099</v>
+        <v>962</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>102</v>
@@ -8149,10 +7786,10 @@
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17" t="s">
-        <v>1100</v>
+        <v>963</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>1101</v>
+        <v>964</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>102</v>
@@ -8163,10 +7800,10 @@
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17" t="s">
-        <v>1102</v>
+        <v>965</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>1103</v>
+        <v>966</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>102</v>
@@ -8177,10 +7814,10 @@
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17" t="s">
-        <v>1104</v>
+        <v>967</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>1105</v>
+        <v>968</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>102</v>
@@ -8191,10 +7828,10 @@
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17" t="s">
-        <v>1106</v>
+        <v>969</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>1107</v>
+        <v>970</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>102</v>
@@ -8205,10 +7842,10 @@
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17" t="s">
-        <v>1108</v>
+        <v>971</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>1109</v>
+        <v>972</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>102</v>
@@ -8219,10 +7856,10 @@
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17" t="s">
-        <v>1110</v>
+        <v>973</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>1111</v>
+        <v>974</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>102</v>
@@ -8233,10 +7870,10 @@
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17" t="s">
-        <v>1112</v>
+        <v>975</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>1113</v>
+        <v>976</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>102</v>
@@ -8247,10 +7884,10 @@
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17" t="s">
-        <v>1114</v>
+        <v>977</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>1115</v>
+        <v>978</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>102</v>
@@ -8261,10 +7898,10 @@
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17" t="s">
-        <v>1116</v>
+        <v>979</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>1117</v>
+        <v>980</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>102</v>
@@ -8275,10 +7912,10 @@
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17" t="s">
-        <v>1118</v>
+        <v>981</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>1119</v>
+        <v>982</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>102</v>
@@ -8297,26 +7934,26 @@
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17" t="s">
-        <v>1120</v>
+        <v>983</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>1121</v>
+        <v>984</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>102</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>1122</v>
+        <v>985</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17" t="s">
-        <v>1123</v>
+        <v>986</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>1124</v>
+        <v>987</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>102</v>
@@ -8327,10 +7964,10 @@
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17" t="s">
-        <v>1125</v>
+        <v>988</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1126</v>
+        <v>989</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>102</v>
@@ -8341,10 +7978,10 @@
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17" t="s">
-        <v>1127</v>
+        <v>990</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>1128</v>
+        <v>991</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>102</v>
@@ -8355,10 +7992,10 @@
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17" t="s">
-        <v>1129</v>
+        <v>992</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>1130</v>
+        <v>993</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>102</v>
@@ -8369,10 +8006,10 @@
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17" t="s">
-        <v>1131</v>
+        <v>994</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>1132</v>
+        <v>995</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>102</v>
@@ -8383,10 +8020,10 @@
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17" t="s">
-        <v>1133</v>
+        <v>996</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>1134</v>
+        <v>997</v>
       </c>
       <c r="E58" s="17" t="s">
         <v>102</v>
@@ -8397,10 +8034,10 @@
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17" t="s">
-        <v>1135</v>
+        <v>998</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>1136</v>
+        <v>999</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>102</v>
@@ -8411,10 +8048,10 @@
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17" t="s">
-        <v>1137</v>
+        <v>1000</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>1138</v>
+        <v>1001</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>102</v>
@@ -8425,10 +8062,10 @@
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17" t="s">
-        <v>1139</v>
+        <v>1002</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>1140</v>
+        <v>1003</v>
       </c>
       <c r="E61" s="17" t="s">
         <v>102</v>
@@ -8578,8 +8215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -8614,17 +8251,17 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="47.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>1245</v>
+        <v>1107</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+        <v>1004</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F3" s="22"/>
@@ -8634,13 +8271,13 @@
     </row>
     <row r="5" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
-        <v>1658</v>
+        <v>1444</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>1143</v>
+        <v>1006</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>1144</v>
+        <v>1007</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>11</v>
@@ -8649,10 +8286,10 @@
     </row>
     <row r="6" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C6" s="24" t="s">
-        <v>1662</v>
+        <v>1448</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>1147</v>
+        <v>1010</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>11</v>
@@ -8661,10 +8298,10 @@
     </row>
     <row r="7" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
-        <v>1663</v>
+        <v>1449</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>1145</v>
+        <v>1008</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>11</v>
@@ -8673,10 +8310,10 @@
     </row>
     <row r="8" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C8" s="24" t="s">
-        <v>1664</v>
+        <v>1450</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>1146</v>
+        <v>1009</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>11</v>
@@ -8685,10 +8322,10 @@
     </row>
     <row r="9" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C9" s="24" t="s">
-        <v>1665</v>
+        <v>1451</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>1148</v>
+        <v>1011</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>11</v>
@@ -8697,10 +8334,10 @@
     </row>
     <row r="10" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C10" s="24" t="s">
-        <v>1666</v>
+        <v>1452</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>1149</v>
+        <v>1012</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>11</v>
@@ -8709,10 +8346,10 @@
     </row>
     <row r="11" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C11" s="24" t="s">
-        <v>1667</v>
+        <v>1453</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>1150</v>
+        <v>1013</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>11</v>
@@ -8721,10 +8358,10 @@
     </row>
     <row r="12" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C12" s="24" t="s">
-        <v>1668</v>
+        <v>1454</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>1151</v>
+        <v>1014</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>11</v>
@@ -8733,10 +8370,10 @@
     </row>
     <row r="13" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C13" s="24" t="s">
-        <v>1669</v>
+        <v>1455</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>1152</v>
+        <v>1015</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>11</v>
@@ -8745,10 +8382,10 @@
     </row>
     <row r="14" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C14" s="24" t="s">
-        <v>1670</v>
+        <v>1456</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>1153</v>
+        <v>1016</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>11</v>
@@ -8758,22 +8395,22 @@
     <row r="15" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C16" s="24" t="s">
-        <v>1671</v>
+        <v>1457</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>1154</v>
+        <v>1517</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="35"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C17" s="24" t="s">
-        <v>1672</v>
+        <v>1458</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>1155</v>
+        <v>1017</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>11</v>
@@ -8781,10 +8418,10 @@
     </row>
     <row r="18" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="24" t="s">
-        <v>1673</v>
+        <v>1459</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>1156</v>
+        <v>1018</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>11</v>
@@ -8792,10 +8429,10 @@
     </row>
     <row r="19" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="24" t="s">
-        <v>1674</v>
+        <v>1460</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>1157</v>
+        <v>1019</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>11</v>
@@ -8803,10 +8440,10 @@
     </row>
     <row r="20" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="24" t="s">
-        <v>1675</v>
+        <v>1461</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>1158</v>
+        <v>1020</v>
       </c>
       <c r="E20" s="24" t="s">
         <v>11</v>
@@ -8815,22 +8452,22 @@
     <row r="21" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="24" t="s">
-        <v>1659</v>
+        <v>1445</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>1159</v>
+        <v>1021</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="35"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="24" t="s">
-        <v>1660</v>
+        <v>1446</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>1160</v>
+        <v>1022</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>11</v>
@@ -8839,10 +8476,10 @@
     </row>
     <row r="24" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="24" t="s">
-        <v>1661</v>
+        <v>1447</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>1161</v>
+        <v>1023</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>11</v>
@@ -8854,65 +8491,65 @@
     </row>
     <row r="26" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="24" t="s">
-        <v>1676</v>
+        <v>1462</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>1677</v>
+        <v>1463</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>1162</v>
+        <v>1024</v>
       </c>
       <c r="E26" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="52" t="s">
-        <v>1163</v>
-      </c>
-      <c r="G26" s="35"/>
+      <c r="F26" s="57" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="24" t="s">
-        <v>1687</v>
+        <v>1473</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>1164</v>
+        <v>1026</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="52"/>
+      <c r="F27" s="57"/>
     </row>
     <row r="28" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="24" t="s">
-        <v>1678</v>
+        <v>1464</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>1165</v>
+        <v>1027</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="52"/>
-      <c r="G28" s="35"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="24" t="s">
-        <v>1688</v>
+        <v>1474</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>1166</v>
+        <v>1028</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="52"/>
+      <c r="F29" s="57"/>
     </row>
     <row r="30" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="24" t="s">
-        <v>1689</v>
+        <v>1475</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>1690</v>
+        <v>1476</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>11</v>
@@ -8922,27 +8559,27 @@
       </c>
     </row>
     <row r="31" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="39"/>
+      <c r="F31" s="38"/>
     </row>
     <row r="32" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="24" t="s">
-        <v>1679</v>
+        <v>1465</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>1169</v>
+        <v>1031</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="22"/>
-      <c r="G32" s="35"/>
+      <c r="G32" s="34"/>
     </row>
     <row r="33" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="24" t="s">
-        <v>1167</v>
+        <v>1029</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>1170</v>
+        <v>1032</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>21</v>
@@ -8951,10 +8588,10 @@
     </row>
     <row r="34" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="24" t="s">
-        <v>1168</v>
+        <v>1030</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>1171</v>
+        <v>1033</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>21</v>
@@ -8966,13 +8603,13 @@
     </row>
     <row r="36" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="24" t="s">
-        <v>1172</v>
+        <v>1034</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>1173</v>
+        <v>1035</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>1174</v>
+        <v>1036</v>
       </c>
       <c r="E36" s="24" t="s">
         <v>11</v>
@@ -8981,23 +8618,23 @@
     </row>
     <row r="37" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="24" t="s">
-        <v>1681</v>
+        <v>1467</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>1175</v>
+        <v>1037</v>
       </c>
       <c r="E37" s="24" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="22"/>
-      <c r="G37" s="35"/>
+      <c r="G37" s="34"/>
     </row>
     <row r="38" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="24" t="s">
-        <v>1680</v>
+        <v>1466</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>1176</v>
+        <v>1038</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>11</v>
@@ -9006,26 +8643,26 @@
     </row>
     <row r="39" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="24" t="s">
-        <v>1682</v>
+        <v>1468</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>1177</v>
+        <v>1039</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>11</v>
       </c>
       <c r="F39" s="22"/>
-      <c r="G39" s="35"/>
+      <c r="G39" s="34"/>
     </row>
     <row r="40" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="24" t="s">
-        <v>1178</v>
+        <v>1040</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>1180</v>
+        <v>1042</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>16</v>
@@ -9034,10 +8671,10 @@
     </row>
     <row r="42" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="24" t="s">
-        <v>1691</v>
+        <v>1477</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>1694</v>
+        <v>1480</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>16</v>
@@ -9046,28 +8683,28 @@
     </row>
     <row r="43" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="24" t="s">
-        <v>1692</v>
+        <v>1478</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>1695</v>
-      </c>
-      <c r="F43" s="40"/>
+        <v>1481</v>
+      </c>
+      <c r="F43" s="39"/>
     </row>
     <row r="44" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="24" t="s">
-        <v>1693</v>
+        <v>1479</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>1696</v>
-      </c>
-      <c r="F44" s="40"/>
+        <v>1482</v>
+      </c>
+      <c r="F44" s="39"/>
     </row>
     <row r="45" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="24" t="s">
-        <v>1179</v>
+        <v>1041</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>1697</v>
+        <v>1483</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>16</v>
@@ -9076,10 +8713,10 @@
     </row>
     <row r="46" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="24" t="s">
-        <v>1700</v>
+        <v>1486</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>1698</v>
+        <v>1484</v>
       </c>
       <c r="E46" s="24" t="s">
         <v>16</v>
@@ -9088,19 +8725,19 @@
     </row>
     <row r="47" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="24" t="s">
-        <v>1700</v>
+        <v>1486</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>1699</v>
+        <v>1485</v>
       </c>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="24" t="s">
-        <v>1194</v>
+        <v>1056</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>1193</v>
+        <v>1055</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>11</v>
@@ -9109,10 +8746,10 @@
     </row>
     <row r="49" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="24" t="s">
-        <v>1195</v>
+        <v>1057</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>1196</v>
+        <v>1058</v>
       </c>
       <c r="E49" s="24" t="s">
         <v>11</v>
@@ -9124,13 +8761,13 @@
     </row>
     <row r="51" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="24" t="s">
-        <v>1181</v>
+        <v>1043</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>1182</v>
+        <v>1044</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>1701</v>
+        <v>1487</v>
       </c>
       <c r="E51" s="24" t="s">
         <v>21</v>
@@ -9138,30 +8775,30 @@
       <c r="F51" s="22"/>
     </row>
     <row r="52" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="42" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D52" s="42" t="s">
-        <v>1702</v>
+      <c r="C52" s="41" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>1488</v>
       </c>
       <c r="E52" s="24" t="s">
         <v>21</v>
       </c>
       <c r="F52" s="22"/>
-      <c r="G52" s="35"/>
+      <c r="G52" s="34"/>
     </row>
     <row r="53" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F53" s="22"/>
     </row>
     <row r="54" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="24" t="s">
-        <v>1184</v>
+        <v>1046</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>1185</v>
+        <v>1047</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>1186</v>
+        <v>1048</v>
       </c>
       <c r="E54" s="24" t="s">
         <v>11</v>
@@ -9170,10 +8807,10 @@
     </row>
     <row r="55" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="24" t="s">
-        <v>1187</v>
+        <v>1049</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>1188</v>
+        <v>1050</v>
       </c>
       <c r="E55" s="24" t="s">
         <v>11</v>
@@ -9182,10 +8819,10 @@
     </row>
     <row r="56" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="24" t="s">
-        <v>1189</v>
+        <v>1051</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>1190</v>
+        <v>1052</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>11</v>
@@ -9194,10 +8831,10 @@
     </row>
     <row r="57" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="24" t="s">
-        <v>1191</v>
+        <v>1053</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>1192</v>
+        <v>1054</v>
       </c>
       <c r="E57" s="24" t="s">
         <v>11</v>
@@ -9206,72 +8843,72 @@
     </row>
     <row r="58" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="24" t="s">
-        <v>1708</v>
+        <v>1494</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>1705</v>
+        <v>1491</v>
       </c>
       <c r="E58" s="24" t="s">
         <v>11</v>
       </c>
       <c r="F58" s="22"/>
-      <c r="G58" s="35"/>
+      <c r="G58" s="34"/>
     </row>
     <row r="59" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="24" t="s">
-        <v>1709</v>
+        <v>1495</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>1706</v>
+        <v>1492</v>
       </c>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="24" t="s">
-        <v>1710</v>
+        <v>1496</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>1707</v>
-      </c>
-      <c r="F60" s="41"/>
+        <v>1493</v>
+      </c>
+      <c r="F60" s="40"/>
     </row>
     <row r="61" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="24" t="s">
-        <v>1703</v>
+        <v>1489</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>1704</v>
-      </c>
-      <c r="F61" s="41"/>
+        <v>1490</v>
+      </c>
+      <c r="F61" s="40"/>
     </row>
     <row r="62" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F62" s="41"/>
+      <c r="F62" s="40"/>
     </row>
     <row r="63" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F63" s="41"/>
+      <c r="F63" s="40"/>
     </row>
     <row r="64" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="24" t="s">
-        <v>1197</v>
+        <v>1059</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>1683</v>
+        <v>1469</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>1198</v>
+        <v>1060</v>
       </c>
       <c r="E64" s="24" t="s">
         <v>11</v>
       </c>
       <c r="F64" s="22"/>
-      <c r="G64" s="35"/>
+      <c r="G64" s="34"/>
     </row>
     <row r="65" spans="3:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="24" t="s">
-        <v>1684</v>
+        <v>1470</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>1199</v>
+        <v>1061</v>
       </c>
       <c r="E65" s="24" t="s">
         <v>11</v>
@@ -9280,10 +8917,10 @@
     </row>
     <row r="66" spans="3:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="24" t="s">
-        <v>1685</v>
+        <v>1471</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>1200</v>
+        <v>1062</v>
       </c>
       <c r="E66" s="24" t="s">
         <v>11</v>
@@ -9292,10 +8929,10 @@
     </row>
     <row r="67" spans="3:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C67" s="24" t="s">
-        <v>1686</v>
+        <v>1472</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>1201</v>
+        <v>1063</v>
       </c>
       <c r="E67" s="24" t="s">
         <v>11</v>
@@ -9401,275 +9038,275 @@
     </row>
     <row r="2" spans="1:6" s="25" customFormat="1" ht="47.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>1246</v>
+        <v>1108</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+        <v>1064</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>1203</v>
+        <v>1065</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>1204</v>
+        <v>1066</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>1205</v>
+        <v>1067</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>1206</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>1207</v>
+        <v>1069</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>1208</v>
+        <v>1070</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>1209</v>
+        <v>1071</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>1210</v>
+        <v>1072</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>1211</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="24" t="s">
-        <v>1212</v>
+        <v>1074</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>1213</v>
+        <v>1075</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>1211</v>
+        <v>1072</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="24" t="s">
-        <v>1214</v>
+        <v>1076</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>1215</v>
+        <v>1077</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F8" s="52"/>
+        <v>1072</v>
+      </c>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="24" t="s">
-        <v>1216</v>
+        <v>1078</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>1217</v>
+        <v>1079</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F9" s="52"/>
+        <v>1072</v>
+      </c>
+      <c r="F9" s="57"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F10" s="43"/>
+      <c r="F10" s="42"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="24" t="s">
-        <v>1711</v>
+        <v>1497</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>1716</v>
+        <v>1502</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F11" s="43"/>
+        <v>1072</v>
+      </c>
+      <c r="F11" s="42"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="24" t="s">
-        <v>1712</v>
+        <v>1498</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>1717</v>
+        <v>1503</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F12" s="43"/>
+        <v>1072</v>
+      </c>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="24" t="s">
-        <v>1713</v>
+        <v>1499</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>1718</v>
+        <v>1504</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F13" s="43"/>
+        <v>1072</v>
+      </c>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="24" t="s">
-        <v>1714</v>
+        <v>1500</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>1719</v>
+        <v>1505</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F14" s="43"/>
+        <v>1072</v>
+      </c>
+      <c r="F14" s="42"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="24" t="s">
-        <v>1715</v>
+        <v>1501</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>1720</v>
+        <v>1506</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F15" s="43"/>
+        <v>1072</v>
+      </c>
+      <c r="F15" s="42"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F16" s="44"/>
+      <c r="F16" s="43"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C17" s="24" t="s">
-        <v>1721</v>
+        <v>1507</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>1722</v>
+        <v>1508</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F17" s="44"/>
+        <v>1072</v>
+      </c>
+      <c r="F17" s="43"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C18" s="24" t="s">
-        <v>1723</v>
+        <v>1509</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>1727</v>
+        <v>1513</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F18" s="44"/>
+        <v>1072</v>
+      </c>
+      <c r="F18" s="43"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C19" s="24" t="s">
-        <v>1724</v>
+        <v>1510</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>1728</v>
+        <v>1514</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F19" s="44"/>
+        <v>1072</v>
+      </c>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C20" s="24" t="s">
-        <v>1725</v>
+        <v>1511</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>1729</v>
+        <v>1515</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F20" s="44"/>
+        <v>1072</v>
+      </c>
+      <c r="F20" s="43"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C21" s="24" t="s">
-        <v>1726</v>
+        <v>1512</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>1730</v>
+        <v>1516</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F21" s="44"/>
+        <v>1072</v>
+      </c>
+      <c r="F21" s="43"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F22" s="43"/>
+      <c r="F22" s="42"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C23" s="24" t="s">
-        <v>1228</v>
+        <v>1090</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>1229</v>
+        <v>1091</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>1230</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F24" s="43"/>
+      <c r="F24" s="42"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="24" t="s">
-        <v>1218</v>
+        <v>1080</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>1219</v>
+        <v>1081</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>1220</v>
+        <v>1082</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>1221</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C27" s="24" t="s">
-        <v>1222</v>
+        <v>1084</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>1223</v>
+        <v>1085</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>1221</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C28" s="24" t="s">
-        <v>1225</v>
+        <v>1087</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>1224</v>
+        <v>1086</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>1221</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C29" s="24" t="s">
-        <v>1226</v>
+        <v>1088</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>1227</v>
+        <v>1089</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>1221</v>
+        <v>1083</v>
       </c>
     </row>
   </sheetData>
@@ -9721,27 +9358,27 @@
     </row>
     <row r="2" spans="1:6" s="25" customFormat="1" ht="47.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>1247</v>
+        <v>1109</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+        <v>1093</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>1312</v>
+        <v>1174</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>1286</v>
+        <v>1148</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>1287</v>
+        <v>1149</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>11</v>
@@ -9749,10 +9386,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="26" t="s">
-        <v>1288</v>
+        <v>1150</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>1289</v>
+        <v>1151</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>11</v>
@@ -9760,10 +9397,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>1292</v>
+        <v>1154</v>
       </c>
       <c r="D6" t="s">
-        <v>1290</v>
+        <v>1152</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -9771,10 +9408,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>1293</v>
+        <v>1155</v>
       </c>
       <c r="D7" t="s">
-        <v>1291</v>
+        <v>1153</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -9782,10 +9419,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>1294</v>
+        <v>1156</v>
       </c>
       <c r="D8" t="s">
-        <v>1296</v>
+        <v>1158</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -9793,10 +9430,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>1295</v>
+        <v>1157</v>
       </c>
       <c r="D9" t="s">
-        <v>1297</v>
+        <v>1159</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -9804,10 +9441,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>1299</v>
+        <v>1161</v>
       </c>
       <c r="D10" t="s">
-        <v>1301</v>
+        <v>1163</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -9815,10 +9452,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>1298</v>
+        <v>1160</v>
       </c>
       <c r="D11" t="s">
-        <v>1300</v>
+        <v>1162</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -9826,10 +9463,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>1302</v>
+        <v>1164</v>
       </c>
       <c r="D12" t="s">
-        <v>1303</v>
+        <v>1165</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -9837,10 +9474,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>1304</v>
+        <v>1166</v>
       </c>
       <c r="D13" t="s">
-        <v>1305</v>
+        <v>1167</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -9848,10 +9485,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>1306</v>
+        <v>1168</v>
       </c>
       <c r="D14" t="s">
-        <v>1307</v>
+        <v>1169</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -9859,10 +9496,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>1308</v>
+        <v>1170</v>
       </c>
       <c r="D15" t="s">
-        <v>1309</v>
+        <v>1171</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -9870,10 +9507,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>1310</v>
+        <v>1172</v>
       </c>
       <c r="D16" t="s">
-        <v>1311</v>
+        <v>1173</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -9881,25 +9518,25 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>1313</v>
+        <v>1175</v>
       </c>
       <c r="C18" t="s">
-        <v>1314</v>
+        <v>1176</v>
       </c>
       <c r="D18" t="s">
-        <v>1317</v>
+        <v>1179</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="34"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>1315</v>
+        <v>1177</v>
       </c>
       <c r="D19" t="s">
-        <v>1318</v>
+        <v>1180</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -9907,10 +9544,10 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>1316</v>
+        <v>1178</v>
       </c>
       <c r="D20" t="s">
-        <v>1319</v>
+        <v>1181</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -9918,10 +9555,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>1322</v>
+        <v>1184</v>
       </c>
       <c r="D21" t="s">
-        <v>1325</v>
+        <v>1187</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -9929,10 +9566,10 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>1323</v>
+        <v>1185</v>
       </c>
       <c r="D22" t="s">
-        <v>1326</v>
+        <v>1188</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -9940,22 +9577,22 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>1324</v>
+        <v>1186</v>
       </c>
       <c r="D23" t="s">
-        <v>1327</v>
+        <v>1189</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="34"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>1320</v>
+        <v>1182</v>
       </c>
       <c r="D24" t="s">
-        <v>1329</v>
+        <v>1191</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -9963,10 +9600,10 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>1321</v>
+        <v>1183</v>
       </c>
       <c r="D25" t="s">
-        <v>1328</v>
+        <v>1190</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -9974,10 +9611,10 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>1330</v>
+        <v>1192</v>
       </c>
       <c r="D27" t="s">
-        <v>1334</v>
+        <v>1196</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -9985,10 +9622,10 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>1331</v>
+        <v>1193</v>
       </c>
       <c r="D28" t="s">
-        <v>1335</v>
+        <v>1197</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -9996,10 +9633,10 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>1332</v>
+        <v>1194</v>
       </c>
       <c r="D29" t="s">
-        <v>1336</v>
+        <v>1198</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -10007,34 +9644,34 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>1599</v>
+        <v>1393</v>
       </c>
       <c r="D30" t="s">
-        <v>1337</v>
+        <v>1199</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="34"/>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>1600</v>
+        <v>1394</v>
       </c>
       <c r="D31" t="s">
-        <v>1338</v>
+        <v>1200</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="34"/>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>1333</v>
+        <v>1195</v>
       </c>
       <c r="D32" t="s">
-        <v>1339</v>
+        <v>1201</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -10042,22 +9679,22 @@
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>1598</v>
+        <v>1392</v>
       </c>
       <c r="D34" t="s">
-        <v>1341</v>
+        <v>1203</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="34"/>
+      <c r="F34" s="33"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>1340</v>
+        <v>1202</v>
       </c>
       <c r="D35" t="s">
-        <v>1342</v>
+        <v>1204</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -10065,10 +9702,10 @@
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>1601</v>
+        <v>1395</v>
       </c>
       <c r="D36" t="s">
-        <v>1344</v>
+        <v>1206</v>
       </c>
       <c r="E36" t="s">
         <v>16</v>
@@ -10076,10 +9713,10 @@
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>1343</v>
+        <v>1205</v>
       </c>
       <c r="D37" t="s">
-        <v>1345</v>
+        <v>1207</v>
       </c>
       <c r="E37" t="s">
         <v>16</v>
@@ -10087,18 +9724,18 @@
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>1602</v>
+        <v>1396</v>
       </c>
       <c r="D39" t="s">
-        <v>1604</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>1603</v>
+        <v>1397</v>
       </c>
       <c r="D40" t="s">
-        <v>1605</v>
+        <v>1399</v>
       </c>
     </row>
   </sheetData>
@@ -10128,8 +9765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView topLeftCell="B91" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="B1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -10163,885 +9800,880 @@
     </row>
     <row r="2" spans="1:6" s="25" customFormat="1" ht="47.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
-        <v>1346</v>
+        <v>1208</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+        <v>1210</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>1349</v>
+        <v>1211</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>1350</v>
+        <v>1572</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>1351</v>
+        <v>1212</v>
       </c>
       <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="26" t="s">
-        <v>1352</v>
+        <v>1571</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>1353</v>
+        <v>1213</v>
       </c>
       <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>1354</v>
+        <v>1518</v>
       </c>
       <c r="D6" t="s">
-        <v>1355</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>1356</v>
+        <v>1519</v>
       </c>
       <c r="D7" t="s">
-        <v>1370</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>1357</v>
+        <v>1520</v>
       </c>
       <c r="D8" t="s">
-        <v>1371</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>1358</v>
+        <v>1521</v>
       </c>
       <c r="D9" t="s">
-        <v>1372</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>1359</v>
+        <v>1215</v>
       </c>
       <c r="D10" t="s">
-        <v>1373</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>1360</v>
+        <v>1216</v>
       </c>
       <c r="D11" t="s">
-        <v>1374</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>1361</v>
+        <v>1217</v>
       </c>
       <c r="D12" t="s">
-        <v>1375</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>1362</v>
+        <v>1522</v>
       </c>
       <c r="D13" t="s">
-        <v>1376</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>1363</v>
+        <v>1218</v>
       </c>
       <c r="D14" t="s">
-        <v>1377</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>1364</v>
+        <v>1219</v>
       </c>
       <c r="D15" t="s">
-        <v>1378</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>1365</v>
+        <v>1220</v>
       </c>
       <c r="D16" t="s">
-        <v>1379</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>1366</v>
+        <v>1221</v>
       </c>
       <c r="D17" t="s">
-        <v>1380</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>1367</v>
+        <v>1222</v>
       </c>
       <c r="D18" t="s">
-        <v>1381</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>1383</v>
+        <v>1238</v>
       </c>
       <c r="D19" t="s">
-        <v>1382</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>1368</v>
+        <v>1223</v>
       </c>
       <c r="D20" t="s">
-        <v>1384</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>1369</v>
+        <v>1224</v>
       </c>
       <c r="D21" t="s">
-        <v>1385</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" s="26" t="s">
-        <v>1386</v>
+        <v>1570</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>1398</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" s="26" t="s">
-        <v>1387</v>
+        <v>1575</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>1399</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>1388</v>
+        <v>1523</v>
       </c>
       <c r="D25" t="s">
-        <v>1400</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>1389</v>
+        <v>1524</v>
       </c>
       <c r="D26" t="s">
-        <v>1401</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>1390</v>
+        <v>1525</v>
       </c>
       <c r="D27" t="s">
-        <v>1402</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>1391</v>
+        <v>1526</v>
       </c>
       <c r="D28" t="s">
-        <v>1403</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>1392</v>
+        <v>1241</v>
       </c>
       <c r="D29" t="s">
-        <v>1404</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>1410</v>
+        <v>1259</v>
       </c>
       <c r="D30" t="s">
-        <v>1411</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>1393</v>
+        <v>1242</v>
       </c>
       <c r="D31" t="s">
-        <v>1405</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>1412</v>
+        <v>1261</v>
       </c>
       <c r="D32" t="s">
-        <v>1413</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>1414</v>
+        <v>1263</v>
       </c>
       <c r="D33" t="s">
-        <v>1416</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>1415</v>
+        <v>1264</v>
       </c>
       <c r="D34" t="s">
-        <v>1417</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>1394</v>
+        <v>1243</v>
       </c>
       <c r="D35" t="s">
-        <v>1406</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>1395</v>
+        <v>1244</v>
       </c>
       <c r="D36" t="s">
-        <v>1407</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>1396</v>
+        <v>1245</v>
       </c>
       <c r="D37" t="s">
-        <v>1408</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>1418</v>
+        <v>1267</v>
       </c>
       <c r="D38" t="s">
-        <v>1419</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>1397</v>
+        <v>1246</v>
       </c>
       <c r="D39" t="s">
-        <v>1409</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>1420</v>
+        <v>1269</v>
       </c>
       <c r="D40" t="s">
-        <v>1421</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>1424</v>
+        <v>1573</v>
       </c>
       <c r="D41" t="s">
-        <v>1422</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>1423</v>
+        <v>1574</v>
       </c>
       <c r="D42" t="s">
-        <v>1425</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>1426</v>
+        <v>1273</v>
       </c>
       <c r="D44" t="s">
-        <v>1427</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>1428</v>
+        <v>1275</v>
       </c>
       <c r="D45" t="s">
-        <v>1429</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="44"/>
+      <c r="C47" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="44" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="44" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="44" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="44" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="44" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="44" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C54" t="s">
         <v>1431</v>
       </c>
-      <c r="D46" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
+      <c r="D54" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="44" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C55" t="s">
         <v>1432</v>
       </c>
-      <c r="D47" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1435</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1634</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1436</v>
-      </c>
-      <c r="F50" s="34" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>1636</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1633</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1437</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>1640</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1632</v>
-      </c>
       <c r="D55" t="s">
-        <v>1441</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>1442</v>
+        <v>1562</v>
       </c>
       <c r="D57" t="s">
-        <v>1455</v>
+        <v>1287</v>
       </c>
       <c r="F57" t="s">
-        <v>1450</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
-        <v>1443</v>
+        <v>1529</v>
       </c>
       <c r="D58" t="s">
-        <v>1456</v>
+        <v>1288</v>
       </c>
       <c r="F58" t="s">
-        <v>1450</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
-        <v>1444</v>
+        <v>1530</v>
       </c>
       <c r="D59" t="s">
-        <v>1457</v>
+        <v>1289</v>
       </c>
       <c r="F59" t="s">
-        <v>1450</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>1445</v>
+        <v>1531</v>
       </c>
       <c r="D60" t="s">
-        <v>1458</v>
+        <v>1290</v>
       </c>
       <c r="F60" t="s">
-        <v>1450</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>1446</v>
+        <v>1532</v>
       </c>
       <c r="D61" t="s">
-        <v>1459</v>
+        <v>1291</v>
       </c>
       <c r="F61" t="s">
-        <v>1450</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
-        <v>1447</v>
+        <v>1533</v>
       </c>
       <c r="D62" t="s">
-        <v>1460</v>
+        <v>1292</v>
       </c>
       <c r="F62" t="s">
-        <v>1450</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
-        <v>1448</v>
+        <v>1534</v>
       </c>
       <c r="D63" t="s">
-        <v>1461</v>
+        <v>1293</v>
       </c>
       <c r="F63" t="s">
-        <v>1450</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>1471</v>
+        <v>1535</v>
       </c>
       <c r="D64" t="s">
-        <v>1462</v>
+        <v>1294</v>
       </c>
       <c r="F64" t="s">
-        <v>1450</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>1656</v>
+        <v>1442</v>
       </c>
       <c r="C66" t="s">
-        <v>1451</v>
+        <v>1563</v>
       </c>
       <c r="D66" t="s">
-        <v>1463</v>
+        <v>1295</v>
       </c>
       <c r="F66" t="s">
-        <v>1450</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>1657</v>
+        <v>1443</v>
       </c>
       <c r="C67" t="s">
-        <v>1454</v>
+        <v>1564</v>
       </c>
       <c r="D67" t="s">
-        <v>1464</v>
+        <v>1296</v>
       </c>
       <c r="F67" t="s">
-        <v>1450</v>
-      </c>
-      <c r="G67" s="34" t="s">
-        <v>1596</v>
+        <v>1286</v>
+      </c>
+      <c r="G67" s="33" t="s">
+        <v>1390</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>1653</v>
+        <v>1439</v>
       </c>
       <c r="C68" t="s">
-        <v>1452</v>
+        <v>1565</v>
       </c>
       <c r="D68" t="s">
-        <v>1465</v>
+        <v>1297</v>
       </c>
       <c r="F68" t="s">
-        <v>1450</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>1654</v>
+        <v>1440</v>
       </c>
       <c r="C69" t="s">
-        <v>1453</v>
+        <v>1566</v>
       </c>
       <c r="D69" t="s">
-        <v>1466</v>
+        <v>1298</v>
       </c>
       <c r="F69" t="s">
-        <v>1450</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
-        <v>1467</v>
+        <v>1567</v>
       </c>
       <c r="D71" t="s">
-        <v>1468</v>
+        <v>1299</v>
       </c>
       <c r="F71" t="s">
-        <v>1450</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>1469</v>
+        <v>1536</v>
       </c>
       <c r="D72" t="s">
-        <v>1470</v>
+        <v>1300</v>
       </c>
       <c r="F72" t="s">
-        <v>1450</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
-        <v>1449</v>
+        <v>1537</v>
       </c>
       <c r="D73" t="s">
-        <v>1472</v>
+        <v>1301</v>
       </c>
       <c r="F73" t="s">
-        <v>1450</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
-        <v>1473</v>
+        <v>1538</v>
       </c>
       <c r="D74" t="s">
-        <v>1474</v>
+        <v>1302</v>
       </c>
       <c r="F74" t="s">
-        <v>1450</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>1651</v>
+        <v>1437</v>
       </c>
       <c r="C76" t="s">
-        <v>1641</v>
+        <v>1539</v>
       </c>
       <c r="D76" t="s">
-        <v>1475</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>1642</v>
+        <v>1540</v>
       </c>
       <c r="D77" t="s">
-        <v>1476</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>1652</v>
+        <v>1438</v>
       </c>
       <c r="C78" t="s">
-        <v>1643</v>
+        <v>1545</v>
       </c>
       <c r="D78" t="s">
-        <v>1477</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
-        <v>1644</v>
+        <v>1546</v>
       </c>
       <c r="D79" t="s">
-        <v>1478</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
-        <v>1479</v>
+        <v>1541</v>
       </c>
       <c r="D81" t="s">
-        <v>1483</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>1480</v>
+        <v>1542</v>
       </c>
       <c r="D82" t="s">
-        <v>1484</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>1481</v>
+        <v>1543</v>
       </c>
       <c r="D83" t="s">
-        <v>1485</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
-        <v>1482</v>
+        <v>1544</v>
       </c>
       <c r="D84" t="s">
-        <v>1486</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>1495</v>
+        <v>1547</v>
       </c>
       <c r="D86" t="s">
-        <v>1496</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>1497</v>
+        <v>1548</v>
       </c>
       <c r="D87" t="s">
-        <v>1498</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
-        <v>1499</v>
+        <v>1549</v>
       </c>
       <c r="D88" t="s">
-        <v>1500</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
-        <v>1487</v>
+        <v>1550</v>
       </c>
       <c r="D89" t="s">
-        <v>1491</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
-        <v>1488</v>
+        <v>1551</v>
       </c>
       <c r="D90" t="s">
-        <v>1492</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
-        <v>1489</v>
+        <v>1553</v>
       </c>
       <c r="D91" t="s">
-        <v>1493</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
-        <v>1490</v>
+        <v>1552</v>
       </c>
       <c r="D92" t="s">
-        <v>1494</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
-        <v>1501</v>
+        <v>1554</v>
       </c>
       <c r="D94" t="s">
-        <v>1502</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>1503</v>
+        <v>1555</v>
       </c>
       <c r="D95" t="s">
-        <v>1504</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
-        <v>1505</v>
+        <v>1556</v>
       </c>
       <c r="D97" t="s">
-        <v>1506</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
-        <v>1507</v>
+        <v>1558</v>
       </c>
       <c r="D98" t="s">
-        <v>1509</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
-        <v>1508</v>
+        <v>1559</v>
       </c>
       <c r="D99" t="s">
-        <v>1510</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>1511</v>
+        <v>1557</v>
       </c>
       <c r="D100" t="s">
-        <v>1512</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
-        <v>1650</v>
-      </c>
       <c r="C102" t="s">
-        <v>1513</v>
+        <v>1324</v>
       </c>
       <c r="D102" t="s">
-        <v>1515</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
-        <v>1649</v>
-      </c>
       <c r="C103" t="s">
-        <v>1514</v>
+        <v>1325</v>
       </c>
       <c r="D103" t="s">
-        <v>1516</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" t="s">
-        <v>1645</v>
+      <c r="B105" s="44" t="s">
+        <v>1328</v>
       </c>
       <c r="C105" t="s">
-        <v>1517</v>
+        <v>1435</v>
       </c>
       <c r="D105" t="s">
-        <v>1518</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" t="s">
-        <v>1646</v>
+      <c r="B106" s="44" t="s">
+        <v>1330</v>
       </c>
       <c r="C106" t="s">
-        <v>1519</v>
+        <v>1436</v>
       </c>
       <c r="D106" t="s">
-        <v>1520</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
-        <v>1647</v>
+      <c r="B107" s="44" t="s">
+        <v>1332</v>
       </c>
       <c r="C107" t="s">
-        <v>1521</v>
+        <v>1528</v>
       </c>
       <c r="D107" t="s">
-        <v>1524</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B108" t="s">
-        <v>1648</v>
+      <c r="B108" s="44" t="s">
+        <v>1333</v>
       </c>
       <c r="C108" t="s">
-        <v>1522</v>
+        <v>1560</v>
       </c>
       <c r="D108" t="s">
-        <v>1525</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
-        <v>1648</v>
+      <c r="B109" s="44" t="s">
+        <v>1334</v>
       </c>
       <c r="C109" t="s">
-        <v>1523</v>
+        <v>1561</v>
       </c>
       <c r="D109" t="s">
-        <v>1526</v>
+        <v>1337</v>
       </c>
     </row>
   </sheetData>
@@ -11094,17 +10726,17 @@
     </row>
     <row r="2" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>1248</v>
+        <v>1110</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+        <v>1111</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -11117,13 +10749,13 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="26"/>
       <c r="B4" s="26" t="s">
-        <v>1257</v>
+        <v>1119</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>1251</v>
+        <v>1113</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>1252</v>
+        <v>1114</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>11</v>
@@ -11134,10 +10766,10 @@
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26" t="s">
-        <v>1253</v>
+        <v>1115</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>1254</v>
+        <v>1116</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>11</v>
@@ -11150,10 +10782,10 @@
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26" t="s">
-        <v>1258</v>
+        <v>1120</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>1255</v>
+        <v>1117</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>11</v>
@@ -11164,10 +10796,10 @@
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26" t="s">
-        <v>1259</v>
+        <v>1121</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>1256</v>
+        <v>1118</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>11</v>
@@ -11178,10 +10810,10 @@
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26" t="s">
-        <v>1527</v>
+        <v>1338</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>1532</v>
+        <v>1343</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>11</v>
@@ -11192,10 +10824,10 @@
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28" t="s">
-        <v>1528</v>
+        <v>1339</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>1533</v>
+        <v>1344</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>11</v>
@@ -11206,10 +10838,10 @@
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28" t="s">
-        <v>1529</v>
+        <v>1340</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>1534</v>
+        <v>1345</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>11</v>
@@ -11220,10 +10852,10 @@
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28" t="s">
-        <v>1530</v>
+        <v>1341</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>1535</v>
+        <v>1346</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>11</v>
@@ -11234,10 +10866,10 @@
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28" t="s">
-        <v>1531</v>
+        <v>1342</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>1536</v>
+        <v>1347</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>11</v>
@@ -11248,10 +10880,10 @@
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26" t="s">
-        <v>1260</v>
+        <v>1122</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>1261</v>
+        <v>1123</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>11</v>
@@ -11262,10 +10894,10 @@
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26" t="s">
-        <v>1262</v>
+        <v>1124</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>1263</v>
+        <v>1125</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>11</v>
@@ -11276,10 +10908,10 @@
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26" t="s">
-        <v>1264</v>
+        <v>1126</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>1265</v>
+        <v>1127</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>11</v>
@@ -11290,10 +10922,10 @@
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26" t="s">
-        <v>1266</v>
+        <v>1128</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>1537</v>
+        <v>1348</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>11</v>
@@ -11304,10 +10936,10 @@
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26" t="s">
-        <v>1267</v>
+        <v>1129</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>1268</v>
+        <v>1130</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>11</v>
@@ -11318,10 +10950,10 @@
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26" t="s">
-        <v>1269</v>
+        <v>1131</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>1272</v>
+        <v>1134</v>
       </c>
       <c r="E18" s="26" t="s">
         <v>11</v>
@@ -11332,10 +10964,10 @@
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26" t="s">
-        <v>1270</v>
+        <v>1132</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>1273</v>
+        <v>1135</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>11</v>
@@ -11346,10 +10978,10 @@
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26" t="s">
-        <v>1271</v>
+        <v>1133</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>1274</v>
+        <v>1136</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>11</v>
@@ -11360,10 +10992,10 @@
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26" t="s">
-        <v>1538</v>
+        <v>1349</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>1543</v>
+        <v>1354</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>11</v>
@@ -11374,10 +11006,10 @@
       <c r="A22" s="29"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29" t="s">
-        <v>1559</v>
+        <v>1370</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>1539</v>
+        <v>1350</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>11</v>
@@ -11388,10 +11020,10 @@
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29" t="s">
-        <v>1560</v>
+        <v>1371</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>1540</v>
+        <v>1351</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>11</v>
@@ -11402,10 +11034,10 @@
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29" t="s">
-        <v>1561</v>
+        <v>1372</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>1541</v>
+        <v>1352</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>11</v>
@@ -11416,10 +11048,10 @@
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29" t="s">
-        <v>1562</v>
+        <v>1373</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>1542</v>
+        <v>1353</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>11</v>
@@ -11430,10 +11062,10 @@
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26" t="s">
-        <v>1275</v>
+        <v>1137</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>1276</v>
+        <v>1138</v>
       </c>
       <c r="E26" s="26" t="s">
         <v>11</v>
@@ -11444,10 +11076,10 @@
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26" t="s">
-        <v>1277</v>
+        <v>1139</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>1278</v>
+        <v>1140</v>
       </c>
       <c r="E27" s="26" t="s">
         <v>11</v>
@@ -11458,10 +11090,10 @@
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26" t="s">
-        <v>1279</v>
+        <v>1141</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>1280</v>
+        <v>1142</v>
       </c>
       <c r="E28" s="26" t="s">
         <v>11</v>
@@ -11472,10 +11104,10 @@
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26" t="s">
-        <v>1557</v>
+        <v>1368</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>1558</v>
+        <v>1369</v>
       </c>
       <c r="E29" s="26" t="s">
         <v>11</v>
@@ -11486,10 +11118,10 @@
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26" t="s">
-        <v>1282</v>
+        <v>1144</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>1283</v>
+        <v>1145</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>21</v>
@@ -11500,10 +11132,10 @@
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26" t="s">
-        <v>1284</v>
+        <v>1146</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>1285</v>
+        <v>1147</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>21</v>
@@ -11514,10 +11146,10 @@
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26" t="s">
-        <v>1544</v>
+        <v>1355</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>1550</v>
+        <v>1361</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>11</v>
@@ -11528,10 +11160,10 @@
       <c r="A33" s="26"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26" t="s">
-        <v>1545</v>
+        <v>1356</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>1551</v>
+        <v>1362</v>
       </c>
       <c r="E33" s="30" t="s">
         <v>11</v>
@@ -11542,10 +11174,10 @@
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26" t="s">
-        <v>1546</v>
+        <v>1357</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>1553</v>
+        <v>1364</v>
       </c>
       <c r="E34" s="30" t="s">
         <v>11</v>
@@ -11556,10 +11188,10 @@
       <c r="A35" s="26"/>
       <c r="B35" s="26"/>
       <c r="C35" s="26" t="s">
-        <v>1547</v>
+        <v>1358</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>1552</v>
+        <v>1363</v>
       </c>
       <c r="E35" s="30" t="s">
         <v>11</v>
@@ -11568,10 +11200,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
-        <v>1549</v>
+        <v>1360</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>1554</v>
+        <v>1365</v>
       </c>
       <c r="E36" s="30" t="s">
         <v>11</v>
@@ -11579,10 +11211,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" s="1" t="s">
-        <v>1548</v>
+        <v>1359</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>1555</v>
+        <v>1366</v>
       </c>
       <c r="E37" s="30" t="s">
         <v>11</v>
@@ -11590,10 +11222,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
-        <v>1281</v>
+        <v>1143</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>1556</v>
+        <v>1367</v>
       </c>
       <c r="E38" s="30" t="s">
         <v>11</v>
@@ -11611,7 +11243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD24"/>
     </sheetView>
   </sheetViews>
@@ -11648,17 +11280,17 @@
     </row>
     <row r="2" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>1236</v>
+        <v>1098</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -12001,7 +11633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -12038,17 +11670,17 @@
     </row>
     <row r="2" spans="1:6" ht="34.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>1237</v>
+        <v>1099</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -12061,10 +11693,10 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>1625</v>
+        <v>1419</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1570</v>
+        <v>1381</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>56</v>
@@ -12080,7 +11712,7 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>1563</v>
+        <v>1374</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>58</v>
@@ -12096,7 +11728,7 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>1569</v>
+        <v>1380</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>59</v>
@@ -12112,7 +11744,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>1568</v>
+        <v>1379</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>60</v>
@@ -12128,7 +11760,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>1567</v>
+        <v>1378</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>61</v>
@@ -12144,7 +11776,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>1566</v>
+        <v>1377</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>62</v>
@@ -12160,7 +11792,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>1565</v>
+        <v>1376</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>63</v>
@@ -12176,7 +11808,7 @@
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>1564</v>
+        <v>1375</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>64</v>
@@ -12192,7 +11824,7 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>1571</v>
+        <v>1382</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>65</v>
@@ -12208,7 +11840,7 @@
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>1572</v>
+        <v>1383</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>66</v>
@@ -12224,7 +11856,7 @@
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>1626</v>
+        <v>1420</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>67</v>
@@ -12399,7 +12031,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>1617</v>
+        <v>1411</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>87</v>
@@ -12418,10 +12050,10 @@
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="10" t="s">
-        <v>1628</v>
+        <v>1422</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>1627</v>
+        <v>1421</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>16</v>
@@ -12559,104 +12191,104 @@
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" s="1" customFormat="1" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="37" t="s">
-        <v>1619</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>1609</v>
-      </c>
-      <c r="E37" s="37" t="s">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="36" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E37" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="37"/>
+      <c r="F37" s="36"/>
     </row>
     <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="37" t="s">
-        <v>1620</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>1610</v>
-      </c>
-      <c r="E38" s="37" t="s">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="36" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E38" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="37"/>
+      <c r="F38" s="36"/>
     </row>
     <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37" t="s">
-        <v>1621</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E39" s="37" t="s">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="36" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E39" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="37"/>
+      <c r="F39" s="36"/>
     </row>
     <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37" t="s">
-        <v>1622</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E40" s="37" t="s">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="36" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E40" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="37"/>
+      <c r="F40" s="36"/>
     </row>
     <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="36"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="37" t="s">
-        <v>1623</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>1613</v>
-      </c>
-      <c r="E41" s="37" t="s">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E41" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="37"/>
+      <c r="F41" s="36"/>
     </row>
     <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="37" t="s">
-        <v>1624</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>1615</v>
-      </c>
-      <c r="E42" s="37" t="s">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="36" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E42" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="37" t="s">
+      <c r="F42" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="37" t="s">
-        <v>1618</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>1614</v>
-      </c>
-      <c r="E43" s="37" t="s">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="36" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E43" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="37"/>
+      <c r="F43" s="36"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
@@ -12669,7 +12301,7 @@
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5" t="s">
-        <v>1616</v>
+        <v>1410</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>100</v>
@@ -12700,7 +12332,7 @@
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="10" t="s">
-        <v>1606</v>
+        <v>1400</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>105</v>
@@ -12770,7 +12402,7 @@
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="10" t="s">
-        <v>1607</v>
+        <v>1401</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>114</v>
@@ -12784,7 +12416,7 @@
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="10" t="s">
-        <v>1608</v>
+        <v>1402</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>115</v>
@@ -12797,10 +12429,10 @@
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12852,17 +12484,17 @@
     </row>
     <row r="2" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>1238</v>
+        <v>1100</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -13015,7 +12647,7 @@
   <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68:E68"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -13051,17 +12683,17 @@
     </row>
     <row r="2" spans="1:6" ht="33.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>1239</v>
+        <v>1101</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
@@ -13431,7 +13063,7 @@
       <c r="E29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="53" t="s">
         <v>199</v>
       </c>
     </row>
@@ -13447,7 +13079,7 @@
       <c r="E30" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="48"/>
+      <c r="F30" s="53"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
@@ -13461,7 +13093,7 @@
       <c r="E31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="48"/>
+      <c r="F31" s="53"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
@@ -13475,7 +13107,7 @@
       <c r="E32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="53"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
@@ -13489,7 +13121,7 @@
       <c r="E33" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="48"/>
+      <c r="F33" s="53"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
@@ -13503,7 +13135,7 @@
       <c r="E34" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="48"/>
+      <c r="F34" s="53"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
@@ -13517,7 +13149,7 @@
       <c r="E35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="48"/>
+      <c r="F35" s="53"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
@@ -13531,7 +13163,7 @@
       <c r="E36" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="48"/>
+      <c r="F36" s="53"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
@@ -13545,7 +13177,7 @@
       <c r="E37" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="48"/>
+      <c r="F37" s="53"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
@@ -13559,7 +13191,7 @@
       <c r="E38" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="48"/>
+      <c r="F38" s="53"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
@@ -13573,7 +13205,7 @@
       <c r="E39" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="48"/>
+      <c r="F39" s="53"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
@@ -13587,7 +13219,7 @@
       <c r="E40" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="48"/>
+      <c r="F40" s="53"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
@@ -13601,7 +13233,7 @@
       <c r="E41" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="48"/>
+      <c r="F41" s="53"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
@@ -13615,7 +13247,7 @@
       <c r="E42" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="48"/>
+      <c r="F42" s="53"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
@@ -13629,7 +13261,7 @@
       <c r="E43" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="48"/>
+      <c r="F43" s="53"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
@@ -13643,7 +13275,7 @@
       <c r="E44" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="48"/>
+      <c r="F44" s="53"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
@@ -13657,7 +13289,7 @@
       <c r="E45" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="48"/>
+      <c r="F45" s="53"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
@@ -13671,7 +13303,7 @@
       <c r="E46" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="48"/>
+      <c r="F46" s="53"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
@@ -14203,7 +13835,7 @@
       <c r="E86" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F86" s="48" t="s">
+      <c r="F86" s="53" t="s">
         <v>305</v>
       </c>
     </row>
@@ -14219,7 +13851,7 @@
       <c r="E87" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="48"/>
+      <c r="F87" s="53"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
@@ -14233,7 +13865,7 @@
       <c r="E88" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F88" s="48"/>
+      <c r="F88" s="53"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
@@ -14247,7 +13879,7 @@
       <c r="E89" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="48"/>
+      <c r="F89" s="53"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
@@ -14261,7 +13893,7 @@
       <c r="E90" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F90" s="48"/>
+      <c r="F90" s="53"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
@@ -14275,7 +13907,7 @@
       <c r="E91" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="48"/>
+      <c r="F91" s="53"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
@@ -14289,7 +13921,7 @@
       <c r="E92" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F92" s="48"/>
+      <c r="F92" s="53"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
@@ -14303,7 +13935,7 @@
       <c r="E93" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F93" s="48"/>
+      <c r="F93" s="53"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
@@ -14317,7 +13949,7 @@
       <c r="E94" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F94" s="48"/>
+      <c r="F94" s="53"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
@@ -14331,7 +13963,7 @@
       <c r="E95" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="48"/>
+      <c r="F95" s="53"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
@@ -14345,7 +13977,7 @@
       <c r="E96" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F96" s="48"/>
+      <c r="F96" s="53"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
@@ -14359,7 +13991,7 @@
       <c r="E97" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F97" s="48"/>
+      <c r="F97" s="53"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
@@ -14373,7 +14005,7 @@
       <c r="E98" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F98" s="48"/>
+      <c r="F98" s="53"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
@@ -14387,7 +14019,7 @@
       <c r="E99" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="48"/>
+      <c r="F99" s="53"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
@@ -15057,17 +14689,17 @@
     </row>
     <row r="2" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>1240</v>
+        <v>1102</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="52" t="s">
         <v>417</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -15082,10 +14714,10 @@
       <c r="B4" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="54" t="s">
         <v>419</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
@@ -15782,7 +15414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -15819,17 +15451,17 @@
     </row>
     <row r="2" spans="1:6" ht="38.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>1241</v>
+        <v>1103</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="53" t="s">
         <v>502</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
@@ -16425,8 +16057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -16462,17 +16094,17 @@
     </row>
     <row r="2" spans="1:6" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>1242</v>
+        <v>1104</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>585</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="53" t="s">
         <v>586</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
@@ -18062,7 +17694,7 @@
     <row r="123" spans="1:6" ht="45.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
-        <v>1234</v>
+        <v>1096</v>
       </c>
       <c r="C123" s="17" t="s">
         <v>801</v>
@@ -18073,8 +17705,8 @@
       <c r="E123" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F123" s="48" t="s">
-        <v>1235</v>
+      <c r="F123" s="53" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -18089,7 +17721,7 @@
       <c r="E124" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F124" s="48"/>
+      <c r="F124" s="53"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
@@ -18125,65 +17757,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -18198,7 +17771,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="481" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="be21cae339529f0f311ef097f4a87693">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd9e5a0c56088652e9b5d1a36fcd7f8a" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -18467,23 +18040,66 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C070FFD4-2B81-40A9-9526-59DD893E6C18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC59F560-844B-432B-8AD6-73714CEDFB96}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -18501,7 +18117,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C215EABC-DB34-46B5-A5E5-21478E186E0D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18519,4 +18135,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C070FFD4-2B81-40A9-9526-59DD893E6C18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33697\ICF\Analysis - Shared Resources\Code\DHS-Indicators-Stata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="114_{BA56B5EA-75AF-4E8A-BCB2-6B6346BBE5CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{79AEAB84-472F-4213-A918-0BF403EA1E9D}"/>
+  <xr:revisionPtr revIDLastSave="465" documentId="114_{BA56B5EA-75AF-4E8A-BCB2-6B6346BBE5CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{7B4D877E-4772-44E9-9B2A-04D72CB226AD}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="690" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1139" yWindow="1139" windowWidth="18851" windowHeight="11808" tabRatio="690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CH2PH" sheetId="17" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="1690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="1849">
   <si>
     <t>Chapter</t>
   </si>
@@ -5116,6 +5116,483 @@
   </si>
   <si>
     <t>nt_mn_bmi_mean</t>
+  </si>
+  <si>
+    <t>Population and Housing</t>
+  </si>
+  <si>
+    <t>PHmaster.do</t>
+  </si>
+  <si>
+    <t>Master file for the Population and Housing chapter. The master file will call the do file listed below and the PH_tables.do file not listed here. The tables do file will produce excel tables of the indicators.</t>
+  </si>
+  <si>
+    <t>PH_WATER.do</t>
+  </si>
+  <si>
+    <t>HR or PR</t>
+  </si>
+  <si>
+    <t>"Source of drinking water"</t>
+  </si>
+  <si>
+    <t>"Access to improved water source"</t>
+  </si>
+  <si>
+    <t>"Round trip time to obtain drinking water"</t>
+  </si>
+  <si>
+    <t>ph_wtr_source</t>
+  </si>
+  <si>
+    <t>ph_wtr_improved</t>
+  </si>
+  <si>
+    <t>ph_wtr_time</t>
+  </si>
+  <si>
+    <t>ph_wtr_treat_boil</t>
+  </si>
+  <si>
+    <t>"Treated water by boiling before drinking"</t>
+  </si>
+  <si>
+    <t>ph_wtr_treat_clth</t>
+  </si>
+  <si>
+    <t>ph_wtr_treat_chlr</t>
+  </si>
+  <si>
+    <t>ph_wtr_treat_fltr</t>
+  </si>
+  <si>
+    <t>ph_wtr_treat_solr</t>
+  </si>
+  <si>
+    <t>ph_wtr_treat_stnd</t>
+  </si>
+  <si>
+    <t>ph_wtr_treat_othr</t>
+  </si>
+  <si>
+    <t>ph_wtr_no_treat</t>
+  </si>
+  <si>
+    <t>"Treated water by adding bleach or chlorine before drinking"</t>
+  </si>
+  <si>
+    <t>"Treated water by straining through cloth before drinking"</t>
+  </si>
+  <si>
+    <t>"Treated water by ceramic, sand, or other filter before drinking"</t>
+  </si>
+  <si>
+    <t>"Treated water by solar disinfection before drinking"</t>
+  </si>
+  <si>
+    <t>"Treated water by letting stand and settle before drinking"</t>
+  </si>
+  <si>
+    <t>"Treated water by other means before drinking"</t>
+  </si>
+  <si>
+    <t>"Did not treat water before drinking"</t>
+  </si>
+  <si>
+    <t>ph_wtr_avail</t>
+  </si>
+  <si>
+    <t>"Availability of water among those using piped water or water from tube well or borehole"</t>
+  </si>
+  <si>
+    <t>PH_SANIT.do</t>
+  </si>
+  <si>
+    <t>ph_sanit_type</t>
+  </si>
+  <si>
+    <t>"Type of sanitation facility"</t>
+  </si>
+  <si>
+    <t>ph_sanit_improved</t>
+  </si>
+  <si>
+    <t>"Access to improved sanitation"</t>
+  </si>
+  <si>
+    <t>ph_sanit_location</t>
+  </si>
+  <si>
+    <t>"Location of toilet/latrine facility"</t>
+  </si>
+  <si>
+    <t>PH_HOUS.do</t>
+  </si>
+  <si>
+    <t>ph_electric</t>
+  </si>
+  <si>
+    <t>"Have electricity"</t>
+  </si>
+  <si>
+    <t>ph_floor</t>
+  </si>
+  <si>
+    <t>"Flooring material"</t>
+  </si>
+  <si>
+    <t>ph_rooms_sleep</t>
+  </si>
+  <si>
+    <t>"Rooms for sleeping"</t>
+  </si>
+  <si>
+    <t>"Place for cooking"</t>
+  </si>
+  <si>
+    <t>ph_cook_place</t>
+  </si>
+  <si>
+    <t>ph_cook_fuel</t>
+  </si>
+  <si>
+    <t>"Type fo cooking fuel"</t>
+  </si>
+  <si>
+    <t>ph_cook_solid</t>
+  </si>
+  <si>
+    <t>"Using solid fuel for cooking"</t>
+  </si>
+  <si>
+    <t>ph_cook_clean</t>
+  </si>
+  <si>
+    <t>"Using clean fuel for cooking"</t>
+  </si>
+  <si>
+    <t>ph_smoke</t>
+  </si>
+  <si>
+    <t>"Frequency of smoking at home"</t>
+  </si>
+  <si>
+    <t>ph_radio</t>
+  </si>
+  <si>
+    <t>ph_tv</t>
+  </si>
+  <si>
+    <t>ph_mobile</t>
+  </si>
+  <si>
+    <t>ph_tel</t>
+  </si>
+  <si>
+    <t>ph_comp</t>
+  </si>
+  <si>
+    <t>ph_frig</t>
+  </si>
+  <si>
+    <t>ph_bike</t>
+  </si>
+  <si>
+    <t>ph_cart</t>
+  </si>
+  <si>
+    <t>ph_moto</t>
+  </si>
+  <si>
+    <t>ph_car</t>
+  </si>
+  <si>
+    <t>ph_boat</t>
+  </si>
+  <si>
+    <t>ph_agriland</t>
+  </si>
+  <si>
+    <t>ph_animals</t>
+  </si>
+  <si>
+    <t>"Owns a radio"</t>
+  </si>
+  <si>
+    <t>"Owns a tv"</t>
+  </si>
+  <si>
+    <t>"Owns a non-mobile telephone"</t>
+  </si>
+  <si>
+    <t>"Owns a mobile phone"</t>
+  </si>
+  <si>
+    <t>"Owns a computer"</t>
+  </si>
+  <si>
+    <t>"Owns a refrigerator"</t>
+  </si>
+  <si>
+    <t>"Owns a bicycle"</t>
+  </si>
+  <si>
+    <t>"Owns a motorcycle/scooter"</t>
+  </si>
+  <si>
+    <t>"Owns a car or truck"</t>
+  </si>
+  <si>
+    <t>"Owns a boat with a motor"</t>
+  </si>
+  <si>
+    <t>"Owns agricultural land"</t>
+  </si>
+  <si>
+    <t>"Owns livestock or farm animals"</t>
+  </si>
+  <si>
+    <t>ph_wealth_quint</t>
+  </si>
+  <si>
+    <t>"Wealth quintile"</t>
+  </si>
+  <si>
+    <t>ph_wealth_gini</t>
+  </si>
+  <si>
+    <t>"Gini coefficient of wealth index"</t>
+  </si>
+  <si>
+    <t>PH_HNDWSH.do</t>
+  </si>
+  <si>
+    <t>"Fixed place for handwashing"</t>
+  </si>
+  <si>
+    <t>"Mobile place for handwashing"</t>
+  </si>
+  <si>
+    <t>"Either fixed or mobile place for handwashing"</t>
+  </si>
+  <si>
+    <t>ph_hndwsh_plac_both</t>
+  </si>
+  <si>
+    <t>ph_hndwsh_place_mob</t>
+  </si>
+  <si>
+    <t>ph_hndwsh_place_fxd</t>
+  </si>
+  <si>
+    <t>ph_hndwsh_wtronly</t>
+  </si>
+  <si>
+    <t>ph_hndwsh_soap_nowtr</t>
+  </si>
+  <si>
+    <t>ph_hndwsh_soap_wtr</t>
+  </si>
+  <si>
+    <t>ph_hndwsh_clnsagnt_wtr</t>
+  </si>
+  <si>
+    <t>ph_hndwsh_clnsagnt_nowtr</t>
+  </si>
+  <si>
+    <t>ph_hndwsh_none</t>
+  </si>
+  <si>
+    <t>"Place observed for handwashing with soap and water"</t>
+  </si>
+  <si>
+    <t>"Place observed for handwashing with cleansing agent other than soap and water"</t>
+  </si>
+  <si>
+    <t>"Place observed for handwashing with water only"</t>
+  </si>
+  <si>
+    <t>"Place observed for handwashing with soap and no water"</t>
+  </si>
+  <si>
+    <t>"Place observed for handwashing with cleansing agent otherthan soap and no water"</t>
+  </si>
+  <si>
+    <t>"Place observed for handwashing with no water, no soap, and no other cleansing agent"</t>
+  </si>
+  <si>
+    <t>PH_POP.do</t>
+  </si>
+  <si>
+    <t>ph_pop_age</t>
+  </si>
+  <si>
+    <t>ph_pop_depend</t>
+  </si>
+  <si>
+    <t>ph_pop_cld_adlt</t>
+  </si>
+  <si>
+    <t>ph_pop_adols</t>
+  </si>
+  <si>
+    <t>"De facto population by five-year age groups"</t>
+  </si>
+  <si>
+    <t>"De facto population by dependency age groups"</t>
+  </si>
+  <si>
+    <t>"De facto population by child and adult populations"</t>
+  </si>
+  <si>
+    <t>"De factor population that are adolesents"</t>
+  </si>
+  <si>
+    <t>ph_hhhead_sex</t>
+  </si>
+  <si>
+    <t>"Sex of household head"</t>
+  </si>
+  <si>
+    <t>ph_num_members</t>
+  </si>
+  <si>
+    <t>"Number of usual household members"</t>
+  </si>
+  <si>
+    <t>ph_mean_hhsize</t>
+  </si>
+  <si>
+    <t>"Mean size of household"</t>
+  </si>
+  <si>
+    <t>ph_orph_double</t>
+  </si>
+  <si>
+    <t>ph_orph_single</t>
+  </si>
+  <si>
+    <t>ph_orph_foster</t>
+  </si>
+  <si>
+    <t>ph_foster</t>
+  </si>
+  <si>
+    <t>"Double orphans under age 18"</t>
+  </si>
+  <si>
+    <t>"Single orphans under age 18"</t>
+  </si>
+  <si>
+    <t>"Foster children under age 18"</t>
+  </si>
+  <si>
+    <t>"Orphans and/or foster children under age 18"</t>
+  </si>
+  <si>
+    <t>HR and PR</t>
+  </si>
+  <si>
+    <t>"Child under 18 not living with a biological parent"</t>
+  </si>
+  <si>
+    <t>ph_birthreg_cert</t>
+  </si>
+  <si>
+    <t>"Child under 5 with registered birth and birth certificate"</t>
+  </si>
+  <si>
+    <t>ph_birthreg_nocert</t>
+  </si>
+  <si>
+    <t>"Child under 5 with registered birth"</t>
+  </si>
+  <si>
+    <t>ph_birthreg</t>
+  </si>
+  <si>
+    <t>PH_EDU.do</t>
+  </si>
+  <si>
+    <t>ph_highest_edu</t>
+  </si>
+  <si>
+    <t>ph_median_eduyrs</t>
+  </si>
+  <si>
+    <t>"Highest level of schooling attended or completed among those age 6 or over"</t>
+  </si>
+  <si>
+    <t>"Median years of education among those age 6 or over"</t>
+  </si>
+  <si>
+    <t>"Primary school net attendance ratio (NAR)"</t>
+  </si>
+  <si>
+    <t>"Secondary school net attendance ratio (NAR)"</t>
+  </si>
+  <si>
+    <t>ph_sch_nar_prim</t>
+  </si>
+  <si>
+    <t>ph_sch_nar_sec</t>
+  </si>
+  <si>
+    <t>ph_sch_gar_prim</t>
+  </si>
+  <si>
+    <t>ph_sch_gar_sec</t>
+  </si>
+  <si>
+    <t>ph_gpi_nar_prim</t>
+  </si>
+  <si>
+    <t>ph_gpi_nar_sec</t>
+  </si>
+  <si>
+    <t>ph_gpi_gar_prim</t>
+  </si>
+  <si>
+    <t>ph_gpi_gar_sec</t>
+  </si>
+  <si>
+    <t>"Primary school gross attendance ratio (GAR)"</t>
+  </si>
+  <si>
+    <t>"Secondary school gross attendance ratio (GAR)"</t>
+  </si>
+  <si>
+    <t>"Gender parity index for NAR primary"</t>
+  </si>
+  <si>
+    <t>"Gender parity index for GAR primary"</t>
+  </si>
+  <si>
+    <t>"Gender parity index for NAR secondary"</t>
+  </si>
+  <si>
+    <t>"Gender parity index for GAR secondary"</t>
+  </si>
+  <si>
+    <t>"Owns a animal drawn cart"</t>
+  </si>
+  <si>
+    <t>ph_chld_liv_arrang</t>
+  </si>
+  <si>
+    <t>ph_chld_liv_noprnt</t>
+  </si>
+  <si>
+    <t>ph_chld_orph</t>
+  </si>
+  <si>
+    <t>"Child under 18 with one or both parents dead"</t>
+  </si>
+  <si>
+    <t>"Child under 5 with registered birth and no birth certificate"</t>
+  </si>
+  <si>
+    <t>"Living arrangement and parents survival status for child under 18"</t>
   </si>
 </sst>
 </file>
@@ -5246,7 +5723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5378,6 +5855,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5685,14 +6174,1065 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.44140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F4" s="50"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F5" s="50"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F6" s="50"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F7" s="50"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F8" s="50"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F9" s="50"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F10" s="50"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F11" s="50"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F12" s="50"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F13" s="50"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F14" s="50"/>
+    </row>
+    <row r="15" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F15" s="50"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="50"/>
+      <c r="B17" s="50" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F17" s="50"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F18" s="50"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F19" s="50"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="50"/>
+      <c r="B21" s="50" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F21" s="50"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F22" s="50"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F23" s="50"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F24" s="50"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F25" s="50"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>1738</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F26" s="50"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F27" s="50"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E29" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="F29" s="52"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="F30" s="52"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E31" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="F31" s="52"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="F32" s="52"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="F34" s="50"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="F35" s="52"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E36" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E37" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="F37" s="52"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="52"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="F38" s="52"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E39" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="F39" s="52"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E40" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="F40" s="52"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D41" s="52" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E41" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="F41" s="52"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="52"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F43" s="50"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="50"/>
+      <c r="B45" s="50" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E45" s="50" t="s">
+        <v>871</v>
+      </c>
+      <c r="F45" s="50"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="50"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E46" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="F46" s="50"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E47" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="F47" s="50"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D48" s="50" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E48" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="F48" s="50"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="50"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D49" s="52" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E49" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="F49" s="50"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C50" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E50" s="52" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C51" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D51" s="52" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E51" s="52" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C52" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E52" s="52" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D53" s="52" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E53" s="52" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C56" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C57" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C58" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C59" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C60" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C61" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="52"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D63" s="52" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E63" s="52" t="s">
+        <v>851</v>
+      </c>
+      <c r="F63" s="52"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="52"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D64" s="52" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E64" s="52" t="s">
+        <v>851</v>
+      </c>
+      <c r="F64" s="52"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="53"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C66" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C67" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C68" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C69" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C71" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C72" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C73" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C75" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C76" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C77" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B79" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C80" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C82" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C83" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C84" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C85" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C86" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C87" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C88" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C89" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5701,7 +7241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -5743,12 +7283,12 @@
       <c r="B2" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="57" t="s">
         <v>809</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -7243,12 +8783,12 @@
       <c r="B2" s="17" t="s">
         <v>875</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="57" t="s">
         <v>876</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
@@ -7446,7 +8986,7 @@
       <c r="E16" s="17" t="s">
         <v>910</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="59" t="s">
         <v>911</v>
       </c>
     </row>
@@ -7460,7 +9000,7 @@
         <v>913</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="55"/>
+      <c r="F17" s="59"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
@@ -7536,7 +9076,7 @@
       <c r="E23" s="17" t="s">
         <v>851</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="60" t="s">
         <v>925</v>
       </c>
     </row>
@@ -7552,7 +9092,7 @@
       <c r="E24" s="17" t="s">
         <v>851</v>
       </c>
-      <c r="F24" s="56"/>
+      <c r="F24" s="60"/>
     </row>
     <row r="25" spans="1:6" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
@@ -7566,7 +9106,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="54" t="s">
         <v>929</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -7584,7 +9124,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
-      <c r="B27" s="50"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="1" t="s">
         <v>933</v>
       </c>
@@ -7600,7 +9140,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="1" t="s">
         <v>935</v>
       </c>
@@ -7616,7 +9156,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
-      <c r="B29" s="50"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="17" t="s">
         <v>937</v>
       </c>
@@ -7630,7 +9170,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
-      <c r="B30" s="50"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="17" t="s">
         <v>939</v>
       </c>
@@ -7644,7 +9184,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
-      <c r="B31" s="50"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="17" t="s">
         <v>941</v>
       </c>
@@ -8256,12 +9796,12 @@
       <c r="B2" s="21" t="s">
         <v>1004</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="57" t="s">
         <v>1005</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F3" s="22"/>
@@ -8502,7 +10042,7 @@
       <c r="E26" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="57" t="s">
+      <c r="F26" s="61" t="s">
         <v>1025</v>
       </c>
       <c r="G26" s="34"/>
@@ -8517,7 +10057,7 @@
       <c r="E27" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="57"/>
+      <c r="F27" s="61"/>
     </row>
     <row r="28" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="24" t="s">
@@ -8529,7 +10069,7 @@
       <c r="E28" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="57"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="34"/>
     </row>
     <row r="29" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -8542,7 +10082,7 @@
       <c r="E29" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="57"/>
+      <c r="F29" s="61"/>
     </row>
     <row r="30" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="24" t="s">
@@ -9043,12 +10583,12 @@
       <c r="B2" s="21" t="s">
         <v>1064</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="57" t="s">
         <v>1094</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
@@ -9091,7 +10631,7 @@
       <c r="E7" s="24" t="s">
         <v>1072</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="61" t="s">
         <v>1073</v>
       </c>
     </row>
@@ -9105,7 +10645,7 @@
       <c r="E8" s="24" t="s">
         <v>1072</v>
       </c>
-      <c r="F8" s="57"/>
+      <c r="F8" s="61"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="24" t="s">
@@ -9117,7 +10657,7 @@
       <c r="E9" s="24" t="s">
         <v>1072</v>
       </c>
-      <c r="F9" s="57"/>
+      <c r="F9" s="61"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F10" s="42"/>
@@ -9363,12 +10903,12 @@
       <c r="B2" s="21" t="s">
         <v>1093</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="57" t="s">
         <v>1095</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -9805,12 +11345,12 @@
       <c r="B2" s="26" t="s">
         <v>1210</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="57" t="s">
         <v>1209</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -10690,7 +12230,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -10731,12 +12271,12 @@
       <c r="B2" s="4" t="s">
         <v>1111</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="54" t="s">
         <v>1112</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -11285,12 +12825,12 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -11675,12 +13215,12 @@
       <c r="B2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -12489,12 +14029,12 @@
       <c r="B2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -12688,12 +14228,12 @@
       <c r="B2" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
@@ -13063,7 +14603,7 @@
       <c r="E29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="53" t="s">
+      <c r="F29" s="57" t="s">
         <v>199</v>
       </c>
     </row>
@@ -13079,7 +14619,7 @@
       <c r="E30" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="53"/>
+      <c r="F30" s="57"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
@@ -13093,7 +14633,7 @@
       <c r="E31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="53"/>
+      <c r="F31" s="57"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
@@ -13107,7 +14647,7 @@
       <c r="E32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="53"/>
+      <c r="F32" s="57"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
@@ -13121,7 +14661,7 @@
       <c r="E33" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="53"/>
+      <c r="F33" s="57"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
@@ -13135,7 +14675,7 @@
       <c r="E34" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="53"/>
+      <c r="F34" s="57"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
@@ -13149,7 +14689,7 @@
       <c r="E35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="53"/>
+      <c r="F35" s="57"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
@@ -13163,7 +14703,7 @@
       <c r="E36" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="53"/>
+      <c r="F36" s="57"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
@@ -13177,7 +14717,7 @@
       <c r="E37" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="53"/>
+      <c r="F37" s="57"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
@@ -13191,7 +14731,7 @@
       <c r="E38" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="53"/>
+      <c r="F38" s="57"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
@@ -13205,7 +14745,7 @@
       <c r="E39" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="53"/>
+      <c r="F39" s="57"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
@@ -13219,7 +14759,7 @@
       <c r="E40" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="53"/>
+      <c r="F40" s="57"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
@@ -13233,7 +14773,7 @@
       <c r="E41" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="53"/>
+      <c r="F41" s="57"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
@@ -13247,7 +14787,7 @@
       <c r="E42" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="53"/>
+      <c r="F42" s="57"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
@@ -13261,7 +14801,7 @@
       <c r="E43" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="53"/>
+      <c r="F43" s="57"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
@@ -13275,7 +14815,7 @@
       <c r="E44" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="53"/>
+      <c r="F44" s="57"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
@@ -13289,7 +14829,7 @@
       <c r="E45" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="53"/>
+      <c r="F45" s="57"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
@@ -13303,7 +14843,7 @@
       <c r="E46" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="53"/>
+      <c r="F46" s="57"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
@@ -13835,7 +15375,7 @@
       <c r="E86" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F86" s="53" t="s">
+      <c r="F86" s="57" t="s">
         <v>305</v>
       </c>
     </row>
@@ -13851,7 +15391,7 @@
       <c r="E87" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="53"/>
+      <c r="F87" s="57"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
@@ -13865,7 +15405,7 @@
       <c r="E88" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F88" s="53"/>
+      <c r="F88" s="57"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
@@ -13879,7 +15419,7 @@
       <c r="E89" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="53"/>
+      <c r="F89" s="57"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
@@ -13893,7 +15433,7 @@
       <c r="E90" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F90" s="53"/>
+      <c r="F90" s="57"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
@@ -13907,7 +15447,7 @@
       <c r="E91" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="53"/>
+      <c r="F91" s="57"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
@@ -13921,7 +15461,7 @@
       <c r="E92" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F92" s="53"/>
+      <c r="F92" s="57"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
@@ -13935,7 +15475,7 @@
       <c r="E93" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F93" s="53"/>
+      <c r="F93" s="57"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
@@ -13949,7 +15489,7 @@
       <c r="E94" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F94" s="53"/>
+      <c r="F94" s="57"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
@@ -13963,7 +15503,7 @@
       <c r="E95" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="53"/>
+      <c r="F95" s="57"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
@@ -13977,7 +15517,7 @@
       <c r="E96" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F96" s="53"/>
+      <c r="F96" s="57"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
@@ -13991,7 +15531,7 @@
       <c r="E97" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F97" s="53"/>
+      <c r="F97" s="57"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
@@ -14005,7 +15545,7 @@
       <c r="E98" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F98" s="53"/>
+      <c r="F98" s="57"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
@@ -14019,7 +15559,7 @@
       <c r="E99" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="53"/>
+      <c r="F99" s="57"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
@@ -14694,12 +16234,12 @@
       <c r="B2" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="56" t="s">
         <v>417</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -14714,10 +16254,10 @@
       <c r="B4" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="58" t="s">
         <v>419</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
@@ -15456,12 +16996,12 @@
       <c r="B2" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="57" t="s">
         <v>502</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
@@ -16099,12 +17639,12 @@
       <c r="B2" s="17" t="s">
         <v>585</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="57" t="s">
         <v>586</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
@@ -17705,7 +19245,7 @@
       <c r="E123" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F123" s="53" t="s">
+      <c r="F123" s="57" t="s">
         <v>1097</v>
       </c>
     </row>
@@ -17721,7 +19261,7 @@
       <c r="E124" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F124" s="53"/>
+      <c r="F124" s="57"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
@@ -17772,6 +19312,65 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="481" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="be21cae339529f0f311ef097f4a87693">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd9e5a0c56088652e9b5d1a36fcd7f8a" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -18040,65 +19639,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC59F560-844B-432B-8AD6-73714CEDFB96}">
   <ds:schemaRefs>
@@ -18118,6 +19658,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C070FFD4-2B81-40A9-9526-59DD893E6C18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C215EABC-DB34-46B5-A5E5-21478E186E0D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18135,20 +19691,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C070FFD4-2B81-40A9-9526-59DD893E6C18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33697\ICF\Analysis - Shared Resources\Code\DHS-Indicators-Stata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/Shared Resources/Code/DHS-Indicators-Stata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="465" documentId="114_{BA56B5EA-75AF-4E8A-BCB2-6B6346BBE5CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{7B4D877E-4772-44E9-9B2A-04D72CB226AD}"/>
+  <xr:revisionPtr revIDLastSave="550" documentId="114_{BA56B5EA-75AF-4E8A-BCB2-6B6346BBE5CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EED370CC-D532-4FC1-B279-7F3438832CDD}"/>
   <bookViews>
-    <workbookView xWindow="1139" yWindow="1139" windowWidth="18851" windowHeight="11808" tabRatio="690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28721" yWindow="0" windowWidth="18851" windowHeight="11808" tabRatio="690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CH2PH" sheetId="17" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="1849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="1857">
   <si>
     <t>Chapter</t>
   </si>
@@ -5355,15 +5355,6 @@
     <t>ph_wealth_quint</t>
   </si>
   <si>
-    <t>"Wealth quintile"</t>
-  </si>
-  <si>
-    <t>ph_wealth_gini</t>
-  </si>
-  <si>
-    <t>"Gini coefficient of wealth index"</t>
-  </si>
-  <si>
     <t>PH_HNDWSH.do</t>
   </si>
   <si>
@@ -5376,51 +5367,12 @@
     <t>"Either fixed or mobile place for handwashing"</t>
   </si>
   <si>
-    <t>ph_hndwsh_plac_both</t>
-  </si>
-  <si>
     <t>ph_hndwsh_place_mob</t>
   </si>
   <si>
     <t>ph_hndwsh_place_fxd</t>
   </si>
   <si>
-    <t>ph_hndwsh_wtronly</t>
-  </si>
-  <si>
-    <t>ph_hndwsh_soap_nowtr</t>
-  </si>
-  <si>
-    <t>ph_hndwsh_soap_wtr</t>
-  </si>
-  <si>
-    <t>ph_hndwsh_clnsagnt_wtr</t>
-  </si>
-  <si>
-    <t>ph_hndwsh_clnsagnt_nowtr</t>
-  </si>
-  <si>
-    <t>ph_hndwsh_none</t>
-  </si>
-  <si>
-    <t>"Place observed for handwashing with soap and water"</t>
-  </si>
-  <si>
-    <t>"Place observed for handwashing with cleansing agent other than soap and water"</t>
-  </si>
-  <si>
-    <t>"Place observed for handwashing with water only"</t>
-  </si>
-  <si>
-    <t>"Place observed for handwashing with soap and no water"</t>
-  </si>
-  <si>
-    <t>"Place observed for handwashing with cleansing agent otherthan soap and no water"</t>
-  </si>
-  <si>
-    <t>"Place observed for handwashing with no water, no soap, and no other cleansing agent"</t>
-  </si>
-  <si>
     <t>PH_POP.do</t>
   </si>
   <si>
@@ -5490,9 +5442,6 @@
     <t>"Orphans and/or foster children under age 18"</t>
   </si>
   <si>
-    <t>HR and PR</t>
-  </si>
-  <si>
     <t>"Child under 18 not living with a biological parent"</t>
   </si>
   <si>
@@ -5511,21 +5460,12 @@
     <t>ph_birthreg</t>
   </si>
   <si>
-    <t>PH_EDU.do</t>
-  </si>
-  <si>
     <t>ph_highest_edu</t>
   </si>
   <si>
-    <t>ph_median_eduyrs</t>
-  </si>
-  <si>
     <t>"Highest level of schooling attended or completed among those age 6 or over"</t>
   </si>
   <si>
-    <t>"Median years of education among those age 6 or over"</t>
-  </si>
-  <si>
     <t>"Primary school net attendance ratio (NAR)"</t>
   </si>
   <si>
@@ -5593,6 +5533,90 @@
   </si>
   <si>
     <t>"Living arrangement and parents survival status for child under 18"</t>
+  </si>
+  <si>
+    <t>ph_wtr_basic</t>
+  </si>
+  <si>
+    <t>ph_wtr_limited</t>
+  </si>
+  <si>
+    <t>"Basic water service"</t>
+  </si>
+  <si>
+    <t>"Limited water service"</t>
+  </si>
+  <si>
+    <t>ph_sanit_basic</t>
+  </si>
+  <si>
+    <t>ph_sanit_limited</t>
+  </si>
+  <si>
+    <t>"Basic sanitation facility"</t>
+  </si>
+  <si>
+    <t>ph_hndwsh_basic</t>
+  </si>
+  <si>
+    <t>ph_hndwsh_limited</t>
+  </si>
+  <si>
+    <t>"Basic handwashing facility"</t>
+  </si>
+  <si>
+    <t>"Limited handwashing facility"</t>
+  </si>
+  <si>
+    <t>"Limited sanitation facility"</t>
+  </si>
+  <si>
+    <t>ph_hndwsh_place_any</t>
+  </si>
+  <si>
+    <t>"Place observed for handwashing with water"</t>
+  </si>
+  <si>
+    <t>ph_hndwsh_soap</t>
+  </si>
+  <si>
+    <t>ph_hndwsh_clnsagnt</t>
+  </si>
+  <si>
+    <t>"Place observed for handwashing with soap"</t>
+  </si>
+  <si>
+    <t>"Place observed for handwashing with cleansing agent other than soap"</t>
+  </si>
+  <si>
+    <t>ph_hndwsh_water</t>
+  </si>
+  <si>
+    <t>PH_SCHOL.do</t>
+  </si>
+  <si>
+    <t>ph_median_eduyrs_wm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Median years of education among those age 6 or over - Females"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ph_median_eduyrs_mn </t>
+  </si>
+  <si>
+    <t>Median years of education among those age 6 or over - Males</t>
+  </si>
+  <si>
+    <t>this is a scalar</t>
+  </si>
+  <si>
+    <t>Produces table for Gini coeffients</t>
+  </si>
+  <si>
+    <t>PH_GINI.do</t>
+  </si>
+  <si>
+    <t>Wealth quintile - dejure population</t>
   </si>
 </sst>
 </file>
@@ -5682,7 +5706,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5698,6 +5722,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5723,7 +5753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5867,6 +5897,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6174,10 +6217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -6218,12 +6261,12 @@
       <c r="B2" s="4" t="s">
         <v>1691</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="59" t="s">
         <v>1692</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -6277,42 +6320,42 @@
       </c>
       <c r="F6" s="50"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50" t="s">
-        <v>1701</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>1702</v>
-      </c>
-      <c r="E7" s="52" t="s">
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>1831</v>
+      </c>
+      <c r="E7" s="55" t="s">
         <v>1694</v>
       </c>
-      <c r="F7" s="50"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50" t="s">
-        <v>1704</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>1710</v>
-      </c>
-      <c r="E8" s="52" t="s">
+      <c r="F7" s="54"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E8" s="55" t="s">
         <v>1694</v>
       </c>
-      <c r="F8" s="50"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="50"/>
       <c r="B9" s="50"/>
       <c r="C9" s="50" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>1711</v>
+        <v>1702</v>
       </c>
       <c r="E9" s="52" t="s">
         <v>1694</v>
@@ -6323,10 +6366,10 @@
       <c r="A10" s="50"/>
       <c r="B10" s="50"/>
       <c r="C10" s="50" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="E10" s="52" t="s">
         <v>1694</v>
@@ -6337,10 +6380,10 @@
       <c r="A11" s="50"/>
       <c r="B11" s="50"/>
       <c r="C11" s="50" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="E11" s="52" t="s">
         <v>1694</v>
@@ -6351,10 +6394,10 @@
       <c r="A12" s="50"/>
       <c r="B12" s="50"/>
       <c r="C12" s="50" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="E12" s="52" t="s">
         <v>1694</v>
@@ -6365,10 +6408,10 @@
       <c r="A13" s="50"/>
       <c r="B13" s="50"/>
       <c r="C13" s="50" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="E13" s="52" t="s">
         <v>1694</v>
@@ -6379,24 +6422,24 @@
       <c r="A14" s="50"/>
       <c r="B14" s="50"/>
       <c r="C14" s="50" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="E14" s="52" t="s">
         <v>1694</v>
       </c>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="50"/>
       <c r="B15" s="50"/>
       <c r="C15" s="50" t="s">
-        <v>1717</v>
+        <v>1708</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>1694</v>
@@ -6406,23 +6449,27 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="50"/>
       <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
+      <c r="C16" s="50" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>1694</v>
+      </c>
       <c r="F16" s="50"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A17" s="50"/>
-      <c r="B17" s="50" t="s">
-        <v>1719</v>
-      </c>
+      <c r="B17" s="50"/>
       <c r="C17" s="50" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E17" s="50" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E17" s="52" t="s">
         <v>1694</v>
       </c>
       <c r="F17" s="50"/>
@@ -6430,27 +6477,23 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="50"/>
       <c r="B18" s="50"/>
-      <c r="C18" s="50" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>1723</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>1694</v>
-      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
       <c r="F18" s="50"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
+      <c r="B19" s="50" t="s">
+        <v>1719</v>
+      </c>
       <c r="C19" s="50" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>1725</v>
-      </c>
-      <c r="E19" s="52" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E19" s="50" t="s">
         <v>1694</v>
       </c>
       <c r="F19" s="50"/>
@@ -6458,49 +6501,53 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="50"/>
       <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
+      <c r="C20" s="50" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>1694</v>
+      </c>
       <c r="F20" s="50"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50" t="s">
-        <v>1726</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>1727</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>1728</v>
-      </c>
-      <c r="E21" s="50" t="s">
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E21" s="55" t="s">
         <v>1694</v>
       </c>
-      <c r="F21" s="50"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50" t="s">
-        <v>1729</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>1730</v>
-      </c>
-      <c r="E22" s="52" t="s">
+      <c r="F21" s="54"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E22" s="55" t="s">
         <v>1694</v>
       </c>
-      <c r="F22" s="50"/>
+      <c r="F22" s="54"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="50"/>
       <c r="B23" s="50"/>
       <c r="C23" s="50" t="s">
-        <v>1731</v>
+        <v>1724</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>1732</v>
+        <v>1725</v>
       </c>
       <c r="E23" s="52" t="s">
         <v>1694</v>
@@ -6510,27 +6557,23 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="50"/>
       <c r="B24" s="50"/>
-      <c r="C24" s="50" t="s">
-        <v>1734</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>1733</v>
-      </c>
-      <c r="E24" s="52" t="s">
-        <v>1694</v>
-      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="50"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
+      <c r="B25" s="50" t="s">
+        <v>1726</v>
+      </c>
       <c r="C25" s="50" t="s">
-        <v>1735</v>
+        <v>1727</v>
       </c>
       <c r="D25" s="50" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E25" s="52" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E25" s="50" t="s">
         <v>1694</v>
       </c>
       <c r="F25" s="50"/>
@@ -6539,10 +6582,10 @@
       <c r="A26" s="50"/>
       <c r="B26" s="50"/>
       <c r="C26" s="50" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>1738</v>
+        <v>1730</v>
       </c>
       <c r="E26" s="52" t="s">
         <v>1694</v>
@@ -6553,10 +6596,10 @@
       <c r="A27" s="50"/>
       <c r="B27" s="50"/>
       <c r="C27" s="50" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
       <c r="D27" s="50" t="s">
-        <v>1740</v>
+        <v>1732</v>
       </c>
       <c r="E27" s="52" t="s">
         <v>1694</v>
@@ -6564,77 +6607,77 @@
       <c r="F27" s="50"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F28" s="50"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52" t="s">
-        <v>1743</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>1756</v>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>1736</v>
       </c>
       <c r="E29" s="52" t="s">
-        <v>871</v>
-      </c>
-      <c r="F29" s="52"/>
+        <v>1694</v>
+      </c>
+      <c r="F29" s="50"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52" t="s">
-        <v>1744</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>1757</v>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>1738</v>
       </c>
       <c r="E30" s="52" t="s">
-        <v>871</v>
-      </c>
-      <c r="F30" s="52"/>
+        <v>1694</v>
+      </c>
+      <c r="F30" s="50"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52" t="s">
-        <v>1745</v>
-      </c>
-      <c r="D31" s="52" t="s">
-        <v>1759</v>
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>1740</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>871</v>
-      </c>
-      <c r="F31" s="52"/>
+        <v>1694</v>
+      </c>
+      <c r="F31" s="50"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="52"/>
       <c r="B32" s="52"/>
-      <c r="C32" s="52" t="s">
-        <v>1746</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>1758</v>
-      </c>
-      <c r="E32" s="52" t="s">
-        <v>871</v>
-      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
       <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="52"/>
       <c r="B33" s="52"/>
       <c r="C33" s="52" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="E33" s="52" t="s">
         <v>871</v>
@@ -6642,27 +6685,27 @@
       <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50" t="s">
-        <v>1748</v>
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52" t="s">
+        <v>1744</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="E34" s="52" t="s">
         <v>871</v>
       </c>
-      <c r="F34" s="50"/>
+      <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="52"/>
       <c r="B35" s="52"/>
       <c r="C35" s="52" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="E35" s="52" t="s">
         <v>871</v>
@@ -6673,10 +6716,10 @@
       <c r="A36" s="52"/>
       <c r="B36" s="52"/>
       <c r="C36" s="52" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>1842</v>
+        <v>1758</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>871</v>
@@ -6687,10 +6730,10 @@
       <c r="A37" s="52"/>
       <c r="B37" s="52"/>
       <c r="C37" s="52" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="E37" s="52" t="s">
         <v>871</v>
@@ -6698,27 +6741,27 @@
       <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="52"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52" t="s">
-        <v>1752</v>
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50" t="s">
+        <v>1748</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="E38" s="52" t="s">
         <v>871</v>
       </c>
-      <c r="F38" s="52"/>
+      <c r="F38" s="50"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="52"/>
       <c r="B39" s="52"/>
       <c r="C39" s="52" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="E39" s="52" t="s">
         <v>871</v>
@@ -6729,10 +6772,10 @@
       <c r="A40" s="52"/>
       <c r="B40" s="52"/>
       <c r="C40" s="52" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>1766</v>
+        <v>1822</v>
       </c>
       <c r="E40" s="52" t="s">
         <v>871</v>
@@ -6743,10 +6786,10 @@
       <c r="A41" s="52"/>
       <c r="B41" s="52"/>
       <c r="C41" s="52" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="E41" s="52" t="s">
         <v>871</v>
@@ -6756,317 +6799,338 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="52"/>
       <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
+      <c r="C42" s="52" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E42" s="52" t="s">
+        <v>871</v>
+      </c>
       <c r="F42" s="52"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50" t="s">
-        <v>1741</v>
-      </c>
-      <c r="D43" s="50" t="s">
-        <v>1742</v>
-      </c>
-      <c r="E43" s="50" t="s">
-        <v>1694</v>
-      </c>
-      <c r="F43" s="50"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="F43" s="52"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E44" s="52" t="s">
+        <v>871</v>
+      </c>
+      <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50" t="s">
-        <v>1772</v>
-      </c>
-      <c r="C45" s="50" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D45" s="50" t="s">
-        <v>1773</v>
-      </c>
-      <c r="E45" s="50" t="s">
+      <c r="A45" s="52"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E45" s="52" t="s">
         <v>871</v>
       </c>
-      <c r="F45" s="50"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50" t="s">
-        <v>1777</v>
-      </c>
-      <c r="D46" s="50" t="s">
-        <v>1774</v>
-      </c>
-      <c r="E46" s="52" t="s">
-        <v>871</v>
-      </c>
-      <c r="F46" s="50"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F45" s="52"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="50"/>
       <c r="B47" s="50"/>
       <c r="C47" s="50" t="s">
-        <v>1776</v>
+        <v>1741</v>
       </c>
       <c r="D47" s="50" t="s">
-        <v>1775</v>
-      </c>
-      <c r="E47" s="52" t="s">
-        <v>871</v>
+        <v>1742</v>
+      </c>
+      <c r="E47" s="50" t="s">
+        <v>1694</v>
       </c>
       <c r="F47" s="50"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="50"/>
       <c r="B48" s="50"/>
-      <c r="C48" s="50" t="s">
-        <v>1781</v>
-      </c>
-      <c r="D48" s="50" t="s">
-        <v>1785</v>
-      </c>
-      <c r="E48" s="52" t="s">
-        <v>871</v>
-      </c>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
       <c r="F48" s="50"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="50"/>
-      <c r="B49" s="50"/>
+      <c r="B49" s="50" t="s">
+        <v>1769</v>
+      </c>
       <c r="C49" s="50" t="s">
-        <v>1782</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>1786</v>
-      </c>
-      <c r="E49" s="52" t="s">
-        <v>871</v>
+        <v>1774</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E49" s="36" t="s">
+        <v>1694</v>
       </c>
       <c r="F49" s="50"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C50" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="D50" s="52" t="s">
-        <v>1787</v>
-      </c>
-      <c r="E50" s="52" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C51" s="1" t="s">
+    <row r="50" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D50" s="50" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F50" s="50"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="50"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="36" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F51" s="50"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="50"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="36" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F52" s="50"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C53" s="57" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C54" s="57" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="36" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E55" s="36" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="36" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E56" s="36" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>1780</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>1788</v>
-      </c>
-      <c r="E51" s="52" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C52" s="1" t="s">
-        <v>1783</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>1789</v>
-      </c>
-      <c r="E52" s="52" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="1" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E53" s="52" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
-        <v>1791</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>1796</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C56" s="1" t="s">
-        <v>1793</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>1797</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C57" s="1" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>1798</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C58" s="1" t="s">
-        <v>1795</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>1799</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C60" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C61" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C62" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>1800</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E62" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C63" s="1" t="s">
         <v>1801</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C60" s="1" t="s">
+      <c r="D63" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C64" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>1802</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C61" s="1" t="s">
-        <v>1804</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="52"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52" t="s">
+      <c r="E64" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="52"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="52" t="s">
         <v>1768</v>
       </c>
-      <c r="D63" s="52" t="s">
-        <v>1769</v>
-      </c>
-      <c r="E63" s="52" t="s">
+      <c r="D66" s="58" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E66" s="52" t="s">
         <v>851</v>
       </c>
-      <c r="F63" s="52"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="52"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="52" t="s">
-        <v>1770</v>
-      </c>
-      <c r="D64" s="52" t="s">
-        <v>1771</v>
-      </c>
-      <c r="E64" s="52" t="s">
-        <v>851</v>
-      </c>
-      <c r="F64" s="52"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="53"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C66" s="1" t="s">
-        <v>1806</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>1810</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C67" s="1" t="s">
-        <v>1807</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>1811</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>1814</v>
-      </c>
+      <c r="F66" s="52"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
-        <v>1809</v>
+        <v>1804</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1812</v>
+        <v>1805</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1814</v>
+        <v>851</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
-        <v>1808</v>
+        <v>1849</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1813</v>
+        <v>1850</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1814</v>
+        <v>851</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C70" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>1853</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C71" s="1" t="s">
-        <v>1843</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>1848</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>851</v>
-      </c>
+      <c r="A71" s="56"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
-        <v>1844</v>
+        <v>1823</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1815</v>
+        <v>1828</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>851</v>
@@ -7074,158 +7138,221 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
-        <v>1845</v>
+        <v>1824</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1846</v>
+        <v>1798</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>851</v>
       </c>
     </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C74" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C75" s="1" t="s">
-        <v>1816</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>1817</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="53"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
+    </row>
+    <row r="76" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
-        <v>1818</v>
+        <v>1784</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1847</v>
+        <v>1785</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
-        <v>1820</v>
+        <v>1786</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1819</v>
+        <v>1787</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="1" t="s">
-        <v>1821</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>1822</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>1824</v>
-      </c>
-      <c r="E79" s="1" t="s">
+    <row r="78" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C78" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
-        <v>1823</v>
+        <v>1790</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1825</v>
+        <v>1794</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C81" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
-        <v>1828</v>
+        <v>1793</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1826</v>
+        <v>1796</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
-        <v>1829</v>
+        <v>1792</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1827</v>
+        <v>1797</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C84" s="1" t="s">
-        <v>1830</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>1836</v>
-      </c>
-      <c r="E84" s="1" t="s">
+    <row r="85" spans="1:6" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A85" s="52"/>
+      <c r="B85" s="52" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C85" s="52" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D85" s="52"/>
+      <c r="E85" s="52" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C85" s="1" t="s">
-        <v>1831</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>1837</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C86" s="1" t="s">
-        <v>1832</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>1838</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="F85" s="52"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="58"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="58"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B87" s="1" t="s">
+        <v>1848</v>
+      </c>
       <c r="C87" s="1" t="s">
-        <v>1833</v>
+        <v>1808</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1840</v>
+        <v>1806</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
-        <v>1834</v>
+        <v>1809</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1839</v>
+        <v>1807</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
-        <v>1835</v>
+        <v>1810</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1841</v>
+        <v>1816</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C90" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C91" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C92" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C93" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C94" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>851</v>
       </c>
     </row>
@@ -7283,12 +7410,12 @@
       <c r="B2" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="62" t="s">
         <v>809</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -8783,12 +8910,12 @@
       <c r="B2" s="17" t="s">
         <v>875</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="62" t="s">
         <v>876</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
@@ -8986,7 +9113,7 @@
       <c r="E16" s="17" t="s">
         <v>910</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="64" t="s">
         <v>911</v>
       </c>
     </row>
@@ -9000,7 +9127,7 @@
         <v>913</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="59"/>
+      <c r="F17" s="64"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
@@ -9076,7 +9203,7 @@
       <c r="E23" s="17" t="s">
         <v>851</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="65" t="s">
         <v>925</v>
       </c>
     </row>
@@ -9092,7 +9219,7 @@
       <c r="E24" s="17" t="s">
         <v>851</v>
       </c>
-      <c r="F24" s="60"/>
+      <c r="F24" s="65"/>
     </row>
     <row r="25" spans="1:6" ht="18.350000000000001" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
@@ -9106,7 +9233,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="59" t="s">
         <v>929</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -9124,7 +9251,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
-      <c r="B27" s="54"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="1" t="s">
         <v>933</v>
       </c>
@@ -9140,7 +9267,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
-      <c r="B28" s="54"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="1" t="s">
         <v>935</v>
       </c>
@@ -9156,7 +9283,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
-      <c r="B29" s="54"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="17" t="s">
         <v>937</v>
       </c>
@@ -9170,7 +9297,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
-      <c r="B30" s="54"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="17" t="s">
         <v>939</v>
       </c>
@@ -9184,7 +9311,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
-      <c r="B31" s="54"/>
+      <c r="B31" s="59"/>
       <c r="C31" s="17" t="s">
         <v>941</v>
       </c>
@@ -9796,12 +9923,12 @@
       <c r="B2" s="21" t="s">
         <v>1004</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="62" t="s">
         <v>1005</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F3" s="22"/>
@@ -10042,7 +10169,7 @@
       <c r="E26" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="61" t="s">
+      <c r="F26" s="66" t="s">
         <v>1025</v>
       </c>
       <c r="G26" s="34"/>
@@ -10057,7 +10184,7 @@
       <c r="E27" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="61"/>
+      <c r="F27" s="66"/>
     </row>
     <row r="28" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="24" t="s">
@@ -10069,7 +10196,7 @@
       <c r="E28" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="61"/>
+      <c r="F28" s="66"/>
       <c r="G28" s="34"/>
     </row>
     <row r="29" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
@@ -10082,7 +10209,7 @@
       <c r="E29" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="61"/>
+      <c r="F29" s="66"/>
     </row>
     <row r="30" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="24" t="s">
@@ -10583,12 +10710,12 @@
       <c r="B2" s="21" t="s">
         <v>1064</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="62" t="s">
         <v>1094</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
@@ -10631,7 +10758,7 @@
       <c r="E7" s="24" t="s">
         <v>1072</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="66" t="s">
         <v>1073</v>
       </c>
     </row>
@@ -10645,7 +10772,7 @@
       <c r="E8" s="24" t="s">
         <v>1072</v>
       </c>
-      <c r="F8" s="61"/>
+      <c r="F8" s="66"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="24" t="s">
@@ -10657,7 +10784,7 @@
       <c r="E9" s="24" t="s">
         <v>1072</v>
       </c>
-      <c r="F9" s="61"/>
+      <c r="F9" s="66"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F10" s="42"/>
@@ -10903,12 +11030,12 @@
       <c r="B2" s="21" t="s">
         <v>1093</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="62" t="s">
         <v>1095</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -11345,12 +11472,12 @@
       <c r="B2" s="26" t="s">
         <v>1210</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="62" t="s">
         <v>1209</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -12271,12 +12398,12 @@
       <c r="B2" s="4" t="s">
         <v>1111</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="59" t="s">
         <v>1112</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -12825,12 +12952,12 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -13215,12 +13342,12 @@
       <c r="B2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -14029,12 +14156,12 @@
       <c r="B2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -14228,12 +14355,12 @@
       <c r="B2" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
@@ -14603,7 +14730,7 @@
       <c r="E29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="62" t="s">
         <v>199</v>
       </c>
     </row>
@@ -14619,7 +14746,7 @@
       <c r="E30" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="57"/>
+      <c r="F30" s="62"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
@@ -14633,7 +14760,7 @@
       <c r="E31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="57"/>
+      <c r="F31" s="62"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
@@ -14647,7 +14774,7 @@
       <c r="E32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="57"/>
+      <c r="F32" s="62"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
@@ -14661,7 +14788,7 @@
       <c r="E33" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="57"/>
+      <c r="F33" s="62"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
@@ -14675,7 +14802,7 @@
       <c r="E34" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="57"/>
+      <c r="F34" s="62"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
@@ -14689,7 +14816,7 @@
       <c r="E35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="57"/>
+      <c r="F35" s="62"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
@@ -14703,7 +14830,7 @@
       <c r="E36" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="57"/>
+      <c r="F36" s="62"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
@@ -14717,7 +14844,7 @@
       <c r="E37" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="57"/>
+      <c r="F37" s="62"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
@@ -14731,7 +14858,7 @@
       <c r="E38" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="57"/>
+      <c r="F38" s="62"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
@@ -14745,7 +14872,7 @@
       <c r="E39" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="57"/>
+      <c r="F39" s="62"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
@@ -14759,7 +14886,7 @@
       <c r="E40" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="57"/>
+      <c r="F40" s="62"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
@@ -14773,7 +14900,7 @@
       <c r="E41" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="57"/>
+      <c r="F41" s="62"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
@@ -14787,7 +14914,7 @@
       <c r="E42" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="57"/>
+      <c r="F42" s="62"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
@@ -14801,7 +14928,7 @@
       <c r="E43" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="57"/>
+      <c r="F43" s="62"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
@@ -14815,7 +14942,7 @@
       <c r="E44" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="57"/>
+      <c r="F44" s="62"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
@@ -14829,7 +14956,7 @@
       <c r="E45" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="57"/>
+      <c r="F45" s="62"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
@@ -14843,7 +14970,7 @@
       <c r="E46" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="57"/>
+      <c r="F46" s="62"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
@@ -15375,7 +15502,7 @@
       <c r="E86" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F86" s="57" t="s">
+      <c r="F86" s="62" t="s">
         <v>305</v>
       </c>
     </row>
@@ -15391,7 +15518,7 @@
       <c r="E87" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="57"/>
+      <c r="F87" s="62"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
@@ -15405,7 +15532,7 @@
       <c r="E88" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F88" s="57"/>
+      <c r="F88" s="62"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
@@ -15419,7 +15546,7 @@
       <c r="E89" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="57"/>
+      <c r="F89" s="62"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
@@ -15433,7 +15560,7 @@
       <c r="E90" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F90" s="57"/>
+      <c r="F90" s="62"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
@@ -15447,7 +15574,7 @@
       <c r="E91" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="57"/>
+      <c r="F91" s="62"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
@@ -15461,7 +15588,7 @@
       <c r="E92" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F92" s="57"/>
+      <c r="F92" s="62"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
@@ -15475,7 +15602,7 @@
       <c r="E93" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F93" s="57"/>
+      <c r="F93" s="62"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
@@ -15489,7 +15616,7 @@
       <c r="E94" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F94" s="57"/>
+      <c r="F94" s="62"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
@@ -15503,7 +15630,7 @@
       <c r="E95" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="57"/>
+      <c r="F95" s="62"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
@@ -15517,7 +15644,7 @@
       <c r="E96" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F96" s="57"/>
+      <c r="F96" s="62"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
@@ -15531,7 +15658,7 @@
       <c r="E97" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F97" s="57"/>
+      <c r="F97" s="62"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
@@ -15545,7 +15672,7 @@
       <c r="E98" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F98" s="57"/>
+      <c r="F98" s="62"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
@@ -15559,7 +15686,7 @@
       <c r="E99" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="57"/>
+      <c r="F99" s="62"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
@@ -16234,12 +16361,12 @@
       <c r="B2" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="61" t="s">
         <v>417</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -16254,10 +16381,10 @@
       <c r="B4" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="63" t="s">
         <v>419</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
@@ -16996,12 +17123,12 @@
       <c r="B2" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="62" t="s">
         <v>502</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
@@ -17639,12 +17766,12 @@
       <c r="B2" s="17" t="s">
         <v>585</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="62" t="s">
         <v>586</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
@@ -19245,7 +19372,7 @@
       <c r="E123" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F123" s="57" t="s">
+      <c r="F123" s="62" t="s">
         <v>1097</v>
       </c>
     </row>
@@ -19261,7 +19388,7 @@
       <c r="E124" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F124" s="57"/>
+      <c r="F124" s="62"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
@@ -19312,65 +19439,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="481" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="be21cae339529f0f311ef097f4a87693">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd9e5a0c56088652e9b5d1a36fcd7f8a" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19639,41 +19707,84 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC59F560-844B-432B-8AD6-73714CEDFB96}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
+    <ds:schemaRef ds:uri="d16efad5-0601-4cf0-b7c2-89968258c777"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d16efad5-0601-4cf0-b7c2-89968258c777"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C070FFD4-2B81-40A9-9526-59DD893E6C18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C215EABC-DB34-46B5-A5E5-21478E186E0D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19691,4 +19802,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C070FFD4-2B81-40A9-9526-59DD893E6C18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/Shared Resources/Code/DHS-Indicators-Stata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33697\ICF\Analysis - Shared Resources\Code\DHS-Indicators-Stata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="114_{22754351-CA54-4CBF-B6F8-81EF17E18C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{37CF286A-E4CE-4446-9BC5-C336C19BC9E4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB928E38-4282-43C6-806C-7944B958E23F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="690" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="690" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CH2PH" sheetId="17" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="CH15WE" sheetId="13" r:id="rId14"/>
     <sheet name="CH16AM" sheetId="14" r:id="rId15"/>
     <sheet name="CH17DV" sheetId="15" r:id="rId16"/>
+    <sheet name="CH18FG" sheetId="18" r:id="rId17"/>
+    <sheet name="CH19FS" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="1885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3384" uniqueCount="1938">
   <si>
     <t>Chapter</t>
   </si>
@@ -2979,9 +2984,6 @@
     <t>"Have two or more sexual partners in the past 12 months and used a condom at last sex"</t>
   </si>
   <si>
-    <t>"Used a condom at last sex with a partner that is not their spouce and does not live with them in the past 12 months"</t>
-  </si>
-  <si>
     <t>hk_paid_sex_12mo</t>
   </si>
   <si>
@@ -5040,9 +5042,6 @@
     <t xml:space="preserve">Main file for the women's empowerment chapter. The main file will call the do files listed below and the WE_tables.do file not listed here. The tables do file will produce excel tables of the indicators. Some of the do files will also produce tables as indicated in the notes below. Please check for country specific variations. </t>
   </si>
   <si>
-    <t>!Dvmain</t>
-  </si>
-  <si>
     <t xml:space="preserve">Main file for the domestic violence chapter. The main file will call the do files listed below and the DV_tables.do file not listed here. The tables do file will produce excel tables of the indicators. Some of the do files will also produce tables as indicated in the notes below. Please check for country specific variations. </t>
   </si>
   <si>
@@ -5701,6 +5700,171 @@
   </si>
   <si>
     <t>"Crude birth rate - Rural"</t>
+  </si>
+  <si>
+    <t>"Used a condom at last sex with a partner that is not their spouse and does not live with them in the past 12 months"</t>
+  </si>
+  <si>
+    <t>!DVmain</t>
+  </si>
+  <si>
+    <t>Female Genital Cutting</t>
+  </si>
+  <si>
+    <t>!FGmain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main file for the female genital cutting chapter. The main file will call the do files listed below and the FG_tables.do file not listed here. The tables do file will produce excel tables of the indicators. Some of the do files will also produce tables as indicated in the notes below. Please check for country specific variations. </t>
+  </si>
+  <si>
+    <t>"Heard of female circumcision"</t>
+  </si>
+  <si>
+    <t>"Circumcised among women age 15-49"</t>
+  </si>
+  <si>
+    <t>IR and BR</t>
+  </si>
+  <si>
+    <t>fg_fcircum_wm</t>
+  </si>
+  <si>
+    <t>"Age at circumcision among girls age 0-14"</t>
+  </si>
+  <si>
+    <t>"Age at circumcision among women age 15-49"</t>
+  </si>
+  <si>
+    <t>"Type of female circumcision among women age 15-49"</t>
+  </si>
+  <si>
+    <t>"Person who performed the circumcision among women age 15-49"</t>
+  </si>
+  <si>
+    <t>"Person who performed the circumcision among girls age 0-14"</t>
+  </si>
+  <si>
+    <t>Fistula</t>
+  </si>
+  <si>
+    <t>!FSmain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main file for the fistula chapter. The main file will call the do files listed below and the FS_tables.do file not listed here. The tables do file will produce excel tables of the indicators. Some of the do files will also produce tables as indicated in the notes below. Please check for country specific variations. </t>
+  </si>
+  <si>
+    <t>fs_heard</t>
+  </si>
+  <si>
+    <t>fg_heard</t>
+  </si>
+  <si>
+    <t>fg_type_wm</t>
+  </si>
+  <si>
+    <t>fg_age_wm</t>
+  </si>
+  <si>
+    <t>fg_who_wm</t>
+  </si>
+  <si>
+    <t>fg_relig</t>
+  </si>
+  <si>
+    <t>fg_cont</t>
+  </si>
+  <si>
+    <t>"Ever heard of fistula"</t>
+  </si>
+  <si>
+    <t>fs_ever_exp</t>
+  </si>
+  <si>
+    <t>"Ever experienced fistula"</t>
+  </si>
+  <si>
+    <t>fs_current</t>
+  </si>
+  <si>
+    <t>"Currently have fistula"</t>
+  </si>
+  <si>
+    <t>fs_cause</t>
+  </si>
+  <si>
+    <t>"Reported cause of fistula"</t>
+  </si>
+  <si>
+    <t>fs_days_symp</t>
+  </si>
+  <si>
+    <t>"Reported number of days since symptoms began"</t>
+  </si>
+  <si>
+    <t>fs_trt_provid</t>
+  </si>
+  <si>
+    <t>"Provider type among those who sought treatment for fistula"</t>
+  </si>
+  <si>
+    <t>fs_notrt</t>
+  </si>
+  <si>
+    <t>"Did not seek treatmeent for fistula"</t>
+  </si>
+  <si>
+    <t>fs_trt_outcome</t>
+  </si>
+  <si>
+    <t>"Outcome of treatment sought for fistula"</t>
+  </si>
+  <si>
+    <t>fs_trt_operat</t>
+  </si>
+  <si>
+    <t>"Had operation for fistula"</t>
+  </si>
+  <si>
+    <t>fs_notrt_reason</t>
+  </si>
+  <si>
+    <t>"Reason for not seeking treatment"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Opinion on whether female circumcision is required by their religion" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Opinion on whether female circumcision should continue" </t>
+  </si>
+  <si>
+    <t>fg_fcircum_gl</t>
+  </si>
+  <si>
+    <t>fg_age_gl</t>
+  </si>
+  <si>
+    <t>fg_who_gl</t>
+  </si>
+  <si>
+    <t>fg_sewn_wm</t>
+  </si>
+  <si>
+    <t>FG_CIRCUM.do</t>
+  </si>
+  <si>
+    <t>FG_GIRLS</t>
+  </si>
+  <si>
+    <t>"Circumcised among girls age 0-14"</t>
+  </si>
+  <si>
+    <t>fg_sewn_gl</t>
+  </si>
+  <si>
+    <t>"Female circumcision type is sewn closed among women age 15-49"</t>
+  </si>
+  <si>
+    <t>"Female circumcision type is sewn closed among girls age 0-14"</t>
   </si>
 </sst>
 </file>
@@ -5790,7 +5954,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5806,6 +5970,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5831,7 +6001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5992,6 +6162,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6335,17 +6509,17 @@
     </row>
     <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C2" s="62" t="s">
         <v>1636</v>
       </c>
-      <c r="C2" s="60" t="s">
-        <v>1637</v>
-      </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -6358,16 +6532,16 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="49"/>
       <c r="B4" s="49" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E4" s="49" t="s">
         <v>1490</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>1492</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>1491</v>
       </c>
       <c r="F4" s="49"/>
     </row>
@@ -6375,13 +6549,13 @@
       <c r="A5" s="49"/>
       <c r="B5" s="49"/>
       <c r="C5" s="49" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F5" s="49"/>
     </row>
@@ -6389,13 +6563,13 @@
       <c r="A6" s="49"/>
       <c r="B6" s="49"/>
       <c r="C6" s="49" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F6" s="49"/>
     </row>
@@ -6403,13 +6577,13 @@
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>1615</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>1616</v>
-      </c>
       <c r="E7" s="35" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F7" s="35"/>
     </row>
@@ -6417,13 +6591,13 @@
       <c r="A8" s="49"/>
       <c r="B8" s="49"/>
       <c r="C8" s="49" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F8" s="49"/>
     </row>
@@ -6431,13 +6605,13 @@
       <c r="A9" s="49"/>
       <c r="B9" s="49"/>
       <c r="C9" s="49" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F9" s="49"/>
     </row>
@@ -6445,13 +6619,13 @@
       <c r="A10" s="49"/>
       <c r="B10" s="49"/>
       <c r="C10" s="49" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F10" s="49"/>
     </row>
@@ -6459,13 +6633,13 @@
       <c r="A11" s="49"/>
       <c r="B11" s="49"/>
       <c r="C11" s="49" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F11" s="49"/>
     </row>
@@ -6473,13 +6647,13 @@
       <c r="A12" s="49"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E12" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F12" s="49"/>
     </row>
@@ -6487,13 +6661,13 @@
       <c r="A13" s="49"/>
       <c r="B13" s="49"/>
       <c r="C13" s="49" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F13" s="49"/>
     </row>
@@ -6501,13 +6675,13 @@
       <c r="A14" s="49"/>
       <c r="B14" s="49"/>
       <c r="C14" s="49" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F14" s="49"/>
     </row>
@@ -6515,13 +6689,13 @@
       <c r="A15" s="49"/>
       <c r="B15" s="49"/>
       <c r="C15" s="49" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F15" s="49"/>
     </row>
@@ -6529,13 +6703,13 @@
       <c r="A16" s="49"/>
       <c r="B16" s="49"/>
       <c r="C16" s="49" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D16" s="49" t="s">
         <v>1507</v>
       </c>
-      <c r="D16" s="49" t="s">
-        <v>1508</v>
-      </c>
       <c r="E16" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F16" s="49"/>
     </row>
@@ -6550,16 +6724,16 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="49"/>
       <c r="B18" s="49" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F18" s="49"/>
     </row>
@@ -6567,13 +6741,13 @@
       <c r="A19" s="49"/>
       <c r="B19" s="49"/>
       <c r="C19" s="49" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F19" s="49"/>
     </row>
@@ -6581,13 +6755,13 @@
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F20" s="35"/>
     </row>
@@ -6595,13 +6769,13 @@
       <c r="A21" s="49"/>
       <c r="B21" s="49"/>
       <c r="C21" s="49" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F21" s="49"/>
     </row>
@@ -6616,16 +6790,16 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="49"/>
       <c r="B23" s="49" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C23" s="49" t="s">
         <v>1512</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="D23" s="49" t="s">
         <v>1513</v>
       </c>
-      <c r="D23" s="49" t="s">
-        <v>1514</v>
-      </c>
       <c r="E23" s="49" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F23" s="49"/>
     </row>
@@ -6633,13 +6807,13 @@
       <c r="A24" s="49"/>
       <c r="B24" s="49"/>
       <c r="C24" s="49" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D24" s="49" t="s">
         <v>1515</v>
       </c>
-      <c r="D24" s="49" t="s">
-        <v>1516</v>
-      </c>
       <c r="E24" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F24" s="49"/>
     </row>
@@ -6647,13 +6821,13 @@
       <c r="A25" s="49"/>
       <c r="B25" s="49"/>
       <c r="C25" s="49" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D25" s="49" t="s">
         <v>1517</v>
       </c>
-      <c r="D25" s="49" t="s">
-        <v>1518</v>
-      </c>
       <c r="E25" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F25" s="49"/>
     </row>
@@ -6661,13 +6835,13 @@
       <c r="A26" s="49"/>
       <c r="B26" s="49"/>
       <c r="C26" s="49" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F26" s="49"/>
     </row>
@@ -6675,13 +6849,13 @@
       <c r="A27" s="49"/>
       <c r="B27" s="49"/>
       <c r="C27" s="49" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D27" s="49" t="s">
         <v>1521</v>
       </c>
-      <c r="D27" s="49" t="s">
-        <v>1522</v>
-      </c>
       <c r="E27" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F27" s="49"/>
     </row>
@@ -6689,13 +6863,13 @@
       <c r="A28" s="49"/>
       <c r="B28" s="49"/>
       <c r="C28" s="49" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D28" s="49" t="s">
         <v>1523</v>
       </c>
-      <c r="D28" s="49" t="s">
-        <v>1524</v>
-      </c>
       <c r="E28" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F28" s="49"/>
     </row>
@@ -6703,13 +6877,13 @@
       <c r="A29" s="49"/>
       <c r="B29" s="49"/>
       <c r="C29" s="49" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D29" s="49" t="s">
         <v>1525</v>
       </c>
-      <c r="D29" s="49" t="s">
-        <v>1526</v>
-      </c>
       <c r="E29" s="51" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F29" s="49"/>
     </row>
@@ -6725,10 +6899,10 @@
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E31" s="51" t="s">
         <v>825</v>
@@ -6739,10 +6913,10 @@
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E32" s="51" t="s">
         <v>825</v>
@@ -6753,10 +6927,10 @@
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E33" s="51" t="s">
         <v>825</v>
@@ -6767,10 +6941,10 @@
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E34" s="51" t="s">
         <v>825</v>
@@ -6781,10 +6955,10 @@
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E35" s="51" t="s">
         <v>825</v>
@@ -6795,10 +6969,10 @@
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
       <c r="C36" s="49" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E36" s="51" t="s">
         <v>825</v>
@@ -6809,10 +6983,10 @@
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E37" s="51" t="s">
         <v>825</v>
@@ -6823,10 +6997,10 @@
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="E38" s="51" t="s">
         <v>825</v>
@@ -6837,10 +7011,10 @@
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E39" s="51" t="s">
         <v>825</v>
@@ -6851,10 +7025,10 @@
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D40" s="51" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E40" s="51" t="s">
         <v>825</v>
@@ -6865,10 +7039,10 @@
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D41" s="51" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E41" s="51" t="s">
         <v>825</v>
@@ -6879,10 +7053,10 @@
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D42" s="51" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E42" s="51" t="s">
         <v>825</v>
@@ -6893,10 +7067,10 @@
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D43" s="51" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E43" s="51" t="s">
         <v>825</v>
@@ -6915,13 +7089,13 @@
       <c r="A45" s="49"/>
       <c r="B45" s="49"/>
       <c r="C45" s="49" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D45" s="49" t="s">
         <v>1527</v>
       </c>
-      <c r="D45" s="49" t="s">
-        <v>1528</v>
-      </c>
       <c r="E45" s="49" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F45" s="49"/>
     </row>
@@ -6936,16 +7110,16 @@
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="49"/>
       <c r="B47" s="49" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D47" s="49" t="s">
         <v>1555</v>
       </c>
-      <c r="C47" s="49" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D47" s="49" t="s">
-        <v>1556</v>
-      </c>
       <c r="E47" s="35" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F47" s="49"/>
     </row>
@@ -6953,13 +7127,13 @@
       <c r="A48" s="49"/>
       <c r="B48" s="49"/>
       <c r="C48" s="49" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D48" s="49" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F48" s="49"/>
     </row>
@@ -6967,13 +7141,13 @@
       <c r="A49" s="49"/>
       <c r="B49" s="49"/>
       <c r="C49" s="35" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="D49" s="49" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F49" s="49"/>
     </row>
@@ -6981,69 +7155,69 @@
       <c r="A50" s="49"/>
       <c r="B50" s="49"/>
       <c r="C50" s="35" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F50" s="49"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C51" s="54" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C52" s="54" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C53" s="35" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C54" s="35" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B56" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>1562</v>
-      </c>
       <c r="D56" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>805</v>
@@ -7051,10 +7225,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C57" s="1" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>805</v>
@@ -7062,10 +7236,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C58" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>805</v>
@@ -7073,10 +7247,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C59" s="1" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>805</v>
@@ -7084,10 +7258,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C60" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>1585</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>1586</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>805</v>
@@ -7095,10 +7269,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C61" s="1" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>805</v>
@@ -7106,10 +7280,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C62" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>805</v>
@@ -7119,10 +7293,10 @@
       <c r="A64" s="51"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D64" s="55" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="E64" s="51" t="s">
         <v>805</v>
@@ -7131,10 +7305,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C66" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>1590</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>1591</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>805</v>
@@ -7142,30 +7316,30 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C67" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>805</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C68" s="1" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>805</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -7178,10 +7352,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C70" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>805</v>
@@ -7189,10 +7363,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C71" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>805</v>
@@ -7200,10 +7374,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C72" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>1611</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>1612</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>805</v>
@@ -7219,10 +7393,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C74" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>1570</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>1571</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>805</v>
@@ -7230,10 +7404,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C75" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>1572</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>1573</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>805</v>
@@ -7241,10 +7415,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C76" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>1574</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>1575</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>805</v>
@@ -7252,10 +7426,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C78" s="1" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>805</v>
@@ -7263,10 +7437,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C79" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>805</v>
@@ -7274,10 +7448,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C80" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>805</v>
@@ -7285,10 +7459,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C81" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>805</v>
@@ -7297,10 +7471,10 @@
     <row r="83" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="51"/>
       <c r="B83" s="51" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C83" s="51" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D83" s="51"/>
       <c r="E83" s="51" t="s">
@@ -7318,13 +7492,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B85" s="1" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>805</v>
@@ -7332,10 +7506,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C86" s="1" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>805</v>
@@ -7343,10 +7517,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C87" s="1" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>805</v>
@@ -7354,10 +7528,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C88" s="1" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>805</v>
@@ -7365,10 +7539,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C89" s="1" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>805</v>
@@ -7376,10 +7550,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C90" s="1" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>805</v>
@@ -7387,10 +7561,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C91" s="1" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>805</v>
@@ -7398,10 +7572,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C92" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>805</v>
@@ -7456,17 +7630,17 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>1654</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>1655</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
@@ -7538,10 +7712,10 @@
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D8" s="44" t="s">
         <v>1382</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>1383</v>
       </c>
       <c r="E8" s="44" t="s">
         <v>73</v>
@@ -7669,7 +7843,7 @@
         <v>797</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>767</v>
@@ -7683,7 +7857,7 @@
         <v>798</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>767</v>
@@ -7697,7 +7871,7 @@
         <v>799</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>767</v>
@@ -7711,7 +7885,7 @@
         <v>800</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>767</v>
@@ -7725,7 +7899,7 @@
         <v>801</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>802</v>
@@ -7736,10 +7910,10 @@
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>767</v>
@@ -7749,10 +7923,10 @@
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>767</v>
@@ -7770,7 +7944,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>774</v>
@@ -7851,7 +8025,7 @@
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>784</v>
@@ -7865,7 +8039,7 @@
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>785</v>
@@ -7879,7 +8053,7 @@
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>786</v>
@@ -7901,10 +8075,10 @@
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>767</v>
@@ -7915,10 +8089,10 @@
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>767</v>
@@ -7929,10 +8103,10 @@
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>767</v>
@@ -7943,10 +8117,10 @@
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>767</v>
@@ -7957,10 +8131,10 @@
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>767</v>
@@ -7971,10 +8145,10 @@
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>767</v>
@@ -7985,10 +8159,10 @@
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>767</v>
@@ -7999,10 +8173,10 @@
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>767</v>
@@ -8013,10 +8187,10 @@
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>767</v>
@@ -8027,10 +8201,10 @@
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>767</v>
@@ -8041,10 +8215,10 @@
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>767</v>
@@ -8054,10 +8228,10 @@
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>767</v>
@@ -8067,10 +8241,10 @@
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>767</v>
@@ -8089,10 +8263,10 @@
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>767</v>
@@ -8104,10 +8278,10 @@
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>767</v>
@@ -8119,10 +8293,10 @@
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>767</v>
@@ -8134,10 +8308,10 @@
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>767</v>
@@ -8157,10 +8331,10 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="17"/>
       <c r="C54" s="17" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>767</v>
@@ -8172,10 +8346,10 @@
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>767</v>
@@ -8196,7 +8370,7 @@
         <v>803</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>804</v>
@@ -8210,7 +8384,7 @@
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>806</v>
@@ -8224,7 +8398,7 @@
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>807</v>
@@ -8240,7 +8414,7 @@
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>808</v>
@@ -8253,7 +8427,7 @@
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>809</v>
@@ -8267,10 +8441,10 @@
       <c r="A62" s="31"/>
       <c r="B62" s="31"/>
       <c r="C62" s="46" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D62" s="47" t="s">
         <v>1470</v>
-      </c>
-      <c r="D62" s="47" t="s">
-        <v>1471</v>
       </c>
       <c r="E62" s="46" t="s">
         <v>805</v>
@@ -8281,7 +8455,7 @@
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="46" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D63" s="46" t="s">
         <v>810</v>
@@ -8297,7 +8471,7 @@
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="46" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D64" s="46" t="s">
         <v>811</v>
@@ -8311,7 +8485,7 @@
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="46" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D65" s="46" t="s">
         <v>812</v>
@@ -8325,10 +8499,10 @@
       <c r="A66" s="31"/>
       <c r="B66" s="31"/>
       <c r="C66" s="46" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D66" s="47" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E66" s="46" t="s">
         <v>805</v>
@@ -8339,7 +8513,7 @@
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>813</v>
@@ -8443,10 +8617,10 @@
       <c r="A75" s="17"/>
       <c r="B75" s="17"/>
       <c r="C75" s="17" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D75" s="17" t="s">
         <v>1472</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>1473</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>825</v>
@@ -8464,13 +8638,13 @@
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="48"/>
       <c r="B77" s="17" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C77" s="48" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D77" s="48" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="E77" s="48" t="s">
         <v>14</v>
@@ -8481,10 +8655,10 @@
       <c r="A78" s="48"/>
       <c r="B78" s="48"/>
       <c r="C78" s="48" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D78" s="48" t="s">
         <v>1474</v>
-      </c>
-      <c r="D78" s="48" t="s">
-        <v>1475</v>
       </c>
       <c r="E78" s="48" t="s">
         <v>14</v>
@@ -8495,10 +8669,10 @@
       <c r="A79" s="48"/>
       <c r="B79" s="48"/>
       <c r="C79" s="48" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D79" s="48" t="s">
         <v>1476</v>
-      </c>
-      <c r="D79" s="48" t="s">
-        <v>1477</v>
       </c>
       <c r="E79" s="48" t="s">
         <v>14</v>
@@ -8509,10 +8683,10 @@
       <c r="A80" s="48"/>
       <c r="B80" s="48"/>
       <c r="C80" s="48" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D80" s="48" t="s">
         <v>1478</v>
-      </c>
-      <c r="D80" s="48" t="s">
-        <v>1479</v>
       </c>
       <c r="E80" s="48" t="s">
         <v>14</v>
@@ -8531,10 +8705,10 @@
       <c r="A82" s="48"/>
       <c r="B82" s="48"/>
       <c r="C82" s="48" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D82" s="48" t="s">
         <v>1482</v>
-      </c>
-      <c r="D82" s="48" t="s">
-        <v>1483</v>
       </c>
       <c r="E82" s="48" t="s">
         <v>14</v>
@@ -8545,10 +8719,10 @@
       <c r="A83" s="17"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>14</v>
@@ -8560,10 +8734,10 @@
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="17"/>
       <c r="C84" s="17" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>14</v>
@@ -8574,10 +8748,10 @@
       <c r="A85" s="17"/>
       <c r="B85" s="17"/>
       <c r="C85" s="17" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E85" s="17" t="s">
         <v>14</v>
@@ -8588,10 +8762,10 @@
       <c r="A86" s="17"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E86" s="17" t="s">
         <v>14</v>
@@ -8602,10 +8776,10 @@
       <c r="A87" s="17"/>
       <c r="B87" s="17"/>
       <c r="C87" s="17" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E87" s="17" t="s">
         <v>14</v>
@@ -8616,10 +8790,10 @@
       <c r="A88" s="17"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E88" s="17" t="s">
         <v>14</v>
@@ -8630,10 +8804,10 @@
       <c r="A89" s="17"/>
       <c r="B89" s="17"/>
       <c r="C89" s="17" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E89" s="17" t="s">
         <v>14</v>
@@ -8644,10 +8818,10 @@
       <c r="A90" s="17"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>14</v>
@@ -8658,7 +8832,7 @@
       <c r="A91" s="17"/>
       <c r="B91" s="17"/>
       <c r="C91" s="17" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>826</v>
@@ -8672,7 +8846,7 @@
       <c r="A92" s="17"/>
       <c r="B92" s="17"/>
       <c r="C92" s="17" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>827</v>
@@ -8686,10 +8860,10 @@
       <c r="A93" s="17"/>
       <c r="B93" s="17"/>
       <c r="C93" s="48" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="D93" s="48" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E93" s="48" t="s">
         <v>828</v>
@@ -8707,13 +8881,13 @@
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E95" s="17" t="s">
         <v>19</v>
@@ -8724,10 +8898,10 @@
       <c r="A96" s="17"/>
       <c r="B96" s="17"/>
       <c r="C96" s="17" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E96" s="17" t="s">
         <v>19</v>
@@ -8740,10 +8914,10 @@
       <c r="A97" s="17"/>
       <c r="B97" s="17"/>
       <c r="C97" s="17" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E97" s="17" t="s">
         <v>19</v>
@@ -8754,10 +8928,10 @@
       <c r="A98" s="17"/>
       <c r="B98" s="17"/>
       <c r="C98" s="17" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E98" s="17" t="s">
         <v>19</v>
@@ -8768,10 +8942,10 @@
       <c r="A99" s="17"/>
       <c r="B99" s="17"/>
       <c r="C99" s="17" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E99" s="17" t="s">
         <v>19</v>
@@ -8782,10 +8956,10 @@
       <c r="A100" s="17"/>
       <c r="B100" s="17"/>
       <c r="C100" s="17" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E100" s="17" t="s">
         <v>19</v>
@@ -8796,10 +8970,10 @@
       <c r="A101" s="17"/>
       <c r="B101" s="17"/>
       <c r="C101" s="17" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E101" s="17" t="s">
         <v>19</v>
@@ -8810,10 +8984,10 @@
       <c r="A102" s="17"/>
       <c r="B102" s="17"/>
       <c r="C102" s="17" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E102" s="17" t="s">
         <v>19</v>
@@ -8824,10 +8998,10 @@
       <c r="A103" s="17"/>
       <c r="B103" s="17"/>
       <c r="C103" s="17" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E103" s="17" t="s">
         <v>19</v>
@@ -8956,17 +9130,17 @@
     </row>
     <row r="2" spans="1:6" ht="38.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>1656</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
@@ -9164,7 +9338,7 @@
       <c r="E16" s="17" t="s">
         <v>862</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="67" t="s">
         <v>863</v>
       </c>
     </row>
@@ -9178,7 +9352,7 @@
         <v>865</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="65"/>
+      <c r="F17" s="67"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
@@ -9187,7 +9361,7 @@
         <v>866</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="20"/>
@@ -9254,7 +9428,7 @@
       <c r="E23" s="17" t="s">
         <v>805</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="68" t="s">
         <v>876</v>
       </c>
     </row>
@@ -9270,7 +9444,7 @@
       <c r="E24" s="17" t="s">
         <v>805</v>
       </c>
-      <c r="F24" s="66"/>
+      <c r="F24" s="68"/>
     </row>
     <row r="25" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
@@ -9284,7 +9458,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="62" t="s">
         <v>880</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -9302,7 +9476,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="17"/>
-      <c r="B27" s="60"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="1" t="s">
         <v>884</v>
       </c>
@@ -9318,7 +9492,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
-      <c r="B28" s="60"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="1" t="s">
         <v>886</v>
       </c>
@@ -9334,7 +9508,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="17"/>
-      <c r="B29" s="60"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="17" t="s">
         <v>888</v>
       </c>
@@ -9348,7 +9522,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
-      <c r="B30" s="60"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="17" t="s">
         <v>890</v>
       </c>
@@ -9362,7 +9536,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="17"/>
-      <c r="B31" s="60"/>
+      <c r="B31" s="62"/>
       <c r="C31" s="17" t="s">
         <v>892</v>
       </c>
@@ -9933,8 +10107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+    <sheetView topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9969,17 +10143,17 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>1658</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>1659</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F3" s="22"/>
@@ -9989,7 +10163,7 @@
     </row>
     <row r="5" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>955</v>
@@ -10004,7 +10178,7 @@
     </row>
     <row r="6" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C6" s="24" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>959</v>
@@ -10016,7 +10190,7 @@
     </row>
     <row r="7" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C7" s="24" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>957</v>
@@ -10028,7 +10202,7 @@
     </row>
     <row r="8" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C8" s="24" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>958</v>
@@ -10040,7 +10214,7 @@
     </row>
     <row r="9" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C9" s="24" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>960</v>
@@ -10052,7 +10226,7 @@
     </row>
     <row r="10" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C10" s="24" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>961</v>
@@ -10064,7 +10238,7 @@
     </row>
     <row r="11" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C11" s="24" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>962</v>
@@ -10076,7 +10250,7 @@
     </row>
     <row r="12" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C12" s="24" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>963</v>
@@ -10088,7 +10262,7 @@
     </row>
     <row r="13" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C13" s="24" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>964</v>
@@ -10100,7 +10274,7 @@
     </row>
     <row r="14" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C14" s="24" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>965</v>
@@ -10113,10 +10287,10 @@
     <row r="15" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C16" s="24" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>9</v>
@@ -10125,7 +10299,7 @@
     </row>
     <row r="17" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C17" s="24" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>966</v>
@@ -10136,7 +10310,7 @@
     </row>
     <row r="18" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C18" s="24" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>967</v>
@@ -10147,7 +10321,7 @@
     </row>
     <row r="19" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C19" s="24" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>968</v>
@@ -10158,7 +10332,7 @@
     </row>
     <row r="20" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C20" s="24" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>969</v>
@@ -10170,7 +10344,7 @@
     <row r="21" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C22" s="24" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>970</v>
@@ -10182,7 +10356,7 @@
     </row>
     <row r="23" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C23" s="24" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>971</v>
@@ -10194,7 +10368,7 @@
     </row>
     <row r="24" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C24" s="24" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>972</v>
@@ -10209,10 +10383,10 @@
     </row>
     <row r="26" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B26" s="24" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>1285</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>1286</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>973</v>
@@ -10220,14 +10394,14 @@
       <c r="E26" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="67" t="s">
+      <c r="F26" s="69" t="s">
         <v>974</v>
       </c>
       <c r="G26" s="33"/>
     </row>
     <row r="27" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C27" s="24" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>975</v>
@@ -10235,11 +10409,11 @@
       <c r="E27" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="67"/>
+      <c r="F27" s="69"/>
     </row>
     <row r="28" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C28" s="24" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>976</v>
@@ -10247,27 +10421,27 @@
       <c r="E28" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="67"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="33"/>
     </row>
     <row r="29" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C29" s="24" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>977</v>
+        <v>1883</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="67"/>
+      <c r="F29" s="69"/>
     </row>
     <row r="30" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C30" s="24" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D30" s="24" t="s">
         <v>1298</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>1299</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>9</v>
@@ -10281,10 +10455,10 @@
     </row>
     <row r="32" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C32" s="24" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>19</v>
@@ -10294,10 +10468,10 @@
     </row>
     <row r="33" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C33" s="24" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>19</v>
@@ -10306,10 +10480,10 @@
     </row>
     <row r="34" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C34" s="24" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>19</v>
@@ -10321,13 +10495,13 @@
     </row>
     <row r="36" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="24" t="s">
+        <v>982</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>983</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="D36" s="24" t="s">
         <v>984</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>985</v>
       </c>
       <c r="E36" s="24" t="s">
         <v>9</v>
@@ -10336,10 +10510,10 @@
     </row>
     <row r="37" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C37" s="24" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E37" s="24" t="s">
         <v>9</v>
@@ -10349,10 +10523,10 @@
     </row>
     <row r="38" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C38" s="24" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>9</v>
@@ -10361,10 +10535,10 @@
     </row>
     <row r="39" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C39" s="24" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>9</v>
@@ -10377,10 +10551,10 @@
     </row>
     <row r="41" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C41" s="24" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>14</v>
@@ -10389,10 +10563,10 @@
     </row>
     <row r="42" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C42" s="24" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>14</v>
@@ -10401,28 +10575,28 @@
     </row>
     <row r="43" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C43" s="24" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F43" s="38"/>
     </row>
     <row r="44" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C44" s="24" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F44" s="38"/>
     </row>
     <row r="45" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C45" s="24" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>14</v>
@@ -10431,10 +10605,10 @@
     </row>
     <row r="46" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C46" s="24" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E46" s="24" t="s">
         <v>14</v>
@@ -10443,19 +10617,19 @@
     </row>
     <row r="47" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C47" s="24" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F47" s="22"/>
     </row>
     <row r="48" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C48" s="24" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>9</v>
@@ -10464,10 +10638,10 @@
     </row>
     <row r="49" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C49" s="24" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D49" s="24" t="s">
         <v>1006</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>1007</v>
       </c>
       <c r="E49" s="24" t="s">
         <v>9</v>
@@ -10479,13 +10653,13 @@
     </row>
     <row r="51" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51" s="24" t="s">
+        <v>991</v>
+      </c>
+      <c r="C51" s="24" t="s">
         <v>992</v>
       </c>
-      <c r="C51" s="24" t="s">
-        <v>993</v>
-      </c>
       <c r="D51" s="24" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E51" s="24" t="s">
         <v>19</v>
@@ -10494,10 +10668,10 @@
     </row>
     <row r="52" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C52" s="40" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E52" s="24" t="s">
         <v>19</v>
@@ -10510,13 +10684,13 @@
     </row>
     <row r="54" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B54" s="24" t="s">
+        <v>994</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>995</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="D54" s="24" t="s">
         <v>996</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>997</v>
       </c>
       <c r="E54" s="24" t="s">
         <v>9</v>
@@ -10525,10 +10699,10 @@
     </row>
     <row r="55" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C55" s="24" t="s">
+        <v>997</v>
+      </c>
+      <c r="D55" s="24" t="s">
         <v>998</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>999</v>
       </c>
       <c r="E55" s="24" t="s">
         <v>9</v>
@@ -10537,10 +10711,10 @@
     </row>
     <row r="56" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C56" s="24" t="s">
+        <v>999</v>
+      </c>
+      <c r="D56" s="24" t="s">
         <v>1000</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>1001</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>9</v>
@@ -10549,10 +10723,10 @@
     </row>
     <row r="57" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C57" s="24" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D57" s="24" t="s">
         <v>1002</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>1003</v>
       </c>
       <c r="E57" s="24" t="s">
         <v>9</v>
@@ -10561,10 +10735,10 @@
     </row>
     <row r="58" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C58" s="24" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E58" s="24" t="s">
         <v>9</v>
@@ -10574,28 +10748,28 @@
     </row>
     <row r="59" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C59" s="24" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F59" s="22"/>
     </row>
     <row r="60" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C60" s="24" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F60" s="39"/>
     </row>
     <row r="61" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C61" s="24" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D61" s="24" t="s">
         <v>1312</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>1313</v>
       </c>
       <c r="F61" s="39"/>
     </row>
@@ -10607,13 +10781,13 @@
     </row>
     <row r="64" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="24" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D64" s="24" t="s">
         <v>1008</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>1009</v>
       </c>
       <c r="E64" s="24" t="s">
         <v>9</v>
@@ -10623,10 +10797,10 @@
     </row>
     <row r="65" spans="3:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C65" s="24" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E65" s="24" t="s">
         <v>9</v>
@@ -10635,10 +10809,10 @@
     </row>
     <row r="66" spans="3:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C66" s="24" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E66" s="24" t="s">
         <v>9</v>
@@ -10647,10 +10821,10 @@
     </row>
     <row r="67" spans="3:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C67" s="24" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E67" s="24" t="s">
         <v>9</v>
@@ -10719,8 +10893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10756,147 +10930,147 @@
     </row>
     <row r="2" spans="1:6" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>1660</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>1661</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="24" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>1013</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>1014</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>1015</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>1017</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="D6" s="24" t="s">
         <v>1018</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="E6" s="24" t="s">
         <v>1019</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="F6" s="22" t="s">
         <v>1020</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="24" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>1022</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>1023</v>
-      </c>
       <c r="E7" s="24" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F7" s="69" t="s">
         <v>1020</v>
-      </c>
-      <c r="F7" s="67" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" s="24" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>1024</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>1025</v>
-      </c>
       <c r="E8" s="24" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F8" s="67"/>
+        <v>1019</v>
+      </c>
+      <c r="F8" s="69"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" s="24" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>1026</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>1027</v>
-      </c>
       <c r="E9" s="24" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F9" s="67"/>
+        <v>1019</v>
+      </c>
+      <c r="F9" s="69"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F10" s="41"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" s="24" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F11" s="41"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C12" s="24" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" s="24" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" s="24" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F14" s="41"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" s="24" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F15" s="41"/>
     </row>
@@ -10905,61 +11079,61 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C17" s="24" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>1330</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>1331</v>
-      </c>
       <c r="E17" s="24" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F17" s="42"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C18" s="24" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F18" s="42"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C19" s="24" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F19" s="42"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C20" s="24" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F20" s="42"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C21" s="24" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F21" s="42"/>
     </row>
@@ -10968,13 +11142,13 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C23" s="24" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>1038</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="E23" s="24" t="s">
         <v>1039</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
@@ -10982,49 +11156,49 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="24" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>1028</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="D26" s="24" t="s">
         <v>1029</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="E26" s="24" t="s">
         <v>1030</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C27" s="24" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>1032</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>1033</v>
-      </c>
       <c r="E27" s="24" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C28" s="24" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C29" s="24" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D29" s="24" t="s">
         <v>1036</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>1037</v>
-      </c>
       <c r="E29" s="24" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
@@ -11076,27 +11250,27 @@
     </row>
     <row r="2" spans="1:6" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>1662</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C4" s="26" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>1091</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>1092</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>9</v>
@@ -11104,10 +11278,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C5" s="26" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>1093</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>1094</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>9</v>
@@ -11115,10 +11289,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D6" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -11126,10 +11300,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D7" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -11137,10 +11311,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D8" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -11148,10 +11322,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D9" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -11159,10 +11333,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D10" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -11170,10 +11344,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D11" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -11181,10 +11355,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D12" t="s">
         <v>1107</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1108</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -11192,10 +11366,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D13" t="s">
         <v>1109</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1110</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -11203,10 +11377,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D14" t="s">
         <v>1111</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1112</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -11214,10 +11388,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D15" t="s">
         <v>1113</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1114</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -11225,10 +11399,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D16" t="s">
         <v>1115</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1116</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -11236,13 +11410,13 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C18" t="s">
         <v>1118</v>
       </c>
-      <c r="C18" t="s">
-        <v>1119</v>
-      </c>
       <c r="D18" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -11251,10 +11425,10 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D19" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -11262,10 +11436,10 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D20" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -11273,10 +11447,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D21" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -11284,10 +11458,10 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D22" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -11295,10 +11469,10 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D23" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -11307,10 +11481,10 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D24" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -11318,10 +11492,10 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D25" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -11329,10 +11503,10 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D27" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -11340,10 +11514,10 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D28" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -11351,10 +11525,10 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D29" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -11362,10 +11536,10 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D30" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -11374,10 +11548,10 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D31" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -11386,10 +11560,10 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D32" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -11397,10 +11571,10 @@
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D34" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
@@ -11409,10 +11583,10 @@
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D35" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -11420,10 +11594,10 @@
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D36" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
@@ -11431,10 +11605,10 @@
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D37" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
@@ -11442,18 +11616,18 @@
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D39" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D40" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
   </sheetData>
@@ -11469,9 +11643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -11503,52 +11675,52 @@
     </row>
     <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+        <v>1857</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C3" s="59"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E4" t="s">
         <v>1875</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1850</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1870</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1877</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="D5" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="E5" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="D6" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -11556,10 +11728,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="D7" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -11567,10 +11739,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -11578,10 +11750,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>1872</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>1874</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -11589,10 +11761,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="D10" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -11600,10 +11772,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="D11" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -11611,13 +11783,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="C13" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="D13" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -11625,10 +11797,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="D14" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -11636,10 +11808,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="D15" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -11657,8 +11829,1431 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" style="59" customWidth="1"/>
+    <col min="4" max="4" width="62.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C5" s="35" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C6" s="59" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C7" s="59" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C8" s="59" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C9" s="59" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10" s="59" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C11" s="59" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1778</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C12" s="59" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" s="59" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" s="59" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15" s="59" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C16" s="59" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C17" s="59" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1784</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C18" s="59" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C19" s="59" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C20" s="59" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C21" s="59" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C22" s="59" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C23" s="35" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C24" s="35" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C25" s="59" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1792</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C26" s="59" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C27" s="59" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C28" s="59" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C29" s="59" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C30" s="59" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C31" s="59" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C32" s="59" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C33" s="59" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C34" s="59" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C35" s="59" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C36" s="59" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C37" s="59" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C38" s="59" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C39" s="59" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C40" s="59" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C41" s="59" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C42" s="59" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1768</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C43" s="59" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C44" s="59" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C45" s="59" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C46" s="59" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B47" s="43"/>
+      <c r="C47" s="59" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="43"/>
+      <c r="C48" s="59" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="43"/>
+      <c r="C49" s="59" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B50" s="43"/>
+      <c r="C50" s="59" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" s="43"/>
+      <c r="C51" s="59" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52" s="43"/>
+      <c r="C52" s="59" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B53" s="43"/>
+      <c r="C53" s="59" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C54" s="59" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C55" s="59" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C56" s="59" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C57" s="59" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C58" s="59" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C59" s="59" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C61" s="59" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C62" s="59" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C63" s="59" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C64" s="59" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C65" s="59" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C66" s="59" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C67" s="59" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C68" s="59" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C69" s="59" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C70" s="59" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C71" s="59" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C72" s="59" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C73" s="59" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C74" s="59" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C75" s="59" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C76" s="59" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1832</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C77" s="59" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C78" s="59" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C79" s="59" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1835</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C80" s="59" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1836</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C81" s="59" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C82" s="59" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1838</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C83" s="59" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C84" s="59" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C85" s="59" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C86" s="59" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1842</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C87" s="59" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C88" s="59" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C89" s="59" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C90" s="59" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1806</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C91" s="59" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B92" s="43"/>
+      <c r="C92" s="59" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B93" s="43"/>
+      <c r="C93" s="59" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B94" s="43"/>
+      <c r="C94" s="59" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B95" s="43"/>
+      <c r="C95" s="59" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B96" s="43"/>
+      <c r="C96" s="59" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B97" s="43"/>
+      <c r="C97" s="59" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B98" s="43"/>
+      <c r="C98" s="59" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B99" s="43"/>
+      <c r="C99" s="59" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B100" s="43"/>
+      <c r="C100" s="59" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B101" s="43"/>
+      <c r="C101" s="59" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B102" s="43"/>
+      <c r="C102" s="59" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B103" s="43"/>
+      <c r="C103" s="59" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B104" s="43"/>
+      <c r="C104" s="59" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B105" s="43"/>
+      <c r="C105" s="59" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B106" s="43"/>
+      <c r="C106" s="59" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B107" s="43"/>
+      <c r="C107" s="59" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B108" s="43"/>
+      <c r="C108" s="59" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C109" s="59" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B110" s="6"/>
+      <c r="C110" s="59" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B111" s="6"/>
+      <c r="C111" s="59" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B112" s="6"/>
+      <c r="C112" s="59" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B113" s="6"/>
+      <c r="C113" s="59" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B114" s="6"/>
+      <c r="C114" s="59" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B115" s="6"/>
+      <c r="C115" s="59" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B116" s="6"/>
+      <c r="C116" s="59" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B117" s="6"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B118" s="6" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C118" s="59" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B119" s="6"/>
+      <c r="C119" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B120" s="6"/>
+      <c r="C120" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B121" s="6"/>
+      <c r="C121" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B122" s="6"/>
+      <c r="C122" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B123" s="6"/>
+      <c r="C123" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C124" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C125" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D67F9F-843E-495E-AF6B-DD470CD899F4}">
+  <dimension ref="A1:F127"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11690,1045 +13285,562 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+    <row r="2" spans="1:6" s="25" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="60" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>1373</v>
+        <v>1932</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1901</v>
       </c>
       <c r="D4" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1861</v>
+        <v>1888</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C5" s="35" t="s">
-        <v>1717</v>
+      <c r="C5" s="59" t="s">
+        <v>1891</v>
       </c>
       <c r="D5" t="s">
-        <v>1154</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1861</v>
+        <v>1889</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C6" s="59" t="s">
-        <v>1266</v>
+        <v>1902</v>
       </c>
       <c r="D6" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1861</v>
+        <v>1894</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" s="59" t="s">
-        <v>1372</v>
+        <v>1903</v>
       </c>
       <c r="D7" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1861</v>
+        <v>1893</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" s="59" t="s">
-        <v>1718</v>
+        <v>1904</v>
       </c>
       <c r="D8" t="s">
-        <v>1777</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1861</v>
+        <v>1895</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" s="59" t="s">
-        <v>1374</v>
+        <v>1931</v>
       </c>
       <c r="D9" t="s">
-        <v>1778</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1861</v>
+        <v>1936</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" s="59" t="s">
-        <v>1175</v>
+        <v>1905</v>
       </c>
       <c r="D10" t="s">
-        <v>1779</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1861</v>
+        <v>1926</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" s="59" t="s">
-        <v>1176</v>
+        <v>1906</v>
       </c>
       <c r="D11" t="s">
-        <v>1780</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C12" s="59" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1781</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1861</v>
+        <v>1927</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>1933</v>
+      </c>
       <c r="C13" s="59" t="s">
-        <v>1371</v>
+        <v>1928</v>
       </c>
       <c r="D13" t="s">
-        <v>1782</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1861</v>
+        <v>1934</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1890</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" s="59" t="s">
-        <v>1719</v>
+        <v>1929</v>
       </c>
       <c r="D14" t="s">
-        <v>1783</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1861</v>
+        <v>1892</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1890</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" s="59" t="s">
-        <v>1341</v>
+        <v>1930</v>
       </c>
       <c r="D15" t="s">
-        <v>1784</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1861</v>
+        <v>1896</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1890</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" s="59" t="s">
-        <v>1342</v>
+        <v>1935</v>
       </c>
       <c r="D16" t="s">
-        <v>1785</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C17" s="59" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1786</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C18" s="59" t="s">
-        <v>1344</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1787</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C19" s="59" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1788</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C20" s="59" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1789</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C21" s="59" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1790</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C22" s="59" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1791</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C23" s="35" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>1792</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C24" s="35" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D24" s="56" t="s">
-        <v>1793</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C25" s="59" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1794</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C26" s="59" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1795</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C27" s="59" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1796</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C28" s="59" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1797</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C29" s="59" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1798</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C30" s="59" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1799</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C31" s="59" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1800</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C32" s="59" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1801</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C33" s="59" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1802</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C34" s="59" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1803</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C35" s="59" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1804</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C36" s="59" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1805</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C37" s="59" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1806</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C38" s="59" t="s">
-        <v>1721</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1807</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C39" s="59" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1767</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C40" s="59" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1768</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C41" s="59" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1769</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C42" s="59" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1770</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C43" s="59" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C44" s="59" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C45" s="59" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1187</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C46" s="59" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47" s="43"/>
-      <c r="C47" s="59" t="s">
-        <v>1369</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1189</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="43"/>
-      <c r="C48" s="59" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1861</v>
-      </c>
+        <v>1937</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C25" s="35"/>
+      <c r="D25" s="60"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C26" s="35"/>
+      <c r="D26" s="60"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49" s="43"/>
-      <c r="C49" s="59" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1772</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1861</v>
-      </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="43"/>
-      <c r="C50" s="59" t="s">
-        <v>1738</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1739</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1861</v>
-      </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51" s="43"/>
-      <c r="C51" s="59" t="s">
-        <v>1724</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1773</v>
-      </c>
-      <c r="F51" t="s">
-        <v>1861</v>
-      </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52" s="43"/>
-      <c r="C52" s="59" t="s">
-        <v>1725</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1774</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1861</v>
-      </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" s="43"/>
-      <c r="C53" s="59" t="s">
-        <v>1726</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1775</v>
-      </c>
-      <c r="F53" t="s">
-        <v>1861</v>
-      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C54" s="59" t="s">
-        <v>1727</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1776</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1861</v>
-      </c>
+      <c r="B54" s="43"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C55" s="59" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C56" s="59" t="s">
-        <v>1734</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1735</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C57" s="59" t="s">
-        <v>1732</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1733</v>
-      </c>
-      <c r="F57" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C58" s="59" t="s">
-        <v>1730</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1731</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C59" s="59" t="s">
-        <v>1728</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B61" t="s">
-        <v>1740</v>
-      </c>
-      <c r="C61" s="59" t="s">
-        <v>1741</v>
-      </c>
-      <c r="F61" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C62" s="59" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1820</v>
-      </c>
-      <c r="F62" t="s">
-        <v>1861</v>
-      </c>
+      <c r="B55" s="43"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>1738</v>
+      </c>
       <c r="C63" s="59" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1821</v>
+        <v>1739</v>
       </c>
       <c r="F63" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C64" s="59" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="D64" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="F64" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C65" s="59" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="D65" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="F65" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C66" s="59" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="D66" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="F66" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C67" s="59" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="D67" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="F67" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C68" s="59" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="D68" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="F68" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C69" s="59" t="s">
-        <v>1742</v>
+        <v>1353</v>
       </c>
       <c r="D69" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="F69" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C70" s="59" t="s">
-        <v>1743</v>
+        <v>1354</v>
       </c>
       <c r="D70" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="F70" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C71" s="59" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="D71" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="F71" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C72" s="59" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="D72" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="F72" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C73" s="59" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="D73" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="F73" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C74" s="59" t="s">
-        <v>1356</v>
+        <v>1743</v>
       </c>
       <c r="D74" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="F74" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C75" s="59" t="s">
-        <v>1357</v>
+        <v>1744</v>
       </c>
       <c r="D75" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="F75" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C76" s="59" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="D76" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="F76" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C77" s="59" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="D77" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="F77" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C78" s="59" t="s">
-        <v>1747</v>
+        <v>1357</v>
       </c>
       <c r="D78" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="F78" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C79" s="59" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="D79" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="F79" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C80" s="59" t="s">
-        <v>1361</v>
+        <v>1745</v>
       </c>
       <c r="D80" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="F80" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C81" s="59" t="s">
-        <v>1748</v>
+        <v>1359</v>
       </c>
       <c r="D81" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="F81" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C82" s="59" t="s">
-        <v>1749</v>
+        <v>1360</v>
       </c>
       <c r="D82" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="F82" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C83" s="59" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="D83" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="F83" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C84" s="59" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="D84" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="F84" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C85" s="59" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="D85" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="F85" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C86" s="59" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="D86" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
       <c r="F86" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C87" s="59" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="D87" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="F87" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C88" s="59" t="s">
-        <v>1362</v>
+        <v>1751</v>
       </c>
       <c r="D88" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="F88" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C89" s="59" t="s">
-        <v>1363</v>
+        <v>1752</v>
       </c>
       <c r="D89" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="F89" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C90" s="59" t="s">
-        <v>1755</v>
+        <v>1361</v>
       </c>
       <c r="D90" t="s">
-        <v>1808</v>
+        <v>1844</v>
       </c>
       <c r="F90" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C91" s="59" t="s">
-        <v>1756</v>
+        <v>1362</v>
       </c>
       <c r="D91" t="s">
-        <v>1809</v>
+        <v>1845</v>
       </c>
       <c r="F91" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B92" s="43"/>
       <c r="C92" s="59" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="D92" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="F92" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B93" s="43"/>
       <c r="C93" s="59" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="D93" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="F93" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B94" s="43"/>
       <c r="C94" s="59" t="s">
-        <v>1364</v>
+        <v>1755</v>
       </c>
       <c r="D94" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="F94" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B95" s="43"/>
       <c r="C95" s="59" t="s">
-        <v>1366</v>
+        <v>1756</v>
       </c>
       <c r="D95" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
       <c r="F95" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B96" s="43"/>
       <c r="C96" s="59" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="D96" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="F96" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.35">
@@ -12737,336 +13849,360 @@
         <v>1365</v>
       </c>
       <c r="D97" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="F97" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B98" s="43"/>
       <c r="C98" s="59" t="s">
-        <v>1184</v>
+        <v>1366</v>
       </c>
       <c r="D98" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="F98" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B99" s="43"/>
       <c r="C99" s="59" t="s">
-        <v>1759</v>
+        <v>1364</v>
       </c>
       <c r="D99" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="F99" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B100" s="43"/>
       <c r="C100" s="59" t="s">
-        <v>1264</v>
+        <v>1183</v>
       </c>
       <c r="D100" t="s">
-        <v>1185</v>
+        <v>1810</v>
       </c>
       <c r="F100" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B101" s="43"/>
       <c r="C101" s="59" t="s">
-        <v>1265</v>
+        <v>1757</v>
       </c>
       <c r="D101" t="s">
-        <v>1186</v>
+        <v>1815</v>
       </c>
       <c r="F101" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B102" s="43"/>
       <c r="C102" s="59" t="s">
-        <v>1348</v>
+        <v>1263</v>
       </c>
       <c r="D102" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="F102" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B103" s="43"/>
       <c r="C103" s="59" t="s">
-        <v>1368</v>
+        <v>1264</v>
       </c>
       <c r="D103" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="F103" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B104" s="43"/>
       <c r="C104" s="59" t="s">
-        <v>1369</v>
+        <v>1347</v>
       </c>
       <c r="D104" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="F104" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B105" s="43"/>
       <c r="C105" s="59" t="s">
-        <v>1722</v>
+        <v>1367</v>
       </c>
       <c r="D105" t="s">
-        <v>1771</v>
+        <v>1187</v>
       </c>
       <c r="F105" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B106" s="43"/>
       <c r="C106" s="59" t="s">
-        <v>1723</v>
+        <v>1368</v>
       </c>
       <c r="D106" t="s">
-        <v>1772</v>
+        <v>1188</v>
       </c>
       <c r="F106" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B107" s="43"/>
       <c r="C107" s="59" t="s">
-        <v>1760</v>
+        <v>1720</v>
       </c>
       <c r="D107" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
       <c r="F107" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B108" s="43"/>
       <c r="C108" s="59" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="D108" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="F108" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B109" s="43"/>
       <c r="C109" s="59" t="s">
-        <v>1725</v>
+        <v>1758</v>
       </c>
       <c r="D109" t="s">
-        <v>1774</v>
+        <v>1759</v>
       </c>
       <c r="F109" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B110" s="6"/>
+      <c r="B110" s="43"/>
       <c r="C110" s="59" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="D110" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="F110" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B111" s="6"/>
       <c r="C111" s="59" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="D111" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="F111" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B112" s="6"/>
       <c r="C112" s="59" t="s">
-        <v>1762</v>
+        <v>1724</v>
       </c>
       <c r="D112" t="s">
-        <v>1818</v>
+        <v>1773</v>
       </c>
       <c r="F112" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B113" s="6"/>
       <c r="C113" s="59" t="s">
-        <v>1763</v>
+        <v>1725</v>
       </c>
       <c r="D113" t="s">
-        <v>1735</v>
+        <v>1774</v>
       </c>
       <c r="F113" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B114" s="6"/>
       <c r="C114" s="59" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="D114" t="s">
-        <v>1733</v>
+        <v>1816</v>
       </c>
       <c r="F114" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B115" s="6"/>
       <c r="C115" s="59" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="D115" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="F115" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B116" s="6"/>
       <c r="C116" s="59" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="D116" t="s">
-        <v>1819</v>
+        <v>1731</v>
       </c>
       <c r="F116" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B117" s="6"/>
+      <c r="C117" s="59" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B118" s="6" t="s">
-        <v>1714</v>
-      </c>
+      <c r="B118" s="6"/>
       <c r="C118" s="59" t="s">
-        <v>1258</v>
+        <v>1764</v>
       </c>
       <c r="D118" t="s">
-        <v>1178</v>
+        <v>1817</v>
       </c>
       <c r="F118" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B119" s="6"/>
-      <c r="C119" t="s">
-        <v>1259</v>
-      </c>
-      <c r="D119" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F119" t="s">
-        <v>1861</v>
-      </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B120" s="6"/>
-      <c r="C120" t="s">
-        <v>1262</v>
+      <c r="B120" s="6" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C120" s="59" t="s">
+        <v>1257</v>
       </c>
       <c r="D120" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="F120" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B121" s="6"/>
       <c r="C121" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="D121" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="F121" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B122" s="6"/>
       <c r="C122" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D122" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="F122" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B123" s="6"/>
       <c r="C123" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D123" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="F123" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B124" s="6"/>
       <c r="C124" t="s">
-        <v>1848</v>
+        <v>1259</v>
       </c>
       <c r="D124" t="s">
-        <v>1716</v>
+        <v>1181</v>
       </c>
       <c r="F124" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B125" s="6"/>
       <c r="C125" t="s">
-        <v>1849</v>
+        <v>1260</v>
       </c>
       <c r="D125" t="s">
-        <v>1715</v>
+        <v>1182</v>
       </c>
       <c r="F125" t="s">
-        <v>1861</v>
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C126" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C127" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1859</v>
       </c>
     </row>
   </sheetData>
@@ -13074,7 +14210,943 @@
     <mergeCell ref="C2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311CF17F-B9D7-4FAE-9BAC-09E565075D78}">
+  <dimension ref="A1:F127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" style="59" customWidth="1"/>
+    <col min="4" max="4" width="62.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="60" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C5" s="35" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C6" s="59" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C8" s="59" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C9" s="59" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C11" s="59" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C12" s="59" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" s="61" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" s="59" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15" s="61" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C25" s="35"/>
+      <c r="D25" s="60"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C26" s="35"/>
+      <c r="D26" s="60"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="43"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B50" s="43"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" s="43"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52" s="43"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B53" s="43"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B54" s="43"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B55" s="43"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C63" s="59" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C64" s="59" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C65" s="59" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C66" s="59" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C67" s="59" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C68" s="59" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C69" s="59" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C70" s="59" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C71" s="59" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C72" s="59" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C73" s="59" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C74" s="59" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C75" s="59" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C76" s="59" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C77" s="59" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C78" s="59" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1832</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C79" s="59" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C80" s="59" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C81" s="59" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1835</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C82" s="59" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1836</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C83" s="59" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C84" s="59" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1838</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C85" s="59" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C86" s="59" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C87" s="59" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C88" s="59" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1842</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C89" s="59" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C90" s="59" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C91" s="59" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C92" s="59" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1806</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C93" s="59" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B94" s="43"/>
+      <c r="C94" s="59" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B95" s="43"/>
+      <c r="C95" s="59" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B96" s="43"/>
+      <c r="C96" s="59" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B97" s="43"/>
+      <c r="C97" s="59" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B98" s="43"/>
+      <c r="C98" s="59" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B99" s="43"/>
+      <c r="C99" s="59" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B100" s="43"/>
+      <c r="C100" s="59" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B101" s="43"/>
+      <c r="C101" s="59" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B102" s="43"/>
+      <c r="C102" s="59" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B103" s="43"/>
+      <c r="C103" s="59" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B104" s="43"/>
+      <c r="C104" s="59" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B105" s="43"/>
+      <c r="C105" s="59" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B106" s="43"/>
+      <c r="C106" s="59" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B107" s="43"/>
+      <c r="C107" s="59" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B108" s="43"/>
+      <c r="C108" s="59" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B109" s="43"/>
+      <c r="C109" s="59" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B110" s="43"/>
+      <c r="C110" s="59" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C111" s="59" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B112" s="6"/>
+      <c r="C112" s="59" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B113" s="6"/>
+      <c r="C113" s="59" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B114" s="6"/>
+      <c r="C114" s="59" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B115" s="6"/>
+      <c r="C115" s="59" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B116" s="6"/>
+      <c r="C116" s="59" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B117" s="6"/>
+      <c r="C117" s="59" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B118" s="6"/>
+      <c r="C118" s="59" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B119" s="6"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B120" s="6" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C120" s="59" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B121" s="6"/>
+      <c r="C121" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B122" s="6"/>
+      <c r="C122" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B123" s="6"/>
+      <c r="C123" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B124" s="6"/>
+      <c r="C124" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B125" s="6"/>
+      <c r="C125" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C126" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C127" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13119,17 +15191,17 @@
     </row>
     <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C2" s="62" t="s">
         <v>1638</v>
       </c>
-      <c r="C2" s="60" t="s">
-        <v>1639</v>
-      </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -13142,13 +15214,13 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="26"/>
       <c r="B4" s="26" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C4" s="26" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>1056</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>1057</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>9</v>
@@ -13159,10 +15231,10 @@
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>1058</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>1059</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>9</v>
@@ -13175,10 +15247,10 @@
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>9</v>
@@ -13189,10 +15261,10 @@
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>9</v>
@@ -13203,10 +15275,10 @@
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>9</v>
@@ -13217,10 +15289,10 @@
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>9</v>
@@ -13231,10 +15303,10 @@
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>9</v>
@@ -13245,10 +15317,10 @@
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>9</v>
@@ -13259,10 +15331,10 @@
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>9</v>
@@ -13273,10 +15345,10 @@
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>1065</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>1066</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>9</v>
@@ -13287,10 +15359,10 @@
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>1067</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>1068</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>9</v>
@@ -13301,10 +15373,10 @@
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>1069</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>1070</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>9</v>
@@ -13315,10 +15387,10 @@
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>9</v>
@@ -13329,10 +15401,10 @@
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>1072</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>1073</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>9</v>
@@ -13343,10 +15415,10 @@
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E18" s="26" t="s">
         <v>9</v>
@@ -13357,10 +15429,10 @@
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>9</v>
@@ -13371,10 +15443,10 @@
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>9</v>
@@ -13385,10 +15457,10 @@
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>9</v>
@@ -13399,10 +15471,10 @@
       <c r="A22" s="29"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>9</v>
@@ -13413,10 +15485,10 @@
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>9</v>
@@ -13427,10 +15499,10 @@
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>9</v>
@@ -13441,10 +15513,10 @@
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>9</v>
@@ -13455,10 +15527,10 @@
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>1080</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>1081</v>
       </c>
       <c r="E26" s="26" t="s">
         <v>9</v>
@@ -13469,10 +15541,10 @@
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>1082</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>1083</v>
       </c>
       <c r="E27" s="26" t="s">
         <v>9</v>
@@ -13483,10 +15555,10 @@
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>1084</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>1085</v>
       </c>
       <c r="E28" s="26" t="s">
         <v>9</v>
@@ -13497,10 +15569,10 @@
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>1220</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>1221</v>
       </c>
       <c r="E29" s="26" t="s">
         <v>9</v>
@@ -13511,10 +15583,10 @@
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>1087</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>1088</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>19</v>
@@ -13525,10 +15597,10 @@
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>1089</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>1090</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>19</v>
@@ -13539,10 +15611,10 @@
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>9</v>
@@ -13553,10 +15625,10 @@
       <c r="A33" s="26"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E33" s="30" t="s">
         <v>9</v>
@@ -13567,10 +15639,10 @@
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E34" s="30" t="s">
         <v>9</v>
@@ -13581,10 +15653,10 @@
       <c r="A35" s="26"/>
       <c r="B35" s="26"/>
       <c r="C35" s="26" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E35" s="30" t="s">
         <v>9</v>
@@ -13593,10 +15665,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C36" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E36" s="30" t="s">
         <v>9</v>
@@ -13604,10 +15676,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C37" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E37" s="30" t="s">
         <v>9</v>
@@ -13615,10 +15687,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C38" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E38" s="30" t="s">
         <v>9</v>
@@ -13673,17 +15745,17 @@
     </row>
     <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C2" s="62" t="s">
         <v>1640</v>
       </c>
-      <c r="C2" s="60" t="s">
-        <v>1641</v>
-      </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -14026,7 +16098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -14063,17 +16135,17 @@
     </row>
     <row r="2" spans="1:6" ht="34.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C2" s="64" t="s">
         <v>1642</v>
       </c>
-      <c r="C2" s="62" t="s">
-        <v>1643</v>
-      </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -14086,10 +16158,10 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>54</v>
@@ -14105,7 +16177,7 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>55</v>
@@ -14121,7 +16193,7 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>56</v>
@@ -14137,7 +16209,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>57</v>
@@ -14153,7 +16225,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>58</v>
@@ -14169,7 +16241,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>59</v>
@@ -14185,7 +16257,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>60</v>
@@ -14201,7 +16273,7 @@
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>61</v>
@@ -14217,7 +16289,7 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>62</v>
@@ -14240,10 +16312,10 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>52</v>
@@ -14266,10 +16338,10 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>63</v>
@@ -14285,10 +16357,10 @@
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>53</v>
@@ -14301,10 +16373,10 @@
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>53</v>
@@ -14339,13 +16411,13 @@
     <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>14</v>
@@ -14388,7 +16460,7 @@
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="10" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>68</v>
@@ -14458,10 +16530,10 @@
       <c r="A29" s="34"/>
       <c r="B29" s="5"/>
       <c r="C29" s="35" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>9</v>
@@ -14472,10 +16544,10 @@
       <c r="A30" s="34"/>
       <c r="B30" s="34"/>
       <c r="C30" s="35" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>9</v>
@@ -14486,10 +16558,10 @@
       <c r="A31" s="34"/>
       <c r="B31" s="34"/>
       <c r="C31" s="35" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E31" s="35" t="s">
         <v>9</v>
@@ -14500,10 +16572,10 @@
       <c r="A32" s="34"/>
       <c r="B32" s="34"/>
       <c r="C32" s="35" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E32" s="35" t="s">
         <v>9</v>
@@ -14514,10 +16586,10 @@
       <c r="A33" s="34"/>
       <c r="B33" s="34"/>
       <c r="C33" s="35" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E33" s="35" t="s">
         <v>9</v>
@@ -14528,10 +16600,10 @@
       <c r="A34" s="5"/>
       <c r="B34" s="34"/>
       <c r="C34" s="35" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E34" s="35" t="s">
         <v>9</v>
@@ -14544,10 +16616,10 @@
       <c r="A35" s="5"/>
       <c r="B35" s="34"/>
       <c r="C35" s="35" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E35" s="35" t="s">
         <v>9</v>
@@ -14563,10 +16635,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B37" s="5" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>71</v>
@@ -14576,51 +16648,51 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C38" s="6" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C39" s="6" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C40" s="6" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C41" s="6" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C42" s="6" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="C43" s="6" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -14629,7 +16701,7 @@
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="C45" s="10" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>72</v>
@@ -14642,10 +16714,10 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="5" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>74</v>
@@ -14659,7 +16731,7 @@
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="10" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>75</v>
@@ -14673,7 +16745,7 @@
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="10" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>76</v>
@@ -14687,7 +16759,7 @@
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="10" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>77</v>
@@ -14701,7 +16773,7 @@
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="10" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>78</v>
@@ -14715,7 +16787,7 @@
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>79</v>
@@ -14729,7 +16801,7 @@
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="10" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>80</v>
@@ -14742,7 +16814,7 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
       <c r="C53" s="10" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>81</v>
@@ -14812,17 +16884,17 @@
     </row>
     <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C2" s="64" t="s">
         <v>1644</v>
       </c>
-      <c r="C2" s="62" t="s">
-        <v>1645</v>
-      </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -15011,17 +17083,17 @@
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>1646</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
@@ -15391,7 +17463,7 @@
       <c r="E29" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="63" t="s">
+      <c r="F29" s="65" t="s">
         <v>161</v>
       </c>
     </row>
@@ -15407,7 +17479,7 @@
       <c r="E30" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="63"/>
+      <c r="F30" s="65"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="17"/>
@@ -15421,7 +17493,7 @@
       <c r="E31" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="63"/>
+      <c r="F31" s="65"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
@@ -15435,7 +17507,7 @@
       <c r="E32" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="63"/>
+      <c r="F32" s="65"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="17"/>
@@ -15449,7 +17521,7 @@
       <c r="E33" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="63"/>
+      <c r="F33" s="65"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="17"/>
@@ -15463,7 +17535,7 @@
       <c r="E34" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="63"/>
+      <c r="F34" s="65"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="17"/>
@@ -15477,7 +17549,7 @@
       <c r="E35" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="65"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="17"/>
@@ -15491,7 +17563,7 @@
       <c r="E36" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="63"/>
+      <c r="F36" s="65"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="17"/>
@@ -15505,7 +17577,7 @@
       <c r="E37" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="63"/>
+      <c r="F37" s="65"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="17"/>
@@ -15519,7 +17591,7 @@
       <c r="E38" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="63"/>
+      <c r="F38" s="65"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="17"/>
@@ -15533,7 +17605,7 @@
       <c r="E39" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="63"/>
+      <c r="F39" s="65"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="17"/>
@@ -15547,7 +17619,7 @@
       <c r="E40" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="63"/>
+      <c r="F40" s="65"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="17"/>
@@ -15561,7 +17633,7 @@
       <c r="E41" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="63"/>
+      <c r="F41" s="65"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="17"/>
@@ -15575,7 +17647,7 @@
       <c r="E42" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="63"/>
+      <c r="F42" s="65"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="17"/>
@@ -15589,7 +17661,7 @@
       <c r="E43" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="63"/>
+      <c r="F43" s="65"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="17"/>
@@ -15603,7 +17675,7 @@
       <c r="E44" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="63"/>
+      <c r="F44" s="65"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="17"/>
@@ -15617,7 +17689,7 @@
       <c r="E45" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="63"/>
+      <c r="F45" s="65"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="17"/>
@@ -15631,7 +17703,7 @@
       <c r="E46" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="63"/>
+      <c r="F46" s="65"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="17"/>
@@ -16163,7 +18235,7 @@
       <c r="E86" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F86" s="63" t="s">
+      <c r="F86" s="65" t="s">
         <v>267</v>
       </c>
     </row>
@@ -16179,7 +18251,7 @@
       <c r="E87" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F87" s="63"/>
+      <c r="F87" s="65"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="17"/>
@@ -16193,7 +18265,7 @@
       <c r="E88" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F88" s="63"/>
+      <c r="F88" s="65"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="17"/>
@@ -16207,7 +18279,7 @@
       <c r="E89" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F89" s="63"/>
+      <c r="F89" s="65"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="17"/>
@@ -16221,7 +18293,7 @@
       <c r="E90" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F90" s="63"/>
+      <c r="F90" s="65"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="17"/>
@@ -16235,7 +18307,7 @@
       <c r="E91" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F91" s="63"/>
+      <c r="F91" s="65"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="17"/>
@@ -16249,7 +18321,7 @@
       <c r="E92" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F92" s="63"/>
+      <c r="F92" s="65"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="17"/>
@@ -16263,7 +18335,7 @@
       <c r="E93" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F93" s="63"/>
+      <c r="F93" s="65"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="17"/>
@@ -16277,7 +18349,7 @@
       <c r="E94" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F94" s="63"/>
+      <c r="F94" s="65"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="17"/>
@@ -16291,7 +18363,7 @@
       <c r="E95" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F95" s="63"/>
+      <c r="F95" s="65"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="17"/>
@@ -16305,7 +18377,7 @@
       <c r="E96" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F96" s="63"/>
+      <c r="F96" s="65"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="17"/>
@@ -16319,7 +18391,7 @@
       <c r="E97" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F97" s="63"/>
+      <c r="F97" s="65"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="17"/>
@@ -16333,7 +18405,7 @@
       <c r="E98" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F98" s="63"/>
+      <c r="F98" s="65"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="17"/>
@@ -16347,7 +18419,7 @@
       <c r="E99" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F99" s="63"/>
+      <c r="F99" s="65"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="17"/>
@@ -16932,7 +19004,7 @@
       </c>
       <c r="F143" s="17"/>
     </row>
-    <row r="144" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="17"/>
       <c r="B144" s="17"/>
       <c r="C144" s="17" t="s">
@@ -17017,17 +19089,17 @@
     </row>
     <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C2" s="64" t="s">
         <v>1648</v>
       </c>
-      <c r="C2" s="62" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -17042,10 +19114,10 @@
       <c r="B4" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -17779,17 +19851,17 @@
     </row>
     <row r="2" spans="1:6" ht="38.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>1650</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
@@ -18422,17 +20494,17 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>1652</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
@@ -20022,7 +22094,7 @@
     <row r="123" spans="1:6" ht="45.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C123" s="17" t="s">
         <v>757</v>
@@ -20033,8 +22105,8 @@
       <c r="E123" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F123" s="63" t="s">
-        <v>1042</v>
+      <c r="F123" s="65" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
@@ -20049,7 +22121,7 @@
       <c r="E124" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F124" s="63"/>
+      <c r="F124" s="65"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="17"/>
@@ -20085,6 +22157,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -20099,66 +22180,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="533" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fe6dd6fbc47b2b2c3033f1a9c1079fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd9e5a0c56088652e9b5d1a36fcd7f8a" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -20427,7 +22449,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC59F560-844B-432B-8AD6-73714CEDFB96}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -20445,23 +22525,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C070FFD4-2B81-40A9-9526-59DD893E6C18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D26296-6F3A-450E-9A4D-26E32036C996}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20479,4 +22543,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C070FFD4-2B81-40A9-9526-59DD893E6C18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33697\ICF\Analysis - Shared Resources\Code\DHS-Indicators-Stata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/Shared Resources/Code/DHS-Indicators-Stata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB928E38-4282-43C6-806C-7944B958E23F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="114_{17F82F54-F8CB-43F8-AF09-BA1DBACED508}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8543432F-0426-4F84-A3DA-A43D3FCBECCF}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="690" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="690" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CH2PH" sheetId="17" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3384" uniqueCount="1938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3382" uniqueCount="1937">
   <si>
     <t>Chapter</t>
   </si>
@@ -5672,12 +5672,6 @@
     <t>"pregnancy related mortality ratio"</t>
   </si>
   <si>
-    <t>AM_rates.do</t>
-  </si>
-  <si>
-    <t>AM_gfr</t>
-  </si>
-  <si>
     <t>IR,MR,PR</t>
   </si>
   <si>
@@ -5804,15 +5798,6 @@
     <t>fs_trt_provid</t>
   </si>
   <si>
-    <t>"Provider type among those who sought treatment for fistula"</t>
-  </si>
-  <si>
-    <t>fs_notrt</t>
-  </si>
-  <si>
-    <t>"Did not seek treatmeent for fistula"</t>
-  </si>
-  <si>
     <t>fs_trt_outcome</t>
   </si>
   <si>
@@ -5865,6 +5850,18 @@
   </si>
   <si>
     <t>"Female circumcision type is sewn closed among girls age 0-14"</t>
+  </si>
+  <si>
+    <t>AM_RATES.do</t>
+  </si>
+  <si>
+    <t>AM_GFR.do</t>
+  </si>
+  <si>
+    <t>"Provider type for fistula treatment"</t>
+  </si>
+  <si>
+    <t>FS_FIST.do</t>
   </si>
 </sst>
 </file>
@@ -5954,7 +5951,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5970,12 +5967,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6001,7 +5992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6165,7 +6156,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6514,12 +6504,12 @@
       <c r="B2" s="4" t="s">
         <v>1635</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="61" t="s">
         <v>1636</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -7635,12 +7625,12 @@
       <c r="B2" s="17" t="s">
         <v>1653</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>1654</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
@@ -9135,12 +9125,12 @@
       <c r="B2" s="17" t="s">
         <v>1655</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>1656</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
@@ -9338,7 +9328,7 @@
       <c r="E16" s="17" t="s">
         <v>862</v>
       </c>
-      <c r="F16" s="67" t="s">
+      <c r="F16" s="66" t="s">
         <v>863</v>
       </c>
     </row>
@@ -9352,7 +9342,7 @@
         <v>865</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="67"/>
+      <c r="F17" s="66"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
@@ -9428,7 +9418,7 @@
       <c r="E23" s="17" t="s">
         <v>805</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="67" t="s">
         <v>876</v>
       </c>
     </row>
@@ -9444,7 +9434,7 @@
       <c r="E24" s="17" t="s">
         <v>805</v>
       </c>
-      <c r="F24" s="68"/>
+      <c r="F24" s="67"/>
     </row>
     <row r="25" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
@@ -9458,7 +9448,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="61" t="s">
         <v>880</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -9476,7 +9466,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="17"/>
-      <c r="B27" s="62"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="1" t="s">
         <v>884</v>
       </c>
@@ -9492,7 +9482,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
-      <c r="B28" s="62"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="1" t="s">
         <v>886</v>
       </c>
@@ -9508,7 +9498,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="17"/>
-      <c r="B29" s="62"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="17" t="s">
         <v>888</v>
       </c>
@@ -9522,7 +9512,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
-      <c r="B30" s="62"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="17" t="s">
         <v>890</v>
       </c>
@@ -9536,7 +9526,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="17"/>
-      <c r="B31" s="62"/>
+      <c r="B31" s="61"/>
       <c r="C31" s="17" t="s">
         <v>892</v>
       </c>
@@ -10148,12 +10138,12 @@
       <c r="B2" s="21" t="s">
         <v>1657</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>1658</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F3" s="22"/>
@@ -10394,7 +10384,7 @@
       <c r="E26" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="69" t="s">
+      <c r="F26" s="68" t="s">
         <v>974</v>
       </c>
       <c r="G26" s="33"/>
@@ -10409,7 +10399,7 @@
       <c r="E27" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="69"/>
+      <c r="F27" s="68"/>
     </row>
     <row r="28" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C28" s="24" t="s">
@@ -10421,7 +10411,7 @@
       <c r="E28" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="69"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="33"/>
     </row>
     <row r="29" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
@@ -10429,12 +10419,12 @@
         <v>1296</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="69"/>
+      <c r="F29" s="68"/>
     </row>
     <row r="30" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C30" s="24" t="s">
@@ -10935,12 +10925,12 @@
       <c r="B2" s="21" t="s">
         <v>1659</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>1660</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="24" t="s">
@@ -10983,7 +10973,7 @@
       <c r="E7" s="24" t="s">
         <v>1019</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="68" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -10997,7 +10987,7 @@
       <c r="E8" s="24" t="s">
         <v>1019</v>
       </c>
-      <c r="F8" s="69"/>
+      <c r="F8" s="68"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" s="24" t="s">
@@ -11009,7 +10999,7 @@
       <c r="E9" s="24" t="s">
         <v>1019</v>
       </c>
-      <c r="F9" s="69"/>
+      <c r="F9" s="68"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F10" s="41"/>
@@ -11255,12 +11245,12 @@
       <c r="B2" s="21" t="s">
         <v>1661</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>1662</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
@@ -11643,7 +11633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -11680,19 +11672,19 @@
       <c r="B2" s="57" t="s">
         <v>1857</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>1663</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C3" s="59"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>1873</v>
+        <v>1933</v>
       </c>
       <c r="C4" t="s">
         <v>1848</v>
@@ -11701,7 +11693,7 @@
         <v>1868</v>
       </c>
       <c r="E4" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -11712,7 +11704,7 @@
         <v>1860</v>
       </c>
       <c r="E5" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -11783,7 +11775,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>1874</v>
+        <v>1934</v>
       </c>
       <c r="C13" t="s">
         <v>1854</v>
@@ -11865,14 +11857,14 @@
         <v>1150</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>1884</v>
-      </c>
-      <c r="C2" s="65" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C2" s="64" t="s">
         <v>1663</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
@@ -13252,7 +13244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D67F9F-843E-495E-AF6B-DD470CD899F4}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -13287,27 +13279,27 @@
     </row>
     <row r="2" spans="1:6" s="25" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="60" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C2" s="64" t="s">
         <v>1885</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>1886</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>1887</v>
-      </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>1932</v>
+        <v>1927</v>
       </c>
       <c r="C4" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="D4" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -13315,10 +13307,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C5" s="59" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="D5" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -13326,10 +13318,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C6" s="59" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="D6" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -13337,10 +13329,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" s="59" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="D7" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -13348,10 +13340,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" s="59" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="D8" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -13359,10 +13351,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" s="59" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D9" t="s">
         <v>1931</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1936</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -13370,10 +13362,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" s="59" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="D10" t="s">
-        <v>1926</v>
+        <v>1921</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -13381,10 +13373,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" s="59" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="D11" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -13392,49 +13384,49 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>1933</v>
+        <v>1928</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>1928</v>
+        <v>1923</v>
       </c>
       <c r="D13" t="s">
-        <v>1934</v>
+        <v>1929</v>
       </c>
       <c r="E13" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" s="59" t="s">
-        <v>1929</v>
+        <v>1924</v>
       </c>
       <c r="D14" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="E14" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" s="59" t="s">
-        <v>1930</v>
+        <v>1925</v>
       </c>
       <c r="D15" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="E15" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" s="59" t="s">
-        <v>1935</v>
+        <v>1930</v>
       </c>
       <c r="D16" t="s">
-        <v>1937</v>
+        <v>1932</v>
       </c>
       <c r="E16" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.35">
@@ -14215,10 +14207,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311CF17F-B9D7-4FAE-9BAC-09E565075D78}">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14252,24 +14244,27 @@
     </row>
     <row r="2" spans="1:6" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="60" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C2" s="64" t="s">
         <v>1897</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C4" t="s">
         <v>1898</v>
       </c>
-      <c r="C2" s="65" t="s">
-        <v>1899</v>
-      </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
-        <v>1900</v>
-      </c>
       <c r="D4" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -14277,10 +14272,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C5" s="35" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="D5" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -14288,10 +14283,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C6" s="59" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="D6" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -14299,10 +14294,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" s="59" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="D8" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -14310,10 +14305,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" s="59" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="D9" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -14321,10 +14316,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" s="59" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="D11" t="s">
-        <v>1917</v>
+        <v>1935</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -14332,21 +14327,21 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C12" s="59" t="s">
-        <v>1918</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1919</v>
+        <v>1915</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>1916</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C13" s="61" t="s">
-        <v>1920</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>1921</v>
+      <c r="C13" s="59" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1918</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -14354,33 +14349,25 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" s="59" t="s">
-        <v>1922</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1923</v>
+        <v>1919</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>1920</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C15" s="61" t="s">
-        <v>1924</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>1925</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C24" s="35"/>
+      <c r="D24" s="60"/>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C25" s="35"/>
       <c r="D25" s="60"/>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C26" s="35"/>
-      <c r="D26" s="60"/>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="43"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49" s="43"/>
@@ -14400,15 +14387,23 @@
     <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54" s="43"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B55" s="43"/>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C62" s="59" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B63" t="s">
-        <v>1738</v>
-      </c>
       <c r="C63" s="59" t="s">
-        <v>1739</v>
+        <v>1348</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1818</v>
       </c>
       <c r="F63" t="s">
         <v>1859</v>
@@ -14416,10 +14411,10 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C64" s="59" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D64" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="F64" t="s">
         <v>1859</v>
@@ -14427,10 +14422,10 @@
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C65" s="59" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D65" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="F65" t="s">
         <v>1859</v>
@@ -14438,10 +14433,10 @@
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C66" s="59" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D66" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="F66" t="s">
         <v>1859</v>
@@ -14449,10 +14444,10 @@
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C67" s="59" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D67" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="F67" t="s">
         <v>1859</v>
@@ -14460,10 +14455,10 @@
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C68" s="59" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D68" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="F68" t="s">
         <v>1859</v>
@@ -14471,10 +14466,10 @@
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C69" s="59" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D69" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="F69" t="s">
         <v>1859</v>
@@ -14482,10 +14477,10 @@
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C70" s="59" t="s">
-        <v>1354</v>
+        <v>1740</v>
       </c>
       <c r="D70" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="F70" t="s">
         <v>1859</v>
@@ -14493,10 +14488,10 @@
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C71" s="59" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="D71" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="F71" t="s">
         <v>1859</v>
@@ -14504,10 +14499,10 @@
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C72" s="59" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="D72" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="F72" t="s">
         <v>1859</v>
@@ -14515,10 +14510,10 @@
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C73" s="59" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="D73" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="F73" t="s">
         <v>1859</v>
@@ -14526,10 +14521,10 @@
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C74" s="59" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="D74" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="F74" t="s">
         <v>1859</v>
@@ -14537,10 +14532,10 @@
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C75" s="59" t="s">
-        <v>1744</v>
+        <v>1355</v>
       </c>
       <c r="D75" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="F75" t="s">
         <v>1859</v>
@@ -14548,10 +14543,10 @@
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C76" s="59" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D76" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="F76" t="s">
         <v>1859</v>
@@ -14559,10 +14554,10 @@
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C77" s="59" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D77" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="F77" t="s">
         <v>1859</v>
@@ -14570,10 +14565,10 @@
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C78" s="59" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D78" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="F78" t="s">
         <v>1859</v>
@@ -14581,10 +14576,10 @@
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C79" s="59" t="s">
-        <v>1358</v>
+        <v>1745</v>
       </c>
       <c r="D79" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="F79" t="s">
         <v>1859</v>
@@ -14592,10 +14587,10 @@
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C80" s="59" t="s">
-        <v>1745</v>
+        <v>1359</v>
       </c>
       <c r="D80" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="F80" t="s">
         <v>1859</v>
@@ -14603,10 +14598,10 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C81" s="59" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="D81" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="F81" t="s">
         <v>1859</v>
@@ -14614,10 +14609,10 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C82" s="59" t="s">
-        <v>1360</v>
+        <v>1746</v>
       </c>
       <c r="D82" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="F82" t="s">
         <v>1859</v>
@@ -14625,10 +14620,10 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C83" s="59" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="D83" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="F83" t="s">
         <v>1859</v>
@@ -14636,10 +14631,10 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C84" s="59" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="D84" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="F84" t="s">
         <v>1859</v>
@@ -14647,10 +14642,10 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C85" s="59" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="D85" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="F85" t="s">
         <v>1859</v>
@@ -14658,10 +14653,10 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C86" s="59" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="D86" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="F86" t="s">
         <v>1859</v>
@@ -14669,10 +14664,10 @@
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C87" s="59" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="D87" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="F87" t="s">
         <v>1859</v>
@@ -14680,10 +14675,10 @@
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C88" s="59" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="D88" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="F88" t="s">
         <v>1859</v>
@@ -14691,10 +14686,10 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C89" s="59" t="s">
-        <v>1752</v>
+        <v>1361</v>
       </c>
       <c r="D89" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="F89" t="s">
         <v>1859</v>
@@ -14702,10 +14697,10 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C90" s="59" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D90" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="F90" t="s">
         <v>1859</v>
@@ -14713,10 +14708,10 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C91" s="59" t="s">
-        <v>1362</v>
+        <v>1753</v>
       </c>
       <c r="D91" t="s">
-        <v>1845</v>
+        <v>1806</v>
       </c>
       <c r="F91" t="s">
         <v>1859</v>
@@ -14724,21 +14719,22 @@
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C92" s="59" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="D92" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="F92" t="s">
         <v>1859</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B93" s="43"/>
       <c r="C93" s="59" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="D93" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="F93" t="s">
         <v>1859</v>
@@ -14747,10 +14743,10 @@
     <row r="94" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B94" s="43"/>
       <c r="C94" s="59" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="D94" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="F94" t="s">
         <v>1859</v>
@@ -14759,10 +14755,10 @@
     <row r="95" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B95" s="43"/>
       <c r="C95" s="59" t="s">
-        <v>1756</v>
+        <v>1363</v>
       </c>
       <c r="D95" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="F95" t="s">
         <v>1859</v>
@@ -14771,10 +14767,10 @@
     <row r="96" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B96" s="43"/>
       <c r="C96" s="59" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="D96" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="F96" t="s">
         <v>1859</v>
@@ -14783,10 +14779,10 @@
     <row r="97" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B97" s="43"/>
       <c r="C97" s="59" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D97" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="F97" t="s">
         <v>1859</v>
@@ -14795,10 +14791,10 @@
     <row r="98" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B98" s="43"/>
       <c r="C98" s="59" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="D98" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="F98" t="s">
         <v>1859</v>
@@ -14807,10 +14803,10 @@
     <row r="99" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B99" s="43"/>
       <c r="C99" s="59" t="s">
-        <v>1364</v>
+        <v>1183</v>
       </c>
       <c r="D99" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="F99" t="s">
         <v>1859</v>
@@ -14819,10 +14815,10 @@
     <row r="100" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B100" s="43"/>
       <c r="C100" s="59" t="s">
-        <v>1183</v>
+        <v>1757</v>
       </c>
       <c r="D100" t="s">
-        <v>1810</v>
+        <v>1815</v>
       </c>
       <c r="F100" t="s">
         <v>1859</v>
@@ -14831,10 +14827,10 @@
     <row r="101" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B101" s="43"/>
       <c r="C101" s="59" t="s">
-        <v>1757</v>
+        <v>1263</v>
       </c>
       <c r="D101" t="s">
-        <v>1815</v>
+        <v>1184</v>
       </c>
       <c r="F101" t="s">
         <v>1859</v>
@@ -14843,10 +14839,10 @@
     <row r="102" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B102" s="43"/>
       <c r="C102" s="59" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D102" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="F102" t="s">
         <v>1859</v>
@@ -14855,10 +14851,10 @@
     <row r="103" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B103" s="43"/>
       <c r="C103" s="59" t="s">
-        <v>1264</v>
+        <v>1347</v>
       </c>
       <c r="D103" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="F103" t="s">
         <v>1859</v>
@@ -14867,10 +14863,10 @@
     <row r="104" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B104" s="43"/>
       <c r="C104" s="59" t="s">
-        <v>1347</v>
+        <v>1367</v>
       </c>
       <c r="D104" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="F104" t="s">
         <v>1859</v>
@@ -14879,10 +14875,10 @@
     <row r="105" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B105" s="43"/>
       <c r="C105" s="59" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D105" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="F105" t="s">
         <v>1859</v>
@@ -14891,10 +14887,10 @@
     <row r="106" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B106" s="43"/>
       <c r="C106" s="59" t="s">
-        <v>1368</v>
+        <v>1720</v>
       </c>
       <c r="D106" t="s">
-        <v>1188</v>
+        <v>1769</v>
       </c>
       <c r="F106" t="s">
         <v>1859</v>
@@ -14903,10 +14899,10 @@
     <row r="107" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B107" s="43"/>
       <c r="C107" s="59" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="D107" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="F107" t="s">
         <v>1859</v>
@@ -14915,10 +14911,10 @@
     <row r="108" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B108" s="43"/>
       <c r="C108" s="59" t="s">
-        <v>1721</v>
+        <v>1758</v>
       </c>
       <c r="D108" t="s">
-        <v>1770</v>
+        <v>1759</v>
       </c>
       <c r="F108" t="s">
         <v>1859</v>
@@ -14927,33 +14923,33 @@
     <row r="109" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B109" s="43"/>
       <c r="C109" s="59" t="s">
-        <v>1758</v>
+        <v>1722</v>
       </c>
       <c r="D109" t="s">
-        <v>1759</v>
+        <v>1771</v>
       </c>
       <c r="F109" t="s">
         <v>1859</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B110" s="43"/>
       <c r="C110" s="59" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="D110" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="F110" t="s">
         <v>1859</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B111" s="6"/>
       <c r="C111" s="59" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="D111" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="F111" t="s">
         <v>1859</v>
@@ -14962,10 +14958,10 @@
     <row r="112" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B112" s="6"/>
       <c r="C112" s="59" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D112" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="F112" t="s">
         <v>1859</v>
@@ -14974,10 +14970,10 @@
     <row r="113" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B113" s="6"/>
       <c r="C113" s="59" t="s">
-        <v>1725</v>
+        <v>1760</v>
       </c>
       <c r="D113" t="s">
-        <v>1774</v>
+        <v>1816</v>
       </c>
       <c r="F113" t="s">
         <v>1859</v>
@@ -14986,10 +14982,10 @@
     <row r="114" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B114" s="6"/>
       <c r="C114" s="59" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="D114" t="s">
-        <v>1816</v>
+        <v>1733</v>
       </c>
       <c r="F114" t="s">
         <v>1859</v>
@@ -14998,10 +14994,10 @@
     <row r="115" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B115" s="6"/>
       <c r="C115" s="59" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="D115" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="F115" t="s">
         <v>1859</v>
@@ -15010,10 +15006,10 @@
     <row r="116" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B116" s="6"/>
       <c r="C116" s="59" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="D116" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="F116" t="s">
         <v>1859</v>
@@ -15022,10 +15018,10 @@
     <row r="117" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B117" s="6"/>
       <c r="C117" s="59" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="D117" t="s">
-        <v>1729</v>
+        <v>1817</v>
       </c>
       <c r="F117" t="s">
         <v>1859</v>
@@ -15033,28 +15029,28 @@
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B118" s="6"/>
-      <c r="C118" s="59" t="s">
-        <v>1764</v>
-      </c>
-      <c r="D118" t="s">
-        <v>1817</v>
-      </c>
-      <c r="F118" t="s">
-        <v>1859</v>
-      </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B119" s="6"/>
+      <c r="B119" s="6" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C119" s="59" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1859</v>
+      </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B120" s="6" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C120" s="59" t="s">
-        <v>1257</v>
+      <c r="B120" s="6"/>
+      <c r="C120" t="s">
+        <v>1258</v>
       </c>
       <c r="D120" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="F120" t="s">
         <v>1859</v>
@@ -15063,10 +15059,10 @@
     <row r="121" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B121" s="6"/>
       <c r="C121" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="D121" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="F121" t="s">
         <v>1859</v>
@@ -15075,10 +15071,10 @@
     <row r="122" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B122" s="6"/>
       <c r="C122" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D122" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="F122" t="s">
         <v>1859</v>
@@ -15087,10 +15083,10 @@
     <row r="123" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B123" s="6"/>
       <c r="C123" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="D123" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="F123" t="s">
         <v>1859</v>
@@ -15099,22 +15095,21 @@
     <row r="124" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B124" s="6"/>
       <c r="C124" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D124" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="F124" t="s">
         <v>1859</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B125" s="6"/>
       <c r="C125" t="s">
-        <v>1260</v>
+        <v>1846</v>
       </c>
       <c r="D125" t="s">
-        <v>1182</v>
+        <v>1714</v>
       </c>
       <c r="F125" t="s">
         <v>1859</v>
@@ -15122,23 +15117,12 @@
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C126" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="D126" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="F126" t="s">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C127" t="s">
-        <v>1847</v>
-      </c>
-      <c r="D127" t="s">
-        <v>1713</v>
-      </c>
-      <c r="F127" t="s">
         <v>1859</v>
       </c>
     </row>
@@ -15196,12 +15180,12 @@
       <c r="B2" s="4" t="s">
         <v>1637</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="61" t="s">
         <v>1638</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -15750,12 +15734,12 @@
       <c r="B2" s="4" t="s">
         <v>1639</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="61" t="s">
         <v>1640</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -16140,12 +16124,12 @@
       <c r="B2" s="5" t="s">
         <v>1641</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="63" t="s">
         <v>1642</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -16312,7 +16296,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>1664</v>
@@ -16338,10 +16322,10 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>63</v>
@@ -16357,10 +16341,10 @@
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>53</v>
@@ -16373,10 +16357,10 @@
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>53</v>
@@ -16889,12 +16873,12 @@
       <c r="B2" s="5" t="s">
         <v>1643</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="63" t="s">
         <v>1644</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -17088,12 +17072,12 @@
       <c r="B2" s="17" t="s">
         <v>1645</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>1646</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
@@ -17463,7 +17447,7 @@
       <c r="E29" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="65" t="s">
+      <c r="F29" s="64" t="s">
         <v>161</v>
       </c>
     </row>
@@ -17479,7 +17463,7 @@
       <c r="E30" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="65"/>
+      <c r="F30" s="64"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="17"/>
@@ -17493,7 +17477,7 @@
       <c r="E31" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="65"/>
+      <c r="F31" s="64"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
@@ -17507,7 +17491,7 @@
       <c r="E32" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="65"/>
+      <c r="F32" s="64"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="17"/>
@@ -17521,7 +17505,7 @@
       <c r="E33" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="65"/>
+      <c r="F33" s="64"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="17"/>
@@ -17535,7 +17519,7 @@
       <c r="E34" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="65"/>
+      <c r="F34" s="64"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="17"/>
@@ -17549,7 +17533,7 @@
       <c r="E35" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="65"/>
+      <c r="F35" s="64"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="17"/>
@@ -17563,7 +17547,7 @@
       <c r="E36" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="65"/>
+      <c r="F36" s="64"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="17"/>
@@ -17577,7 +17561,7 @@
       <c r="E37" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="65"/>
+      <c r="F37" s="64"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="17"/>
@@ -17591,7 +17575,7 @@
       <c r="E38" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="65"/>
+      <c r="F38" s="64"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="17"/>
@@ -17605,7 +17589,7 @@
       <c r="E39" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="65"/>
+      <c r="F39" s="64"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="17"/>
@@ -17619,7 +17603,7 @@
       <c r="E40" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="65"/>
+      <c r="F40" s="64"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="17"/>
@@ -17633,7 +17617,7 @@
       <c r="E41" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="65"/>
+      <c r="F41" s="64"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="17"/>
@@ -17647,7 +17631,7 @@
       <c r="E42" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="65"/>
+      <c r="F42" s="64"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="17"/>
@@ -17661,7 +17645,7 @@
       <c r="E43" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="65"/>
+      <c r="F43" s="64"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="17"/>
@@ -17675,7 +17659,7 @@
       <c r="E44" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="65"/>
+      <c r="F44" s="64"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="17"/>
@@ -17689,7 +17673,7 @@
       <c r="E45" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="65"/>
+      <c r="F45" s="64"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="17"/>
@@ -17703,7 +17687,7 @@
       <c r="E46" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="65"/>
+      <c r="F46" s="64"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="17"/>
@@ -18235,7 +18219,7 @@
       <c r="E86" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F86" s="65" t="s">
+      <c r="F86" s="64" t="s">
         <v>267</v>
       </c>
     </row>
@@ -18251,7 +18235,7 @@
       <c r="E87" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F87" s="65"/>
+      <c r="F87" s="64"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="17"/>
@@ -18265,7 +18249,7 @@
       <c r="E88" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F88" s="65"/>
+      <c r="F88" s="64"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="17"/>
@@ -18279,7 +18263,7 @@
       <c r="E89" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F89" s="65"/>
+      <c r="F89" s="64"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="17"/>
@@ -18293,7 +18277,7 @@
       <c r="E90" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F90" s="65"/>
+      <c r="F90" s="64"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="17"/>
@@ -18307,7 +18291,7 @@
       <c r="E91" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F91" s="65"/>
+      <c r="F91" s="64"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="17"/>
@@ -18321,7 +18305,7 @@
       <c r="E92" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F92" s="65"/>
+      <c r="F92" s="64"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="17"/>
@@ -18335,7 +18319,7 @@
       <c r="E93" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F93" s="65"/>
+      <c r="F93" s="64"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="17"/>
@@ -18349,7 +18333,7 @@
       <c r="E94" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F94" s="65"/>
+      <c r="F94" s="64"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="17"/>
@@ -18363,7 +18347,7 @@
       <c r="E95" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F95" s="65"/>
+      <c r="F95" s="64"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="17"/>
@@ -18377,7 +18361,7 @@
       <c r="E96" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F96" s="65"/>
+      <c r="F96" s="64"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="17"/>
@@ -18391,7 +18375,7 @@
       <c r="E97" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F97" s="65"/>
+      <c r="F97" s="64"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="17"/>
@@ -18405,7 +18389,7 @@
       <c r="E98" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F98" s="65"/>
+      <c r="F98" s="64"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="17"/>
@@ -18419,7 +18403,7 @@
       <c r="E99" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F99" s="65"/>
+      <c r="F99" s="64"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="17"/>
@@ -19004,7 +18988,7 @@
       </c>
       <c r="F143" s="17"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="17"/>
       <c r="B144" s="17"/>
       <c r="C144" s="17" t="s">
@@ -19094,12 +19078,12 @@
       <c r="B2" s="5" t="s">
         <v>1647</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="63" t="s">
         <v>1648</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -19114,10 +19098,10 @@
       <c r="B4" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="65" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -19856,12 +19840,12 @@
       <c r="B2" s="17" t="s">
         <v>1649</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>1650</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
@@ -20499,12 +20483,12 @@
       <c r="B2" s="17" t="s">
         <v>1651</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>1652</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
@@ -22105,7 +22089,7 @@
       <c r="E123" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F123" s="65" t="s">
+      <c r="F123" s="64" t="s">
         <v>1041</v>
       </c>
     </row>
@@ -22121,7 +22105,7 @@
       <c r="E124" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F124" s="65"/>
+      <c r="F124" s="64"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="17"/>
@@ -22157,30 +22141,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-6680</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">
-      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-6680</Url>
-      <Description>VMX3MACP777Z-432858100-6680</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="533" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fe6dd6fbc47b2b2c3033f1a9c1079fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd9e5a0c56088652e9b5d1a36fcd7f8a" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -22449,6 +22409,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-6680</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">
+      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-6680</Url>
+      <Description>VMX3MACP777Z-432858100-6680</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
@@ -22500,9 +22484,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D26296-6F3A-450E-9A4D-26E32036C996}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
+    <ds:schemaRef ds:uri="d16efad5-0601-4cf0-b7c2-89968258c777"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22526,21 +22522,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D26296-6F3A-450E-9A4D-26E32036C996}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
-    <ds:schemaRef ds:uri="d16efad5-0601-4cf0-b7c2-89968258c777"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/Shared Resources/Code/DHS-Indicators-Stata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="114_{17F82F54-F8CB-43F8-AF09-BA1DBACED508}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C61CA9F1-39D0-4BEA-95B7-67463D459314}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="114_{17F82F54-F8CB-43F8-AF09-BA1DBACED508}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8883FA24-8239-4A5B-A3A6-730B3F9114AF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" tabRatio="690" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25140" yWindow="1260" windowWidth="18525" windowHeight="11175" tabRatio="690" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CH2PH" sheetId="17" r:id="rId1"/>
@@ -20441,7 +20441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -20451,7 +20451,7 @@
     <col min="2" max="2" width="19.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.54296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="82.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.453125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.90625" style="1"/>
   </cols>
@@ -22142,31 +22142,57 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-6680</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">
-      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-6680</Url>
-      <Description>VMX3MACP777Z-432858100-6680</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="533" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fe6dd6fbc47b2b2c3033f1a9c1079fd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd9e5a0c56088652e9b5d1a36fcd7f8a" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="533" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee862ef0fc8dbdbaa6c7a8968b7b48f1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd4fdd4f38f705a4fbfd7d3200bf1970" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
     <xsd:import namespace="d16efad5-0601-4cf0-b7c2-89968258c777"/>
@@ -22433,84 +22459,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-6680</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">
+      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-6680</Url>
+      <Description>VMX3MACP777Z-432858100-6680</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C070FFD4-2B81-40A9-9526-59DD893E6C18}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC59F560-844B-432B-8AD6-73714CEDFB96}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
-    <ds:schemaRef ds:uri="d16efad5-0601-4cf0-b7c2-89968258c777"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D26296-6F3A-450E-9A4D-26E32036C996}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6231620-EF35-4A3F-9A2D-F15BD61A5CB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -22529,10 +22511,28 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC59F560-844B-432B-8AD6-73714CEDFB96}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
+    <ds:schemaRef ds:uri="d16efad5-0601-4cf0-b7c2-89968258c777"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C070FFD4-2B81-40A9-9526-59DD893E6C18}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -22156,8 +22156,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="533" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee862ef0fc8dbdbaa6c7a8968b7b48f1">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd4fdd4f38f705a4fbfd7d3200bf1970" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="534" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a765ce11b89b42bcade51542d07405">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f7cf592af29221d7e264e507c9f7a8c" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
     <xsd:import namespace="d16efad5-0601-4cf0-b7c2-89968258c777"/>
@@ -22185,6 +22185,7 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -22270,6 +22271,11 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -22502,23 +22508,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6231620-EF35-4A3F-9A2D-F15BD61A5CB6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
-    <ds:schemaRef ds:uri="d16efad5-0601-4cf0-b7c2-89968258c777"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5603B0-5D4C-49A9-9737-00F4EE32046A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -22151,16 +22151,21 @@
       <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-6680</Url>
       <Description>VMX3MACP777Z-432858100-6680</Description>
     </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="534" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a765ce11b89b42bcade51542d07405">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f7cf592af29221d7e264e507c9f7a8c" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="537" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="32af978db1d8a110ec558ab40ef27856">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" xmlns:ns4="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="490a248aacda82af6307d667c2e14f68" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
     <xsd:import namespace="d16efad5-0601-4cf0-b7c2-89968258c777"/>
+    <xsd:import namespace="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -22186,6 +22191,8 @@
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -22278,6 +22285,13 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="30" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6856f2ee-118d-42e8-91de-064c9a66b685" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d16efad5-0601-4cf0-b7c2-89968258c777" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -22329,6 +22343,21 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="31" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{9af71320-1412-4515-a0b2-dc1dac8ea18d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d16efad5-0601-4cf0-b7c2-89968258c777">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -22508,7 +22537,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5603B0-5D4C-49A9-9737-00F4EE32046A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7400C4A1-7880-4671-9CBA-143AD7B24860}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/Shared Resources/Code/DHS-Indicators-Stata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D5F216C4-D72E-4091-BD40-86EC314E3642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8F8ADEC-A67D-4595-935B-C8E85729B1CB}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{D5F216C4-D72E-4091-BD40-86EC314E3642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{814064B8-358B-4DE1-96AB-37EC9CE7A0EF}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1755" windowWidth="29040" windowHeight="15840" tabRatio="690" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45120" yWindow="-4530" windowWidth="16440" windowHeight="28440" tabRatio="690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CH2PH" sheetId="17" r:id="rId1"/>
-    <sheet name="CH3RC" sheetId="16" r:id="rId2"/>
+    <sheet name="CH3RC" sheetId="24" r:id="rId2"/>
     <sheet name="Ch4MS" sheetId="2" r:id="rId3"/>
     <sheet name="Ch5FE" sheetId="3" r:id="rId4"/>
     <sheet name="Ch6FF" sheetId="4" r:id="rId5"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4018" uniqueCount="2266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4046" uniqueCount="2280">
   <si>
     <t>Chapter</t>
   </si>
@@ -6853,6 +6853,48 @@
   </si>
   <si>
     <t>"HepB at birth vaccination according to either source"</t>
+  </si>
+  <si>
+    <t>rc_alc_any</t>
+  </si>
+  <si>
+    <t>"Consumed alcohol in the last one month"</t>
+  </si>
+  <si>
+    <t>rc_alc_freq</t>
+  </si>
+  <si>
+    <t>"Frequency of drinking among those who consumed alcohol in the last one month"</t>
+  </si>
+  <si>
+    <t>rc_alc_drinks</t>
+  </si>
+  <si>
+    <t>"Average number of drinks consumed among those who consumed alcohol in the last one month"</t>
+  </si>
+  <si>
+    <t>rc_place_birth</t>
+  </si>
+  <si>
+    <t>"Place of birth and residence"</t>
+  </si>
+  <si>
+    <t>rc_migrant_5yrs</t>
+  </si>
+  <si>
+    <t>"Migrant that moved to current place of residence in the last 5 years"</t>
+  </si>
+  <si>
+    <t>rc_migrant_type</t>
+  </si>
+  <si>
+    <t>"Type of migrant that moved to current place of residence in the last 5 years"</t>
+  </si>
+  <si>
+    <t>rc_migrant_reason</t>
+  </si>
+  <si>
+    <t>"Reason for migration among those who moved to current place of residence in the last 5 years"</t>
   </si>
 </sst>
 </file>
@@ -7094,8 +7136,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17168,11 +17210,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9131FEDA-1CF1-4CA8-9871-E8FF10DC2924}">
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17180,7 +17222,7 @@
     <col min="1" max="1" width="16.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="71.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="41.453125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.81640625" style="1"/>
@@ -17274,7 +17316,7 @@
       </c>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
@@ -17291,25 +17333,19 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="15" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>9</v>
-      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>9</v>
@@ -17320,10 +17356,10 @@
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>9</v>
@@ -17334,24 +17370,24 @@
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>9</v>
@@ -17362,10 +17398,10 @@
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15" t="s">
-        <v>1010</v>
+        <v>1139</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>1011</v>
+        <v>1144</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>9</v>
@@ -17376,24 +17412,24 @@
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>9</v>
@@ -17404,66 +17440,60 @@
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>1145</v>
+        <v>1015</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="15" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>9</v>
-      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>1022</v>
+        <v>1145</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="15"/>
     </row>
-    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>9</v>
@@ -17474,52 +17504,46 @@
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
-        <v>1146</v>
+        <v>1020</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>1151</v>
+        <v>1023</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="15"/>
     </row>
-    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15" t="s">
-        <v>1167</v>
+        <v>1021</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>1147</v>
+        <v>1024</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="15"/>
     </row>
-    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="15" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>9</v>
-      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="15"/>
     </row>
-    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15" t="s">
-        <v>1169</v>
+        <v>1146</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>9</v>
@@ -17530,10 +17554,10 @@
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>9</v>
@@ -17544,10 +17568,10 @@
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15" t="s">
-        <v>1025</v>
+        <v>1168</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>1026</v>
+        <v>1148</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>9</v>
@@ -17558,10 +17582,10 @@
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15" t="s">
-        <v>1027</v>
+        <v>1169</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>1028</v>
+        <v>1149</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>9</v>
@@ -17572,10 +17596,10 @@
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15" t="s">
-        <v>1029</v>
+        <v>1170</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>1030</v>
+        <v>1150</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>9</v>
@@ -17586,10 +17610,10 @@
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15" t="s">
-        <v>1165</v>
+        <v>1025</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>1166</v>
+        <v>1026</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>9</v>
@@ -17599,28 +17623,22 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
-      <c r="C30" s="15" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>19</v>
-      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F31" s="15"/>
     </row>
@@ -17628,10 +17646,10 @@
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15" t="s">
-        <v>1152</v>
+        <v>1029</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>1158</v>
+        <v>1030</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>9</v>
@@ -17642,10 +17660,10 @@
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15" t="s">
-        <v>1153</v>
+        <v>1165</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>1159</v>
+        <v>1166</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>9</v>
@@ -17656,13 +17674,13 @@
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15" t="s">
-        <v>1154</v>
+        <v>1032</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>1161</v>
+        <v>1033</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F34" s="15"/>
     </row>
@@ -17670,47 +17688,201 @@
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15" t="s">
-        <v>1155</v>
+        <v>1034</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>1160</v>
+        <v>1035</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C36" s="1" t="s">
-        <v>1157</v>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15" t="s">
+        <v>1152</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>9</v>
       </c>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C37" s="1" t="s">
-        <v>1156</v>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15" t="s">
+        <v>1153</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>9</v>
       </c>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C38" s="1" t="s">
-        <v>1031</v>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15" t="s">
+        <v>1154</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>9</v>
+      </c>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C40" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C41" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C42" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C44" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C45" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>2271</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C48" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C49" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C50" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C51" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>2279</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>1861</v>
       </c>
     </row>
   </sheetData>
@@ -23247,8 +23419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48DB349-AD5D-467C-98A6-AE80A94E1333}">
   <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView topLeftCell="A96" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24089,13 +24261,13 @@
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
-      <c r="C63" s="37" t="s">
+      <c r="C63" s="15" t="s">
         <v>2253</v>
       </c>
-      <c r="D63" s="37" t="s">
+      <c r="D63" s="15" t="s">
         <v>2254</v>
       </c>
-      <c r="E63" s="37" t="s">
+      <c r="E63" s="15" t="s">
         <v>73</v>
       </c>
       <c r="F63" s="15" t="s">
@@ -24105,13 +24277,13 @@
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
-      <c r="C64" s="37" t="s">
+      <c r="C64" s="15" t="s">
         <v>2256</v>
       </c>
-      <c r="D64" s="37" t="s">
+      <c r="D64" s="15" t="s">
         <v>2257</v>
       </c>
-      <c r="E64" s="37" t="s">
+      <c r="E64" s="15" t="s">
         <v>73</v>
       </c>
       <c r="F64" s="15" t="s">
@@ -24121,13 +24293,13 @@
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
-      <c r="C65" s="37" t="s">
+      <c r="C65" s="15" t="s">
         <v>2258</v>
       </c>
-      <c r="D65" s="37" t="s">
+      <c r="D65" s="15" t="s">
         <v>2259</v>
       </c>
-      <c r="E65" s="37" t="s">
+      <c r="E65" s="15" t="s">
         <v>73</v>
       </c>
       <c r="F65" s="15" t="s">
@@ -24137,21 +24309,21 @@
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
       <c r="F66" s="15"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
-      <c r="C67" s="37" t="s">
+      <c r="C67" s="15" t="s">
         <v>2260</v>
       </c>
-      <c r="D67" s="37" t="s">
+      <c r="D67" s="15" t="s">
         <v>2261</v>
       </c>
-      <c r="E67" s="37" t="s">
+      <c r="E67" s="15" t="s">
         <v>73</v>
       </c>
       <c r="F67" s="15" t="s">
@@ -24161,13 +24333,13 @@
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
-      <c r="C68" s="37" t="s">
+      <c r="C68" s="15" t="s">
         <v>2262</v>
       </c>
-      <c r="D68" s="37" t="s">
+      <c r="D68" s="15" t="s">
         <v>2263</v>
       </c>
-      <c r="E68" s="37" t="s">
+      <c r="E68" s="15" t="s">
         <v>73</v>
       </c>
       <c r="F68" s="15" t="s">
@@ -24177,13 +24349,13 @@
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
-      <c r="C69" s="37" t="s">
+      <c r="C69" s="15" t="s">
         <v>2264</v>
       </c>
-      <c r="D69" s="37" t="s">
+      <c r="D69" s="15" t="s">
         <v>2265</v>
       </c>
-      <c r="E69" s="37" t="s">
+      <c r="E69" s="15" t="s">
         <v>73</v>
       </c>
       <c r="F69" s="15" t="s">
@@ -25605,6 +25777,84 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-6680</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">
+      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-6680</Url>
+      <Description>VMX3MACP777Z-432858100-6680</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="537" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="32af978db1d8a110ec558ab40ef27856">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" xmlns:ns4="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="490a248aacda82af6307d667c2e14f68" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -25904,85 +26154,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC59F560-844B-432B-8AD6-73714CEDFB96}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
+    <ds:schemaRef ds:uri="d16efad5-0601-4cf0-b7c2-89968258c777"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-6680</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">
-      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-6680</Url>
-      <Description>VMX3MACP777Z-432858100-6680</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAll xmlns="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C070FFD4-2B81-40A9-9526-59DD893E6C18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7400C4A1-7880-4671-9CBA-143AD7B24860}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26001,39 +26208,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C070FFD4-2B81-40A9-9526-59DD893E6C18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC59F560-844B-432B-8AD6-73714CEDFB96}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
-    <ds:schemaRef ds:uri="d16efad5-0601-4cf0-b7c2-89968258c777"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/IndicatorList.xlsx
+++ b/IndicatorList.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/Shared Resources/Code/DHS-Indicators-Stata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{D5F216C4-D72E-4091-BD40-86EC314E3642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{814064B8-358B-4DE1-96AB-37EC9CE7A0EF}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{D5F216C4-D72E-4091-BD40-86EC314E3642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E30737ED-297F-407F-A3D1-800905074644}"/>
   <bookViews>
-    <workbookView xWindow="-45120" yWindow="-4530" windowWidth="16440" windowHeight="28440" tabRatio="690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1755" windowWidth="29040" windowHeight="15840" tabRatio="690" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CH2PH" sheetId="17" r:id="rId1"/>
     <sheet name="CH3RC" sheetId="24" r:id="rId2"/>
-    <sheet name="Ch4MS" sheetId="2" r:id="rId3"/>
+    <sheet name="Ch4MS" sheetId="25" r:id="rId3"/>
     <sheet name="Ch5FE" sheetId="3" r:id="rId4"/>
     <sheet name="Ch6FF" sheetId="4" r:id="rId5"/>
     <sheet name="Ch7FP" sheetId="20" r:id="rId6"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4046" uniqueCount="2280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4062" uniqueCount="2288">
   <si>
     <t>Chapter</t>
   </si>
@@ -6895,6 +6895,30 @@
   </si>
   <si>
     <t>"Reason for migration among those who moved to current place of residence in the last 5 years"</t>
+  </si>
+  <si>
+    <t>ms_mar_regis</t>
+  </si>
+  <si>
+    <t>"Current marriage is registered with civil authorities"</t>
+  </si>
+  <si>
+    <t>ms_mar_doc</t>
+  </si>
+  <si>
+    <t>"Current marriage is registered and has documentation recognizing the marriage/union"</t>
+  </si>
+  <si>
+    <t>ms_mar_cert</t>
+  </si>
+  <si>
+    <t>"Current marriage is registered and has a marriage certificate"</t>
+  </si>
+  <si>
+    <t>ms_sex_timing</t>
+  </si>
+  <si>
+    <t>"Timing of recent sexual activity"</t>
   </si>
 </sst>
 </file>
@@ -7036,7 +7060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7116,6 +7140,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7136,8 +7163,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7463,12 +7490,12 @@
       <c r="B2" s="4" t="s">
         <v>1536</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>1537</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -8585,12 +8612,12 @@
       <c r="B2" s="15" t="s">
         <v>1554</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>1970</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
@@ -11270,12 +11297,12 @@
       <c r="B2" s="15" t="s">
         <v>1555</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>1556</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
@@ -11473,7 +11500,7 @@
       <c r="E16" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="36" t="s">
         <v>810</v>
       </c>
     </row>
@@ -11487,7 +11514,7 @@
         <v>812</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="35"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
@@ -11563,7 +11590,7 @@
       <c r="E23" s="15" t="s">
         <v>752</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="37" t="s">
         <v>823</v>
       </c>
     </row>
@@ -11579,7 +11606,7 @@
       <c r="E24" s="15" t="s">
         <v>752</v>
       </c>
-      <c r="F24" s="36"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
@@ -11593,7 +11620,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="15"/>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="31" t="s">
         <v>827</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -11611,7 +11638,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
-      <c r="B27" s="30"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="1" t="s">
         <v>831</v>
       </c>
@@ -11627,7 +11654,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
-      <c r="B28" s="30"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="1" t="s">
         <v>833</v>
       </c>
@@ -11643,7 +11670,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
-      <c r="B29" s="30"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="15" t="s">
         <v>835</v>
       </c>
@@ -11657,7 +11684,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
-      <c r="B30" s="30"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="15" t="s">
         <v>837</v>
       </c>
@@ -11671,7 +11698,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
-      <c r="B31" s="30"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="15" t="s">
         <v>839</v>
       </c>
@@ -12283,12 +12310,12 @@
       <c r="B2" s="15" t="s">
         <v>1557</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>1558</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F3" s="5"/>
@@ -12529,7 +12556,7 @@
       <c r="E26" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="33" t="s">
         <v>921</v>
       </c>
       <c r="G26" s="21"/>
@@ -12544,7 +12571,7 @@
       <c r="E27" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="32"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C28" s="18" t="s">
@@ -12556,7 +12583,7 @@
       <c r="E28" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="32"/>
+      <c r="F28" s="33"/>
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -12569,7 +12596,7 @@
       <c r="E29" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="32"/>
+      <c r="F29" s="33"/>
     </row>
     <row r="30" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C30" s="18" t="s">
@@ -13070,12 +13097,12 @@
       <c r="B2" s="15" t="s">
         <v>1559</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>1560</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
@@ -13118,7 +13145,7 @@
       <c r="E7" s="18" t="s">
         <v>966</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="33" t="s">
         <v>967</v>
       </c>
     </row>
@@ -13132,7 +13159,7 @@
       <c r="E8" s="18" t="s">
         <v>966</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" s="18" t="s">
@@ -13144,7 +13171,7 @@
       <c r="E9" s="18" t="s">
         <v>966</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" s="18" t="s">
@@ -13368,12 +13395,12 @@
       <c r="B2" s="15" t="s">
         <v>1561</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>1562</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
@@ -13795,12 +13822,12 @@
       <c r="B2" s="15" t="s">
         <v>1757</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>1563</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
@@ -13979,12 +14006,12 @@
       <c r="B2" s="15" t="s">
         <v>1782</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>1563</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
@@ -15389,12 +15416,12 @@
       <c r="B2" s="15" t="s">
         <v>1784</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>1785</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
@@ -16339,12 +16366,12 @@
       <c r="B2" s="15" t="s">
         <v>1796</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>1797</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
@@ -17213,7 +17240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9131FEDA-1CF1-4CA8-9871-E8FF10DC2924}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -17255,12 +17282,12 @@
       <c r="B2" s="4" t="s">
         <v>1538</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>1539</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -17819,7 +17846,7 @@
       <c r="C46" s="1" t="s">
         <v>2270</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="30" t="s">
         <v>2271</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -17875,7 +17902,7 @@
       <c r="C51" s="1" t="s">
         <v>2278</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="30" t="s">
         <v>2279</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -17894,11 +17921,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D9FD1F-9E04-40FA-B90D-BB6D8A41E98B}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17906,7 +17933,7 @@
     <col min="1" max="1" width="16.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="41.453125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.81640625" style="1"/>
@@ -17939,12 +17966,12 @@
       <c r="B2" s="4" t="s">
         <v>1540</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>1541</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
@@ -17987,292 +18014,348 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="C6" s="38" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>2281</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F6" s="38" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="C7" s="38" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>2283</v>
+      </c>
+      <c r="E7" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="38" t="s">
+        <v>1861</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="15"/>
+      <c r="C8" s="38" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2285</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>1861</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="15"/>
+      <c r="C9" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
-      <c r="C10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="15"/>
+      <c r="C10" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
-      <c r="C11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="15"/>
+      <c r="C11" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
-      <c r="C12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="C12" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="C13" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="C14" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="C15" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>34</v>
-      </c>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="C16" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="38"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
-      <c r="B18" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="15" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="38" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="15" t="s">
+      <c r="C19" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="15" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="15" t="s">
+      <c r="C22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="F22" s="38"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="15" t="s">
+      <c r="C23" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>34</v>
-      </c>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
-      <c r="C24" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="15" t="s">
+      <c r="C24" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="C25" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="38"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="C26" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="C27" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="38"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="38" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>2287</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -18328,12 +18411,12 @@
       <c r="B2" s="5" t="s">
         <v>1542</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>1543</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -19077,12 +19160,12 @@
       <c r="B2" s="5" t="s">
         <v>1544</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>1545</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -19276,12 +19359,12 @@
       <c r="B2" s="15" t="s">
         <v>1546</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>1547</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
@@ -19673,7 +19756,7 @@
       <c r="E31" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="34" t="s">
         <v>1856</v>
       </c>
     </row>
@@ -19689,7 +19772,7 @@
       <c r="E32" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="33"/>
+      <c r="F32" s="34"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="15"/>
@@ -19703,7 +19786,7 @@
       <c r="E33" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="33"/>
+      <c r="F33" s="34"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="15"/>
@@ -19717,7 +19800,7 @@
       <c r="E34" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="33"/>
+      <c r="F34" s="34"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="15"/>
@@ -19731,7 +19814,7 @@
       <c r="E35" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="33"/>
+      <c r="F35" s="34"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="15"/>
@@ -19745,7 +19828,7 @@
       <c r="E36" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="33"/>
+      <c r="F36" s="34"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="15"/>
@@ -19759,7 +19842,7 @@
       <c r="E37" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="33"/>
+      <c r="F37" s="34"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="15"/>
@@ -19773,7 +19856,7 @@
       <c r="E38" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="33"/>
+      <c r="F38" s="34"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="15"/>
@@ -19787,7 +19870,7 @@
       <c r="E39" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="33"/>
+      <c r="F39" s="34"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="15"/>
@@ -19801,7 +19884,7 @@
       <c r="E40" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="33"/>
+      <c r="F40" s="34"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="15"/>
@@ -19815,7 +19898,7 @@
       <c r="E41" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="33"/>
+      <c r="F41" s="34"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="15"/>
@@ -19829,7 +19912,7 @@
       <c r="E42" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="33"/>
+      <c r="F42" s="34"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="15"/>
@@ -19843,7 +19926,7 @@
       <c r="E43" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="33"/>
+      <c r="F43" s="34"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="15"/>
@@ -19857,7 +19940,7 @@
       <c r="E44" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="33"/>
+      <c r="F44" s="34"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="15"/>
@@ -19871,7 +19954,7 @@
       <c r="E45" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="33"/>
+      <c r="F45" s="34"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="15"/>
@@ -19885,7 +19968,7 @@
       <c r="E46" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="33"/>
+      <c r="F46" s="34"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="15"/>
@@ -19899,7 +19982,7 @@
       <c r="E47" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="33"/>
+      <c r="F47" s="34"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="15"/>
@@ -19913,7 +19996,7 @@
       <c r="E48" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="33"/>
+      <c r="F48" s="34"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="15"/>
@@ -20533,7 +20616,7 @@
       <c r="E94" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F94" s="33" t="s">
+      <c r="F94" s="34" t="s">
         <v>265</v>
       </c>
     </row>
@@ -20549,7 +20632,7 @@
       <c r="E95" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F95" s="33"/>
+      <c r="F95" s="34"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="15"/>
@@ -20563,7 +20646,7 @@
       <c r="E96" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F96" s="33"/>
+      <c r="F96" s="34"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="15"/>
@@ -20577,7 +20660,7 @@
       <c r="E97" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F97" s="33"/>
+      <c r="F97" s="34"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="15"/>
@@ -20591,7 +20674,7 @@
       <c r="E98" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F98" s="33"/>
+      <c r="F98" s="34"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="15"/>
@@ -20605,7 +20688,7 @@
       <c r="E99" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F99" s="33"/>
+      <c r="F99" s="34"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="15"/>
@@ -20619,7 +20702,7 @@
       <c r="E100" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F100" s="33"/>
+      <c r="F100" s="34"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="15"/>
@@ -20633,7 +20716,7 @@
       <c r="E101" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F101" s="33"/>
+      <c r="F101" s="34"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="15"/>
@@ -20647,7 +20730,7 @@
       <c r="E102" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F102" s="33"/>
+      <c r="F102" s="34"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="15"/>
@@ -20661,7 +20744,7 @@
       <c r="E103" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F103" s="33"/>
+      <c r="F103" s="34"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="15"/>
@@ -20675,7 +20758,7 @@
       <c r="E104" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F104" s="33"/>
+      <c r="F104" s="34"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="15"/>
@@ -20689,7 +20772,7 @@
       <c r="E105" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F105" s="33"/>
+      <c r="F105" s="34"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="15"/>
@@ -20703,7 +20786,7 @@
       <c r="E106" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F106" s="33"/>
+      <c r="F106" s="34"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="15"/>
@@ -20717,7 +20800,7 @@
       <c r="E107" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F107" s="33"/>
+      <c r="F107" s="34"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="15"/>
@@ -21533,12 +21616,12 @@
       <c r="B2" s="5" t="s">
         <v>1548</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>1549</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -21553,10 +21636,10 @@
       <c r="B4" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="35" t="s">
         <v>374</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -22295,12 +22378,12 @@
       <c r="B2" s="15" t="s">
         <v>1550</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>1551</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
@@ -23461,12 +23544,12 @@
       <c r="B2" s="15" t="s">
         <v>1552</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>1553</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
@@ -25777,84 +25860,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-6680</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">
-      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-6680</Url>
-      <Description>VMX3MACP777Z-432858100-6680</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAll xmlns="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="537" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="32af978db1d8a110ec558ab40ef27856">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" xmlns:ns4="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="490a248aacda82af6307d667c2e14f68" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -26154,42 +26159,85 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC59F560-844B-432B-8AD6-73714CEDFB96}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
-    <ds:schemaRef ds:uri="d16efad5-0601-4cf0-b7c2-89968258c777"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C070FFD4-2B81-40A9-9526-59DD893E6C18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">VMX3MACP777Z-432858100-6680</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="d16efad5-0601-4cf0-b7c2-89968258c777">
+      <Url>https://icfonline.sharepoint.com/sites/ihd-dhs/Analysis/_layouts/15/DocIdRedir.aspx?ID=VMX3MACP777Z-432858100-6680</Url>
+      <Description>VMX3MACP777Z-432858100-6680</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7400C4A1-7880-4671-9CBA-143AD7B24860}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26208,4 +26256,39 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C070FFD4-2B81-40A9-9526-59DD893E6C18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E9E434-4B8B-4BAE-8E0F-2B34F42316A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC59F560-844B-432B-8AD6-73714CEDFB96}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
+    <ds:schemaRef ds:uri="d16efad5-0601-4cf0-b7c2-89968258c777"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>